--- a/mathematical physics/Book 1.xlsx
+++ b/mathematical physics/Book 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oleks\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\university-labs\mathematical physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD5AA66-20C0-426F-A83F-DA8B07A4E671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713B8DA3-970A-4E78-9E7D-50E362100D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
   <si>
     <t>a=</t>
   </si>
@@ -166,6 +166,30 @@
   <si>
     <t>x*=</t>
   </si>
+  <si>
+    <t>1tau</t>
+  </si>
+  <si>
+    <t>2tau</t>
+  </si>
+  <si>
+    <t>3tau</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>K(i)</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>gamma=</t>
+  </si>
 </sst>
 </file>
 
@@ -245,7 +269,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -283,6 +307,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -291,11 +324,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1" applyProtection="1"/>
@@ -327,6 +357,16 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3049,6 +3089,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>569571</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>161738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{014F5C1C-35B5-BDF3-7F37-777EE1B8339E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="20193000"/>
+          <a:ext cx="4542857" cy="1495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3228,10 +3312,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T105"/>
+  <dimension ref="A1:U112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J98" sqref="J98"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89:T89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3257,14 +3341,14 @@
       <c r="C2">
         <v>3</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
         <v>210</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>210</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -3273,17 +3357,17 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <f>$L$3*3+$L$4</f>
         <v>159.5</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>13</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>23</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>159.5</v>
       </c>
       <c r="L3">
@@ -3301,17 +3385,17 @@
       <c r="C4">
         <v>8</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <f>$L$3*2+$L$4</f>
         <v>109</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>12</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>22</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>109</v>
       </c>
       <c r="L4">
@@ -3330,29 +3414,29 @@
         <f>7*30</f>
         <v>210</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <f>$L$3*1+$L$4</f>
         <v>58.5</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>11</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>21</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>58.5</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
         <v>8</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>8</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -3590,7 +3674,7 @@
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>4</v>
       </c>
       <c r="C13">
@@ -3633,17 +3717,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <f t="shared" si="1"/>
         <v>7.3974609375E-2</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="3">
         <f t="shared" si="1"/>
         <v>7.3974609375E-2</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>5</v>
       </c>
       <c r="C14">
@@ -3677,14 +3761,14 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4">
         <v>210</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>210</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="4"/>
       <c r="H17" t="s">
         <v>15</v>
       </c>
@@ -3702,95 +3786,95 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <f>$L$3*4+$L$4</f>
         <v>210</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5">
         <f>$L$3*4+$L$4</f>
         <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <f>$L$3*3+$L$4</f>
         <v>159.5</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>13</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>23</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>159.5</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <f>$L$3*2+$L$4</f>
         <v>109</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>12</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>22</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <f>$L$3*1+$L$4</f>
         <v>58.5</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>11</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>21</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>58.5</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C22" s="5"/>
-      <c r="D22" s="5">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4">
         <v>8</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>8</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -3831,7 +3915,7 @@
         <v>64.319999999999993</v>
       </c>
       <c r="K27">
-        <f t="shared" ref="K27:K28" si="6">(1-2*$F$26)*L35+$F$26*(K35+M35)</f>
+        <f t="shared" ref="K27" si="6">(1-2*$F$26)*L35+$F$26*(K35+M35)</f>
         <v>107.65333333333336</v>
       </c>
     </row>
@@ -3867,7 +3951,7 @@
         <f>(C38-C37)/C31^2*1^2+C37</f>
         <v>628</v>
       </c>
-      <c r="N29" s="8"/>
+      <c r="N29" s="7"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
@@ -3947,16 +4031,16 @@
       <c r="H33">
         <v>0</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="8">
         <v>0.1</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="8">
         <v>0.2</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K33" s="8">
         <v>0.3</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L33" s="8">
         <v>0.4</v>
       </c>
       <c r="M33">
@@ -3992,19 +4076,19 @@
         <f>$C$37</f>
         <v>4</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="8">
         <f>($C$38-$C$37)/$C$31^2*I33^2+$C$37</f>
         <v>10.240000000000002</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="8">
         <f>($C$38-$C$37)/$C$31^2*J33^2+$C$37</f>
         <v>28.960000000000004</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K34" s="8">
         <f>($C$38-$C$37)/$C$31^2*K33^2+$C$37</f>
         <v>60.16</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L34" s="8">
         <f>($C$38-$C$37)/$C$31^2*L33^2+$C$37</f>
         <v>103.84000000000002</v>
       </c>
@@ -4043,19 +4127,19 @@
         <f>$C$37</f>
         <v>4</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="8">
         <f>1/6*(H34+4*I34+J34)</f>
         <v>12.320000000000002</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="8">
         <f>1/6*(I34+4*J34+K34)</f>
         <v>31.04</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K35" s="8">
         <f>1/6*(J34+4*K34+L34)</f>
         <v>62.239999999999995</v>
       </c>
-      <c r="L35" s="9">
+      <c r="L35" s="8">
         <f t="shared" ref="I35:L37" si="7">1/6*(K34+4*L34+M34)</f>
         <v>105.92000000000002</v>
       </c>
@@ -4094,19 +4178,19 @@
         <f>$C$37</f>
         <v>4</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="8">
         <f t="shared" si="7"/>
         <v>14.053333333333335</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="8">
         <f t="shared" si="7"/>
         <v>33.11999999999999</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K36" s="8">
         <f t="shared" si="7"/>
         <v>64.319999999999993</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L36" s="8">
         <f t="shared" si="7"/>
         <v>107.65333333333334</v>
       </c>
@@ -4133,19 +4217,19 @@
         <f>$C$37</f>
         <v>4</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="8">
         <f t="shared" si="7"/>
         <v>15.555555555555554</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J37" s="8">
         <f t="shared" si="7"/>
         <v>35.142222222222216</v>
       </c>
-      <c r="K37" s="9">
+      <c r="K37" s="8">
         <f t="shared" si="7"/>
         <v>66.342222222222205</v>
       </c>
-      <c r="L37" s="9">
+      <c r="L37" s="8">
         <f t="shared" si="7"/>
         <v>109.15555555555557</v>
       </c>
@@ -4164,28 +4248,28 @@
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
+      <c r="R56" s="17"/>
+      <c r="S56" s="17"/>
+      <c r="T56" s="17"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
@@ -4202,10 +4286,10 @@
       <c r="C59">
         <v>1</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E59" s="10">
         <f>1/6</f>
         <v>0.16666666666666666</v>
       </c>
@@ -4217,10 +4301,10 @@
       <c r="C60">
         <v>0.5</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E60" s="10">
         <f>E59</f>
         <v>0.16666666666666666</v>
       </c>
@@ -4232,31 +4316,31 @@
       <c r="C61">
         <v>0.1</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E61" s="10">
         <f>E60</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12">
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11">
         <v>0</v>
       </c>
-      <c r="I61" s="12">
+      <c r="I61" s="11">
         <v>1</v>
       </c>
-      <c r="J61" s="12">
+      <c r="J61" s="11">
         <v>2</v>
       </c>
-      <c r="K61" s="12">
+      <c r="K61" s="11">
         <v>3</v>
       </c>
-      <c r="L61" s="12">
+      <c r="L61" s="11">
         <v>4</v>
       </c>
-      <c r="M61" s="12">
+      <c r="M61" s="11">
         <v>5</v>
       </c>
     </row>
@@ -4267,31 +4351,31 @@
       <c r="C62">
         <v>3</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E62" s="10">
         <f>1+2*E61</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12">
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11">
         <v>0</v>
       </c>
-      <c r="I62" s="12">
+      <c r="I62" s="11">
         <v>0.1</v>
       </c>
-      <c r="J62" s="12">
+      <c r="J62" s="11">
         <v>0.2</v>
       </c>
-      <c r="K62" s="12">
+      <c r="K62" s="11">
         <v>0.3</v>
       </c>
-      <c r="L62" s="12">
+      <c r="L62" s="11">
         <v>0.4</v>
       </c>
-      <c r="M62" s="12">
+      <c r="M62" s="11">
         <v>0.5</v>
       </c>
     </row>
@@ -4302,32 +4386,32 @@
       <c r="C63">
         <v>11350</v>
       </c>
-      <c r="F63" s="12">
+      <c r="F63" s="11">
         <v>0</v>
       </c>
-      <c r="G63" s="12">
+      <c r="G63" s="11">
         <v>0</v>
       </c>
-      <c r="H63" s="12">
+      <c r="H63" s="11">
         <v>4</v>
       </c>
-      <c r="I63" s="12">
+      <c r="I63" s="11">
         <f>($C$38-$C$37)/$C$31^2*I62^2+$C$37</f>
         <v>10.240000000000002</v>
       </c>
-      <c r="J63" s="12">
+      <c r="J63" s="11">
         <f>($C$38-$C$37)/$C$31^2*J62^2+$C$37</f>
         <v>28.960000000000004</v>
       </c>
-      <c r="K63" s="12">
+      <c r="K63" s="11">
         <f>($C$38-$C$37)/$C$31^2*K62^2+$C$37</f>
         <v>60.16</v>
       </c>
-      <c r="L63" s="12">
+      <c r="L63" s="11">
         <f>($C$38-$C$37)/$C$31^2*L62^2+$C$37</f>
         <v>103.84000000000002</v>
       </c>
-      <c r="M63" s="12">
+      <c r="M63" s="11">
         <f>$C$38</f>
         <v>160</v>
       </c>
@@ -4339,29 +4423,29 @@
       <c r="C64">
         <v>35.1</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F64" s="11">
         <v>1</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G64" s="11">
         <f>F64*$F$32</f>
         <v>6.8444919278252622E-2</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H64" s="11">
         <v>4</v>
       </c>
-      <c r="I64" s="12">
+      <c r="I64" s="11">
         <v>12.06</v>
       </c>
-      <c r="J64" s="12">
+      <c r="J64" s="11">
         <v>31</v>
       </c>
-      <c r="K64" s="12">
+      <c r="K64" s="11">
         <v>62.2</v>
       </c>
-      <c r="L64" s="12">
+      <c r="L64" s="11">
         <v>105.66</v>
       </c>
-      <c r="M64" s="12">
+      <c r="M64" s="11">
         <f>$C$38</f>
         <v>160</v>
       </c>
@@ -4373,29 +4457,29 @@
       <c r="C65">
         <v>0.127</v>
       </c>
-      <c r="F65" s="12">
+      <c r="F65" s="11">
         <v>2</v>
       </c>
-      <c r="G65" s="12">
+      <c r="G65" s="11">
         <f>F65*$F$32</f>
         <v>0.13688983855650524</v>
       </c>
-      <c r="H65" s="12">
+      <c r="H65" s="11">
         <v>4</v>
       </c>
-      <c r="I65" s="12">
+      <c r="I65" s="11">
         <v>13.67</v>
       </c>
-      <c r="J65" s="12">
+      <c r="J65" s="11">
         <v>32.979999999999997</v>
       </c>
-      <c r="K65" s="12">
+      <c r="K65" s="11">
         <v>64.180000000000007</v>
       </c>
-      <c r="L65" s="12">
+      <c r="L65" s="11">
         <v>107.27</v>
       </c>
-      <c r="M65" s="12">
+      <c r="M65" s="11">
         <f>$C$38</f>
         <v>160</v>
       </c>
@@ -4407,29 +4491,29 @@
       <c r="C66">
         <v>4</v>
       </c>
-      <c r="F66" s="12">
+      <c r="F66" s="11">
         <v>3</v>
       </c>
-      <c r="G66" s="12">
+      <c r="G66" s="11">
         <f>F66*$F$32</f>
         <v>0.20533475783475785</v>
       </c>
-      <c r="H66" s="12">
+      <c r="H66" s="11">
         <v>4</v>
       </c>
-      <c r="I66" s="12">
+      <c r="I66" s="11">
         <v>15.11</v>
       </c>
-      <c r="J66" s="12">
+      <c r="J66" s="11">
         <v>34.880000000000003</v>
       </c>
-      <c r="K66" s="12">
+      <c r="K66" s="11">
         <v>66.08</v>
       </c>
-      <c r="L66" s="12">
+      <c r="L66" s="11">
         <v>108.71</v>
       </c>
-      <c r="M66" s="12">
+      <c r="M66" s="11">
         <f>$C$38</f>
         <v>160</v>
       </c>
@@ -4444,234 +4528,579 @@
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D71" s="12" t="s">
+      <c r="D71" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E71" s="12" t="s">
+      <c r="E71" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B72" s="12">
+      <c r="B72" s="11">
         <v>1</v>
       </c>
-      <c r="C72" s="13">
+      <c r="C72" s="12">
         <v>0</v>
       </c>
-      <c r="D72" s="13">
+      <c r="D72" s="12">
         <f>H63</f>
         <v>4</v>
       </c>
-      <c r="E72" s="13">
+      <c r="E72" s="12">
         <f>C73*E73+D73</f>
         <v>15.113090909090907</v>
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B73" s="12">
+      <c r="B73" s="11">
         <v>2</v>
       </c>
-      <c r="C73" s="13">
+      <c r="C73" s="12">
         <f>$E$61/($E$62-$E$60*C72)</f>
         <v>0.125</v>
       </c>
-      <c r="D73" s="13">
+      <c r="D73" s="12">
         <f>($E$60*D72+I65)/($E$62-$E$60*C72)</f>
         <v>10.7525</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E73" s="12">
         <f>C74*E74+D74</f>
         <v>34.884727272727268</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B74" s="12">
+      <c r="B74" s="11">
         <v>3</v>
       </c>
-      <c r="C74" s="13">
+      <c r="C74" s="12">
         <f>$E$61/($E$62-$E$60*C73)</f>
         <v>0.12698412698412698</v>
       </c>
-      <c r="D74" s="13">
+      <c r="D74" s="12">
         <f>($E$60*D73+J65)/($E$62-$E$60*C73)</f>
         <v>26.493015873015867</v>
       </c>
-      <c r="E74" s="13">
+      <c r="E74" s="12">
         <f>C75*E75+D75</f>
         <v>66.084727272727278</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B75" s="12">
+      <c r="B75" s="11">
         <v>4</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C75" s="12">
         <f>$E$61/($E$62-$E$60*C74)</f>
         <v>0.12701612903225806</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D75" s="12">
         <f>($E$60*D74+K65)/($E$62-$E$60*C74)</f>
         <v>52.276411290322585</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E75" s="12">
         <f>C76*E76+D76</f>
         <v>108.71309090909092</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B76" s="12">
+      <c r="B76" s="11">
         <v>5</v>
       </c>
-      <c r="C76" s="13">
+      <c r="C76" s="12">
         <f>$E$61/($E$62-$E$60*C75)</f>
         <v>0.1270166453265045</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D76" s="12">
         <f>($E$60*D75+L65)/($E$62-$E$60*C75)</f>
         <v>88.390427656850207</v>
       </c>
-      <c r="E76" s="13">
+      <c r="E76" s="12">
         <f>M63</f>
         <v>160</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A89" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
-      <c r="R89" s="1"/>
-      <c r="S89" s="1"/>
-      <c r="T89" s="1"/>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B96" s="14" t="s">
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
+      <c r="R89" s="17"/>
+      <c r="S89" s="17"/>
+      <c r="T89" s="17"/>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B96" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C96" s="15">
+      <c r="C96" s="14">
         <v>4</v>
       </c>
-      <c r="E96" s="14" t="s">
+      <c r="E96" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F96" s="15">
+      <c r="F96" s="14">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="14" t="s">
+      <c r="P96" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q96" s="18"/>
+      <c r="R96" s="18"/>
+      <c r="S96" s="18"/>
+      <c r="T96" s="18"/>
+      <c r="U96" s="18"/>
+    </row>
+    <row r="97" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B97" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C97" s="15">
+      <c r="C97" s="14">
         <v>1</v>
       </c>
-      <c r="E97" s="14" t="s">
+      <c r="E97" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F97" s="16">
+      <c r="F97" s="15">
         <f>1/4</f>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B98" s="14" t="s">
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>2</v>
+      </c>
+      <c r="L97">
+        <v>3</v>
+      </c>
+      <c r="M97">
+        <v>4</v>
+      </c>
+      <c r="N97">
+        <v>5</v>
+      </c>
+      <c r="P97" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="18">
+        <v>1</v>
+      </c>
+      <c r="R97" s="18">
+        <v>2</v>
+      </c>
+      <c r="S97" s="18">
+        <v>3</v>
+      </c>
+      <c r="T97" s="18">
+        <v>4</v>
+      </c>
+      <c r="U97" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B98" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C98" s="15">
+      <c r="C98" s="14">
         <v>0.5</v>
       </c>
-      <c r="E98" s="14" t="s">
+      <c r="E98" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F98" s="17">
-        <f>F97^2</f>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="14" t="s">
+      <c r="F98" s="16">
+        <f>C102/(C103*C101)</f>
+        <v>2.4350480419022512E-2</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0.1</v>
+      </c>
+      <c r="K98">
+        <v>0.2</v>
+      </c>
+      <c r="L98">
+        <v>0.3</v>
+      </c>
+      <c r="M98">
+        <v>0.4</v>
+      </c>
+      <c r="N98">
+        <v>0.5</v>
+      </c>
+      <c r="P98" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="R98" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="S98" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="T98" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="U98" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="99" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B99" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C99" s="15">
+      <c r="C99" s="14">
         <v>0.1</v>
       </c>
-      <c r="E99" s="14" t="s">
+      <c r="E99" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F99" s="16">
+      <c r="F99" s="15">
         <f>1/4</f>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B100" s="14" t="s">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>4</v>
+      </c>
+      <c r="J99">
+        <v>10.240000000000002</v>
+      </c>
+      <c r="K99">
+        <v>28.960000000000004</v>
+      </c>
+      <c r="L99">
+        <v>60.16</v>
+      </c>
+      <c r="M99">
+        <v>103.84000000000002</v>
+      </c>
+      <c r="N99">
+        <v>160</v>
+      </c>
+      <c r="P99" s="18">
+        <f>$F$98*EXP(-1*$F$97*P98)</f>
+        <v>2.4350480419022512E-2</v>
+      </c>
+      <c r="Q99" s="18">
+        <f>$F$98*EXP(-1*$F$97*Q98)</f>
+        <v>2.3749264915324482E-2</v>
+      </c>
+      <c r="R99" s="18">
+        <f t="shared" ref="Q99:U99" si="8">$F$98*EXP(-1*$F$97*R98)</f>
+        <v>2.316289347530269E-2</v>
+      </c>
+      <c r="S99" s="18">
+        <f t="shared" si="8"/>
+        <v>2.2590999597719107E-2</v>
+      </c>
+      <c r="T99" s="18">
+        <f t="shared" si="8"/>
+        <v>2.2033225830283519E-2</v>
+      </c>
+      <c r="U99" s="18">
+        <f>$F$98*EXP(-1*$F$97*U98)</f>
+        <v>2.1489223546234209E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B100" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C100" s="15">
+      <c r="C100" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B101" s="14" t="s">
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100" t="s">
+        <v>43</v>
+      </c>
+      <c r="I100">
+        <v>4</v>
+      </c>
+      <c r="N100">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="101" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B101" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C101" s="15">
+      <c r="C101" s="14">
         <v>11350</v>
       </c>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B102" s="14" t="s">
+      <c r="E101" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F101">
+        <f>(1/2*F32)/C99^2</f>
+        <v>3.4222459639126304</v>
+      </c>
+      <c r="G101">
+        <v>2</v>
+      </c>
+      <c r="H101" t="s">
+        <v>44</v>
+      </c>
+      <c r="I101">
+        <v>4</v>
+      </c>
+      <c r="N101">
+        <v>160</v>
+      </c>
+      <c r="P101" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q101">
+        <f>1/2*(Q99+P99)</f>
+        <v>2.4049872667173497E-2</v>
+      </c>
+      <c r="R101">
+        <f t="shared" ref="R101:U101" si="9">1/2*(R99+Q99)</f>
+        <v>2.3456079195313586E-2</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="9"/>
+        <v>2.28769465365109E-2</v>
+      </c>
+      <c r="T101">
+        <f>1/2*(T99+S99)</f>
+        <v>2.2312112714001311E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B102" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C102" s="15">
+      <c r="C102" s="14">
         <v>35.1</v>
       </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="14" t="s">
+      <c r="G102">
+        <v>3</v>
+      </c>
+      <c r="H102" t="s">
+        <v>45</v>
+      </c>
+      <c r="I102">
+        <v>4</v>
+      </c>
+      <c r="N102">
+        <v>160</v>
+      </c>
+      <c r="P102" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q102">
+        <f>1/2*(R99+Q99)</f>
+        <v>2.3456079195313586E-2</v>
+      </c>
+      <c r="R102">
+        <f t="shared" ref="R102:U102" si="10">1/2*(S99+R99)</f>
+        <v>2.28769465365109E-2</v>
+      </c>
+      <c r="S102">
+        <f>1/2*(T99+S99)</f>
+        <v>2.2312112714001311E-2</v>
+      </c>
+      <c r="T102">
+        <f>1/2*(U99+T99)</f>
+        <v>2.1761224688258862E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B103" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C103" s="15">
+      <c r="C103" s="14">
         <v>0.127</v>
       </c>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="14" t="s">
+      <c r="P103" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q103">
+        <f>Q101+Q102+1/$F$101</f>
+        <v>0.33971171689075724</v>
+      </c>
+      <c r="R103">
+        <f t="shared" ref="R103:T103" si="11">R101+R102+1/$F$101</f>
+        <v>0.33853879076009463</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="11"/>
+        <v>0.33739482427878237</v>
+      </c>
+      <c r="T103">
+        <f>T101+T102+1/$F$101</f>
+        <v>0.33627910243053033</v>
+      </c>
+    </row>
+    <row r="104" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B104" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C104" s="15">
+      <c r="C104" s="14">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="14" t="s">
+      <c r="Q104">
+        <v>1</v>
+      </c>
+      <c r="R104">
+        <v>2</v>
+      </c>
+      <c r="S104">
+        <v>3</v>
+      </c>
+      <c r="T104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B105" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C105" s="15">
+      <c r="C105" s="14">
         <f>40*4</f>
         <v>160</v>
       </c>
+    </row>
+    <row r="107" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="P107" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q107" s="11">
+        <v>1</v>
+      </c>
+      <c r="R107" s="11">
+        <v>2</v>
+      </c>
+      <c r="S107" s="11">
+        <v>3</v>
+      </c>
+      <c r="T107" s="20">
+        <v>4</v>
+      </c>
+      <c r="U107" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="P108" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q108" s="12">
+        <v>0</v>
+      </c>
+      <c r="R108" s="12">
+        <f>Q102/(Q103-Q101*Q108)</f>
+        <v>6.9047012596437682E-2</v>
+      </c>
+      <c r="S108" s="12">
+        <f t="shared" ref="S108:U108" si="12">R102/(R103-R101*R108)</f>
+        <v>6.7900390586166245E-2</v>
+      </c>
+      <c r="T108" s="12">
+        <f t="shared" si="12"/>
+        <v>6.6436442971900045E-2</v>
+      </c>
+      <c r="U108" s="12">
+        <f>T102/(T103-T101*T108)</f>
+        <v>6.4998312294111765E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="P109" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q109" s="12">
+        <f>I99</f>
+        <v>4</v>
+      </c>
+      <c r="R109" s="12">
+        <f>(Q101*Q109+J99)/(Q103-Q101*Q108)</f>
+        <v>30.426385010419168</v>
+      </c>
+      <c r="S109" s="12">
+        <f>(R101*R109+K99)/(R103-R101*R108)</f>
+        <v>88.073585777822501</v>
+      </c>
+      <c r="T109" s="12">
+        <f>(S101*S109+L99)/(S103-S101*S108)</f>
+        <v>185.13155801880444</v>
+      </c>
+      <c r="U109" s="12">
+        <f>(T101*T109+M99)/(T103-T101*T108)</f>
+        <v>322.4961751970576</v>
+      </c>
+    </row>
+    <row r="110" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="P110" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" ref="Q110:S110" si="13">R108*R110+R109</f>
+        <v>37.479247654963267</v>
+      </c>
+      <c r="R110">
+        <f t="shared" si="13"/>
+        <v>102.14580442120355</v>
+      </c>
+      <c r="S110">
+        <f t="shared" si="13"/>
+        <v>207.24797783781923</v>
+      </c>
+      <c r="T110">
+        <f>U108*U110+U109</f>
+        <v>332.8959051641155</v>
+      </c>
+      <c r="U110">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="111" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="P111" s="11"/>
+      <c r="Q111" s="12"/>
+      <c r="R111" s="12"/>
+      <c r="S111" s="12"/>
+    </row>
+    <row r="112" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="P112" s="11"/>
+      <c r="Q112" s="12"/>
+      <c r="R112" s="12"/>
+      <c r="S112" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/mathematical physics/Book 1.xlsx
+++ b/mathematical physics/Book 1.xlsx
@@ -1,33 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\university-labs\mathematical physics\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713B8DA3-970A-4E78-9E7D-50E362100D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -36,84 +20,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
-  <si>
-    <t>a=</t>
-  </si>
-  <si>
-    <t>b=</t>
-  </si>
-  <si>
-    <t>h=</t>
-  </si>
-  <si>
-    <t>k1</t>
-  </si>
-  <si>
-    <t>T1=</t>
-  </si>
-  <si>
-    <t>k2</t>
-  </si>
-  <si>
-    <t>T2=</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>T11</t>
-  </si>
-  <si>
-    <t>T21</t>
-  </si>
-  <si>
-    <t>T12</t>
-  </si>
-  <si>
-    <t>T22</t>
-  </si>
-  <si>
-    <t>T13</t>
-  </si>
-  <si>
-    <t>T23</t>
-  </si>
-  <si>
-    <t>if</t>
-  </si>
-  <si>
-    <t>{1=</t>
-  </si>
-  <si>
-    <t>2н</t>
-  </si>
-  <si>
-    <t>3в</t>
-  </si>
-  <si>
-    <t>4л</t>
-  </si>
-  <si>
-    <t>5п}</t>
-  </si>
-  <si>
-    <t>\================================================================================================================================================================================================================================================================================================================================================</t>
-  </si>
-  <si>
-    <t>LAB2</t>
-  </si>
-  <si>
-    <t>k =</t>
-  </si>
-  <si>
-    <t>T(x, 0)=</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="75">
+  <si>
+    <t xml:space="preserve">a=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{1=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2н</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3в</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5п}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\================================================================================================================================================================================================================================================================================================================================================</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T(x, 0)=</t>
   </si>
   <si>
     <t xml:space="preserve">s = </t>
   </si>
   <si>
-    <t>a^2=</t>
+    <t xml:space="preserve">a^2=</t>
   </si>
   <si>
     <t xml:space="preserve">l = </t>
@@ -122,84 +106,160 @@
     <t xml:space="preserve">h = </t>
   </si>
   <si>
-    <t>tau=</t>
-  </si>
-  <si>
-    <t>m =</t>
-  </si>
-  <si>
-    <t>p =</t>
-  </si>
-  <si>
-    <t>lambda =</t>
-  </si>
-  <si>
-    <t>c =</t>
-  </si>
-  <si>
-    <t>sigma=</t>
-  </si>
-  <si>
-    <t>c=</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>alpha</t>
-  </si>
-  <si>
-    <t>beta</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>N=</t>
-  </si>
-  <si>
-    <t>a_1=</t>
-  </si>
-  <si>
-    <t>a_0=</t>
-  </si>
-  <si>
-    <t>x*=</t>
-  </si>
-  <si>
-    <t>1tau</t>
-  </si>
-  <si>
-    <t>2tau</t>
-  </si>
-  <si>
-    <t>3tau</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>K(i)</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>gamma=</t>
+    <t xml:space="preserve">tau=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lambda =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sigma=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K(i)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_1=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_0=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x*=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1tau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gamma=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2tau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3tau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab #5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U_1(t)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U_0(x)=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_0*exp(-m*x)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U_1(t)=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U_2(t)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U_2(t)=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_0*exp(-m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r(x)=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4*cos(pi*x)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U0(x)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N=5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H=0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tau=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t_1=3tau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A_0=10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f(x)=0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd\-mmm"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="dd\-mmm"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.00"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,7 +268,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Aptos Narrow"/>
@@ -235,6 +310,24 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF595959"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF595959"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -270,14 +363,14 @@
     </fill>
   </fills>
   <borders count="4">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -292,92 +385,188 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
+  <cellStyleXfs count="24">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+  <cellXfs count="29">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="2" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Excel Built-in Bad" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Excel Built-in Calculation" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Excel Built-in Good" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Excel Built-in Neutral" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+  <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Excel Built-in Calculation" xfId="20"/>
+    <cellStyle name="Excel Built-in Neutral" xfId="21"/>
+    <cellStyle name="Excel Built-in Good" xfId="22"/>
+    <cellStyle name="Excel Built-in Bad" xfId="23"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -436,33 +625,15 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -471,7 +642,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="uk-UA" sz="1400" b="0" strike="noStrike" spc="-1">
+              <a:defRPr b="0" lang="uk-UA" sz="1400" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -479,7 +650,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="uk-UA" sz="1400" b="0" strike="noStrike" spc="-1">
+              <a:rPr b="0" lang="uk-UA" sz="1400" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -500,7 +671,6 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -508,10 +678,21 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>0</c:v>
+            <c:strRef>
+              <c:f>"0"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28440" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="156082"/>
+            </a:solidFill>
+            <a:ln cap="rnd" w="28440">
               <a:solidFill>
                 <a:srgbClr val="156082"/>
               </a:solidFill>
@@ -522,26 +703,18 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Aptos Narrow"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -550,9 +723,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -563,46 +735,52 @@
             <c:numRef>
               <c:f>Sheet1!$H$34:$M$34</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.240000000000002</c:v>
+                  <c:v>10.24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.960000000000004</c:v>
+                  <c:v>28.96</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>60.16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>103.84000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
+                  <c:v>103.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9169-481E-920B-DE19AFAA839E}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>0.06844</c:v>
+            <c:strRef>
+              <c:f>"0.06844"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.06844</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28440" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="e97132"/>
+            </a:solidFill>
+            <a:ln cap="rnd" w="28440">
               <a:solidFill>
-                <a:srgbClr val="E97132"/>
+                <a:srgbClr val="e97132"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -611,26 +789,18 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Aptos Narrow"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -639,9 +809,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -652,35 +821,30 @@
             <c:numRef>
               <c:f>Sheet1!$H$35:$M$35</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.320000000000002</c:v>
+                  <c:v>12.32</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>31.04</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62.239999999999995</c:v>
+                  <c:v>62.24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>105.92000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
+                  <c:v>105.92</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9169-481E-920B-DE19AFAA839E}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -691,15 +855,18 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.136889839</c:v>
+                  <c:v>0.136889838556505</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28440" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="196b24"/>
+            </a:solidFill>
+            <a:ln cap="rnd" w="28440">
               <a:solidFill>
-                <a:srgbClr val="196B24"/>
+                <a:srgbClr val="196b24"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -708,26 +875,18 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Aptos Narrow"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -736,9 +895,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -749,35 +907,30 @@
             <c:numRef>
               <c:f>Sheet1!$H$36:$M$36</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.053333333333335</c:v>
+                  <c:v>14.0533333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.11999999999999</c:v>
+                  <c:v>33.12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64.319999999999993</c:v>
+                  <c:v>64.32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>107.65333333333334</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
+                  <c:v>107.653333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9169-481E-920B-DE19AFAA839E}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -788,15 +941,18 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.205334758</c:v>
+                  <c:v>0.205334757834758</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28440" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="0f9ed5"/>
+            </a:solidFill>
+            <a:ln cap="rnd" w="28440">
               <a:solidFill>
-                <a:srgbClr val="0F9ED5"/>
+                <a:srgbClr val="0f9ed5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -805,26 +961,18 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Aptos Narrow"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -833,9 +981,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -846,44 +993,31 @@
             <c:numRef>
               <c:f>Sheet1!$H$37:$M$37</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.555555555555554</c:v>
+                  <c:v>15.5555555555556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.142222222222216</c:v>
+                  <c:v>35.1422222222222</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66.342222222222205</c:v>
+                  <c:v>66.3422222222222</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>109.15555555555557</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
+                  <c:v>109.155555555556</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9169-481E-920B-DE19AFAA839E}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln w="0">
@@ -891,25 +1025,25 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:smooth val="0"/>
-        <c:axId val="64731072"/>
-        <c:axId val="62385398"/>
+        <c:marker val="0"/>
+        <c:axId val="26723876"/>
+        <c:axId val="87192848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64731072"/>
+        <c:axId val="26723876"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="D9D9D9"/>
+              <a:srgbClr val="d9d9d9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -919,17 +1053,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Aptos Narrow"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62385398"/>
+        <c:crossAx val="87192848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -937,7 +1070,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62385398"/>
+        <c:axId val="87192848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,7 +1080,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
+                <a:srgbClr val="d9d9d9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -967,17 +1100,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Aptos Narrow"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64731072"/>
+        <c:crossAx val="26723876"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1002,46 +1134,37 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="Aptos Narrow"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="D9D9D9"/>
+        <a:srgbClr val="d9d9d9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1050,7 +1173,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="uk-UA" sz="1400" b="0" strike="noStrike" spc="-1">
+              <a:defRPr b="0" lang="uk-UA" sz="1400" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1058,7 +1181,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="uk-UA" sz="1400" b="0" strike="noStrike" spc="-1">
+              <a:rPr b="0" lang="uk-UA" sz="1400" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1079,7 +1202,6 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1098,7 +1220,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28440" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="156082"/>
+            </a:solidFill>
+            <a:ln cap="rnd" w="28440">
               <a:solidFill>
                 <a:srgbClr val="156082"/>
               </a:solidFill>
@@ -1109,26 +1234,18 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Aptos Narrow"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1137,9 +1254,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1168,11 +1284,6 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4CE6-4137-960B-E3AF14E26B1C}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1189,9 +1300,12 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28440" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="e97132"/>
+            </a:solidFill>
+            <a:ln cap="rnd" w="28440">
               <a:solidFill>
-                <a:srgbClr val="E97132"/>
+                <a:srgbClr val="e97132"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1200,26 +1314,18 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Aptos Narrow"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1228,9 +1334,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1244,26 +1349,21 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10.240000000000002</c:v>
+                  <c:v>10.24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.320000000000002</c:v>
+                  <c:v>12.32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.053333333333335</c:v>
+                  <c:v>14.0533333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.555555555555554</c:v>
+                  <c:v>15.5555555555556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4CE6-4137-960B-E3AF14E26B1C}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1280,9 +1380,12 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28440" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="196b24"/>
+            </a:solidFill>
+            <a:ln cap="rnd" w="28440">
               <a:solidFill>
-                <a:srgbClr val="196B24"/>
+                <a:srgbClr val="196b24"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1291,26 +1394,18 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Aptos Narrow"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1319,9 +1414,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1335,26 +1429,21 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>28.960000000000004</c:v>
+                  <c:v>28.96</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>31.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.11999999999999</c:v>
+                  <c:v>33.12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.142222222222216</c:v>
+                  <c:v>35.1422222222222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4CE6-4137-960B-E3AF14E26B1C}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1371,9 +1460,12 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28440" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="0f9ed5"/>
+            </a:solidFill>
+            <a:ln cap="rnd" w="28440">
               <a:solidFill>
-                <a:srgbClr val="0F9ED5"/>
+                <a:srgbClr val="0f9ed5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1382,26 +1474,18 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Aptos Narrow"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1410,9 +1494,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1429,23 +1512,18 @@
                   <c:v>60.16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.239999999999995</c:v>
+                  <c:v>62.24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.319999999999993</c:v>
+                  <c:v>64.32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66.342222222222205</c:v>
+                  <c:v>66.3422222222222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4CE6-4137-960B-E3AF14E26B1C}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1462,9 +1540,12 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28440" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="a02b93"/>
+            </a:solidFill>
+            <a:ln cap="rnd" w="28440">
               <a:solidFill>
-                <a:srgbClr val="A02B93"/>
+                <a:srgbClr val="a02b93"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1473,26 +1554,18 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Aptos Narrow"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1501,9 +1574,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1517,26 +1589,21 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>103.84000000000002</c:v>
+                  <c:v>103.84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105.92000000000002</c:v>
+                  <c:v>105.92</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>107.65333333333334</c:v>
+                  <c:v>107.653333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>109.15555555555557</c:v>
+                  <c:v>109.155555555556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4CE6-4137-960B-E3AF14E26B1C}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1553,9 +1620,12 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28440" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="4ea72e"/>
+            </a:solidFill>
+            <a:ln cap="rnd" w="28440">
               <a:solidFill>
-                <a:srgbClr val="4EA72E"/>
+                <a:srgbClr val="4ea72e"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1564,26 +1634,18 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Aptos Narrow"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1592,9 +1654,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1623,20 +1684,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-4CE6-4137-960B-E3AF14E26B1C}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln w="0">
@@ -1644,12 +1692,12 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:smooth val="0"/>
-        <c:axId val="7231567"/>
-        <c:axId val="51728878"/>
+        <c:marker val="0"/>
+        <c:axId val="40623820"/>
+        <c:axId val="75075550"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="7231567"/>
+        <c:axId val="40623820"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1662,7 +1710,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="D9D9D9"/>
+              <a:srgbClr val="d9d9d9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1672,17 +1720,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Aptos Narrow"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51728878"/>
+        <c:crossAx val="75075550"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1690,7 +1737,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51728878"/>
+        <c:axId val="75075550"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1700,7 +1747,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
+                <a:srgbClr val="d9d9d9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1720,17 +1767,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Aptos Narrow"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7231567"/>
+        <c:crossAx val="40623820"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1755,50 +1801,40 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="Aptos Narrow"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="D9D9D9"/>
+        <a:srgbClr val="d9d9d9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1806,6 +1842,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="004586"/>
@@ -1817,33 +1856,28 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1872,19 +1906,17 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-66B3-454F-9CE0-36A90FD61A04}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="FF420E"/>
+                <a:srgbClr val="ff420e"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1893,33 +1925,28 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1933,7 +1960,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10.240000000000002</c:v>
+                  <c:v>10.24</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>12.06</c:v>
@@ -1948,19 +1975,17 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-66B3-454F-9CE0-36A90FD61A04}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="FFD320"/>
+                <a:srgbClr val="ffd320"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1969,33 +1994,28 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2009,34 +2029,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>28.960000000000004</c:v>
+                  <c:v>28.96</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.979999999999997</c:v>
+                  <c:v>32.98</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.880000000000003</c:v>
+                  <c:v>34.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-66B3-454F-9CE0-36A90FD61A04}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="579D1C"/>
+                <a:srgbClr val="579d1c"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2045,33 +2063,28 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2091,7 +2104,7 @@
                   <c:v>62.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.180000000000007</c:v>
+                  <c:v>64.18</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>66.08</c:v>
@@ -2100,19 +2113,17 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-66B3-454F-9CE0-36A90FD61A04}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="7E0021"/>
+                <a:srgbClr val="7e0021"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2121,33 +2132,28 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2161,7 +2167,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>103.84000000000002</c:v>
+                  <c:v>103.84</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>105.66</c:v>
@@ -2176,19 +2182,17 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-66B3-454F-9CE0-36A90FD61A04}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="83CAFF"/>
+                <a:srgbClr val="83caff"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2197,33 +2201,28 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2252,20 +2251,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-66B3-454F-9CE0-36A90FD61A04}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln w="0">
@@ -2273,25 +2259,25 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:smooth val="0"/>
-        <c:axId val="86463481"/>
-        <c:axId val="7223283"/>
+        <c:marker val="0"/>
+        <c:axId val="53483356"/>
+        <c:axId val="28312818"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86463481"/>
+        <c:axId val="53483356"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
+              <a:srgbClr val="b3b3b3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -2300,14 +2286,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7223283"/>
+        <c:crossAx val="28312818"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2315,7 +2303,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7223283"/>
+        <c:axId val="28312818"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2325,19 +2313,19 @@
           <c:spPr>
             <a:ln w="0">
               <a:solidFill>
-                <a:srgbClr val="B3B3B3"/>
+                <a:srgbClr val="b3b3b3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
+              <a:srgbClr val="b3b3b3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -2346,14 +2334,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86463481"/>
+        <c:crossAx val="53483356"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2361,7 +2351,7 @@
         <a:noFill/>
         <a:ln w="0">
           <a:solidFill>
-            <a:srgbClr val="B3B3B3"/>
+            <a:srgbClr val="b3b3b3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -2380,44 +2370,37 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -2425,6 +2408,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="004586"/>
@@ -2436,33 +2422,28 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2479,16 +2460,16 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.240000000000002</c:v>
+                  <c:v>10.24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.960000000000004</c:v>
+                  <c:v>28.96</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>60.16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>103.84000000000002</c:v>
+                  <c:v>103.84</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>160</c:v>
@@ -2497,19 +2478,17 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DF23-4179-856B-ABD042A31211}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="FF420E"/>
+                <a:srgbClr val="ff420e"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2518,33 +2497,28 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2579,19 +2553,17 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DF23-4179-856B-ABD042A31211}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="FFD320"/>
+                <a:srgbClr val="ffd320"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2600,33 +2572,28 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2646,10 +2613,10 @@
                   <c:v>13.67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.979999999999997</c:v>
+                  <c:v>32.98</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64.180000000000007</c:v>
+                  <c:v>64.18</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>107.27</c:v>
@@ -2661,19 +2628,17 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DF23-4179-856B-ABD042A31211}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="579D1C"/>
+                <a:srgbClr val="579d1c"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2682,33 +2647,28 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2728,7 +2688,7 @@
                   <c:v>15.11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.880000000000003</c:v>
+                  <c:v>34.88</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>66.08</c:v>
@@ -2743,20 +2703,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-DF23-4179-856B-ABD042A31211}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln w="0">
@@ -2764,25 +2711,25 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:smooth val="0"/>
-        <c:axId val="50022161"/>
-        <c:axId val="34411067"/>
+        <c:marker val="0"/>
+        <c:axId val="61881727"/>
+        <c:axId val="41118470"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50022161"/>
+        <c:axId val="61881727"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
+              <a:srgbClr val="b3b3b3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -2791,14 +2738,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34411067"/>
+        <c:crossAx val="41118470"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2806,7 +2755,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="34411067"/>
+        <c:axId val="41118470"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2816,19 +2765,19 @@
           <c:spPr>
             <a:ln w="0">
               <a:solidFill>
-                <a:srgbClr val="B3B3B3"/>
+                <a:srgbClr val="b3b3b3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
+              <a:srgbClr val="b3b3b3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -2837,14 +2786,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50022161"/>
+        <c:crossAx val="61881727"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2852,7 +2803,7 @@
         <a:noFill/>
         <a:ln w="0">
           <a:solidFill>
-            <a:srgbClr val="B3B3B3"/>
+            <a:srgbClr val="b3b3b3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -2871,36 +2822,32 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2909,25 +2856,19 @@
       <xdr:rowOff>11160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>275400</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>383400</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="0" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="591120" y="7440840"/>
+        <a:ext cx="5822280" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2946,24 +2887,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>22680</xdr:colOff>
+      <xdr:colOff>21960</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
+      <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="7054200" y="7434360"/>
+        <a:ext cx="5169960" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2982,24 +2917,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>294840</xdr:colOff>
+      <xdr:colOff>294120</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:rowOff>6480</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="4683960" y="12961080"/>
+        <a:ext cx="5754960" cy="3237840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3018,24 +2947,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>252000</xdr:colOff>
+      <xdr:colOff>251280</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="10825920" y="12953880"/>
+        <a:ext cx="5742360" cy="3237840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3050,41 +2973,34 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>175845</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>324443</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>432360</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>153864</xdr:rowOff>
+      <xdr:rowOff>153000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFF94135-71BD-4004-989E-CF19A5DCF27A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPr id="4" name="Picture 6" descr=""/>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip r:embed="rId5"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="17130345"/>
-          <a:ext cx="3445712" cy="740019"/>
+          <a:off x="0" y="17130240"/>
+          <a:ext cx="4072680" cy="739440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3097,38 +3013,31 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>569571</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>883800</xdr:colOff>
       <xdr:row>113</xdr:row>
-      <xdr:rowOff>161738</xdr:rowOff>
+      <xdr:rowOff>160920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{014F5C1C-35B5-BDF3-7F37-777EE1B8339E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPr id="5" name="Picture 7" descr=""/>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip r:embed="rId6"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="571500" y="20193000"/>
-          <a:ext cx="4542857" cy="1495238"/>
+          <a:off x="685800" y="20193120"/>
+          <a:ext cx="5335920" cy="1494360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3137,54 +3046,54 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="0e2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="e8e8e8"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="e97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="196b24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="0f9ed5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="a02b93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="4ea72e"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="96607d"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -3216,7 +3125,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -3240,7 +3149,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -3300,1816 +3209,2477 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:U140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89:T89"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C113" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L123" activeCellId="0" sqref="L123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="3" max="3" width="8.140625" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="n">
         <v>210</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2" t="n">
         <v>210</v>
       </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="1">
-        <f>$L$3*3+$L$4</f>
+      <c r="F3" s="2" t="n">
+        <f aca="false">$L$3*3+$L$4</f>
         <v>159.5</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2" t="n">
         <v>159.5</v>
       </c>
-      <c r="L3">
-        <f>($G$2-$G$6)/4</f>
+      <c r="L3" s="1" t="n">
+        <f aca="false">($G$2-$G$6)/4</f>
         <v>50.5</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="F4" s="1">
-        <f>$L$3*2+$L$4</f>
+      <c r="F4" s="2" t="n">
+        <f aca="false">$L$3*2+$L$4</f>
         <v>109</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="L4">
-        <f>C4</f>
+      <c r="L4" s="1" t="n">
+        <f aca="false">C4</f>
         <v>8</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
-        <f>7*30</f>
+      <c r="C5" s="1" t="n">
+        <f aca="false">7*30</f>
         <v>210</v>
       </c>
-      <c r="F5" s="1">
-        <f>$L$3*1+$L$4</f>
+      <c r="F5" s="2" t="n">
+        <f aca="false">$L$3*1+$L$4</f>
         <v>58.5</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2" t="n">
         <v>58.5</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F6" s="1"/>
-      <c r="G6" s="1">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C9">
-        <f>($F$5+$G$2+$I$5+$G$6)/4</f>
+      <c r="C9" s="1" t="n">
+        <f aca="false">($F$5+$G$2+$I$5+$G$6)/4</f>
         <v>83.75</v>
       </c>
-      <c r="D9">
-        <f>($F$5+$G$2+$I$5+$G$6)/4</f>
+      <c r="D9" s="1" t="n">
+        <f aca="false">($F$5+$G$2+$I$5+$G$6)/4</f>
         <v>83.75</v>
       </c>
-      <c r="E9">
-        <f>($G$6+$F$4+$G$2+$I$4)/4</f>
+      <c r="E9" s="1" t="n">
+        <f aca="false">($G$6+$F$4+$G$2+$I$4)/4</f>
         <v>109</v>
       </c>
-      <c r="F9">
-        <f>($G$6+$F$4+$G$2+$I$4)/4</f>
+      <c r="F9" s="1" t="n">
+        <f aca="false">($G$6+$F$4+$G$2+$I$4)/4</f>
         <v>109</v>
       </c>
-      <c r="G9">
-        <f>($G$6+$F$3+$G$2+$I$3)/4</f>
+      <c r="G9" s="1" t="n">
+        <f aca="false">($G$6+$F$3+$G$2+$I$3)/4</f>
         <v>134.25</v>
       </c>
-      <c r="H9">
-        <f>($G$6+$F$3+$G$2+$I$3)/4</f>
+      <c r="H9" s="1" t="n">
+        <f aca="false">($G$6+$F$3+$G$2+$I$3)/4</f>
         <v>134.25</v>
       </c>
-      <c r="J9">
-        <f t="shared" ref="J9:M13" si="0">C9-C10</f>
+      <c r="J9" s="1" t="n">
+        <f aca="false">C9-C10</f>
         <v>18.9375</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
+      <c r="K9" s="1" t="n">
+        <f aca="false">D9-D10</f>
         <v>18.9375</v>
       </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
+      <c r="L9" s="1" t="n">
+        <f aca="false">E9-E10</f>
         <v>0</v>
       </c>
-      <c r="M9">
-        <f t="shared" si="0"/>
+      <c r="M9" s="1" t="n">
+        <f aca="false">F9-F10</f>
         <v>0</v>
       </c>
-      <c r="N9">
-        <f t="shared" ref="N9:O13" si="1">(G9-G10)*-1</f>
+      <c r="N9" s="1" t="n">
+        <f aca="false">(G9-G10)*-1</f>
         <v>18.9375</v>
       </c>
-      <c r="O9">
-        <f t="shared" si="1"/>
+      <c r="O9" s="1" t="n">
+        <f aca="false">(H9-H10)*-1</f>
         <v>18.9375</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C10">
-        <f>($F$5+$G$6+E9+D9)/4</f>
+      <c r="C10" s="1" t="n">
+        <f aca="false">($F$5+$G$6+E9+D9)/4</f>
         <v>64.8125</v>
       </c>
-      <c r="D10">
-        <f>($F$5+$G$6+C9+F9)/4</f>
+      <c r="D10" s="1" t="n">
+        <f aca="false">($F$5+$G$6+C9+F9)/4</f>
         <v>64.8125</v>
       </c>
-      <c r="E10">
-        <f>($F$4+C9+G9+F9)/4</f>
+      <c r="E10" s="1" t="n">
+        <f aca="false">($F$4+C9+G9+F9)/4</f>
         <v>109</v>
       </c>
-      <c r="F10">
-        <f>($F$4+D9+H9+E9)/4</f>
+      <c r="F10" s="1" t="n">
+        <f aca="false">($F$4+D9+H9+E9)/4</f>
         <v>109</v>
       </c>
-      <c r="G10">
-        <f>($G$2+$F$3+H9+E9)/4</f>
+      <c r="G10" s="1" t="n">
+        <f aca="false">($G$2+$F$3+H9+E9)/4</f>
         <v>153.1875</v>
       </c>
-      <c r="H10">
-        <f>($G$2+$F$3+H9+F9)/4</f>
+      <c r="H10" s="1" t="n">
+        <f aca="false">($G$2+$F$3+H9+F9)/4</f>
         <v>153.1875</v>
       </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
+      <c r="J10" s="1" t="n">
+        <f aca="false">C10-C11</f>
         <v>4.734375</v>
       </c>
-      <c r="K10">
-        <f t="shared" si="0"/>
+      <c r="K10" s="1" t="n">
+        <f aca="false">D10-D11</f>
         <v>4.734375</v>
       </c>
-      <c r="L10">
-        <f t="shared" si="0"/>
+      <c r="L10" s="1" t="n">
+        <f aca="false">E10-E11</f>
         <v>0</v>
       </c>
-      <c r="M10">
-        <f t="shared" si="0"/>
+      <c r="M10" s="1" t="n">
+        <f aca="false">F10-F11</f>
         <v>0</v>
       </c>
-      <c r="N10">
-        <f t="shared" si="1"/>
+      <c r="N10" s="1" t="n">
+        <f aca="false">(G10-G11)*-1</f>
         <v>4.734375</v>
       </c>
-      <c r="O10">
-        <f t="shared" si="1"/>
+      <c r="O10" s="1" t="n">
+        <f aca="false">(H10-H11)*-1</f>
         <v>4.734375</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C11">
-        <f>($F$5+$G$6+E10+D10)/4</f>
+      <c r="C11" s="1" t="n">
+        <f aca="false">($F$5+$G$6+E10+D10)/4</f>
         <v>60.078125</v>
       </c>
-      <c r="D11">
-        <f>($F$5+$G$6+C10+F10)/4</f>
+      <c r="D11" s="1" t="n">
+        <f aca="false">($F$5+$G$6+C10+F10)/4</f>
         <v>60.078125</v>
       </c>
-      <c r="E11">
-        <f>($F$4+C10+G10+F10)/4</f>
+      <c r="E11" s="1" t="n">
+        <f aca="false">($F$4+C10+G10+F10)/4</f>
         <v>109</v>
       </c>
-      <c r="F11">
-        <f>($F$4+D10+H10+E10)/4</f>
+      <c r="F11" s="1" t="n">
+        <f aca="false">($F$4+D10+H10+E10)/4</f>
         <v>109</v>
       </c>
-      <c r="G11">
-        <f>($G$2+$F$3+H10+E10)/4</f>
+      <c r="G11" s="1" t="n">
+        <f aca="false">($G$2+$F$3+H10+E10)/4</f>
         <v>157.921875</v>
       </c>
-      <c r="H11">
-        <f>($G$2+$F$3+H10+F10)/4</f>
+      <c r="H11" s="1" t="n">
+        <f aca="false">($G$2+$F$3+H10+F10)/4</f>
         <v>157.921875</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
+      <c r="J11" s="1" t="n">
+        <f aca="false">C11-C12</f>
         <v>1.18359375</v>
       </c>
-      <c r="K11">
-        <f t="shared" si="0"/>
+      <c r="K11" s="1" t="n">
+        <f aca="false">D11-D12</f>
         <v>1.18359375</v>
       </c>
-      <c r="L11">
-        <f t="shared" si="0"/>
+      <c r="L11" s="1" t="n">
+        <f aca="false">E11-E12</f>
         <v>0</v>
       </c>
-      <c r="M11">
-        <f t="shared" si="0"/>
+      <c r="M11" s="1" t="n">
+        <f aca="false">F11-F12</f>
         <v>0</v>
       </c>
-      <c r="N11">
-        <f t="shared" si="1"/>
+      <c r="N11" s="1" t="n">
+        <f aca="false">(G11-G12)*-1</f>
         <v>1.18359375</v>
       </c>
-      <c r="O11">
-        <f t="shared" si="1"/>
+      <c r="O11" s="1" t="n">
+        <f aca="false">(H11-H12)*-1</f>
         <v>1.18359375</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C12">
-        <f>($F$5+$G$6+E11+D11)/4</f>
+      <c r="C12" s="1" t="n">
+        <f aca="false">($F$5+$G$6+E11+D11)/4</f>
         <v>58.89453125</v>
       </c>
-      <c r="D12">
-        <f>($F$5+$G$6+C11+F11)/4</f>
+      <c r="D12" s="1" t="n">
+        <f aca="false">($F$5+$G$6+C11+F11)/4</f>
         <v>58.89453125</v>
       </c>
-      <c r="E12">
-        <f>($F$4+C11+G11+F11)/4</f>
+      <c r="E12" s="1" t="n">
+        <f aca="false">($F$4+C11+G11+F11)/4</f>
         <v>109</v>
       </c>
-      <c r="F12">
-        <f>($F$4+D11+H11+E11)/4</f>
+      <c r="F12" s="1" t="n">
+        <f aca="false">($F$4+D11+H11+E11)/4</f>
         <v>109</v>
       </c>
-      <c r="G12">
-        <f>($G$2+$F$3+H11+E11)/4</f>
+      <c r="G12" s="1" t="n">
+        <f aca="false">($G$2+$F$3+H11+E11)/4</f>
         <v>159.10546875</v>
       </c>
-      <c r="H12">
-        <f>($G$2+$F$3+H11+F11)/4</f>
+      <c r="H12" s="1" t="n">
+        <f aca="false">($G$2+$F$3+H11+F11)/4</f>
         <v>159.10546875</v>
       </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
+      <c r="J12" s="1" t="n">
+        <f aca="false">C12-C13</f>
         <v>0.2958984375</v>
       </c>
-      <c r="K12">
-        <f t="shared" si="0"/>
+      <c r="K12" s="1" t="n">
+        <f aca="false">D12-D13</f>
         <v>0.2958984375</v>
       </c>
-      <c r="L12">
-        <f t="shared" si="0"/>
+      <c r="L12" s="1" t="n">
+        <f aca="false">E12-E13</f>
         <v>0</v>
       </c>
-      <c r="M12">
-        <f t="shared" si="0"/>
+      <c r="M12" s="1" t="n">
+        <f aca="false">F12-F13</f>
         <v>0</v>
       </c>
-      <c r="N12">
-        <f t="shared" si="1"/>
+      <c r="N12" s="1" t="n">
+        <f aca="false">(G12-G13)*-1</f>
         <v>0.2958984375</v>
       </c>
-      <c r="O12">
-        <f t="shared" si="1"/>
+      <c r="O12" s="1" t="n">
+        <f aca="false">(H12-H13)*-1</f>
         <v>0.2958984375</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="C13">
-        <f>($F$5+$G$6+E12+D12)/4</f>
+      <c r="C13" s="1" t="n">
+        <f aca="false">($F$5+$G$6+E12+D12)/4</f>
         <v>58.5986328125</v>
       </c>
-      <c r="D13">
-        <f>($F$5+$G$6+C12+F12)/4</f>
+      <c r="D13" s="1" t="n">
+        <f aca="false">($F$5+$G$6+C12+F12)/4</f>
         <v>58.5986328125</v>
       </c>
-      <c r="E13">
-        <f>($F$4+C12+G12+F12)/4</f>
+      <c r="E13" s="1" t="n">
+        <f aca="false">($F$4+C12+G12+F12)/4</f>
         <v>109</v>
       </c>
-      <c r="F13">
-        <f>($F$4+D12+H12+E12)/4</f>
+      <c r="F13" s="1" t="n">
+        <f aca="false">($F$4+D12+H12+E12)/4</f>
         <v>109</v>
       </c>
-      <c r="G13">
-        <f>($G$2+$F$3+H12+E12)/4</f>
+      <c r="G13" s="1" t="n">
+        <f aca="false">($G$2+$F$3+H12+E12)/4</f>
         <v>159.4013671875</v>
       </c>
-      <c r="H13">
-        <f>($G$2+$F$3+H12+F12)/4</f>
+      <c r="H13" s="1" t="n">
+        <f aca="false">($G$2+$F$3+H12+F12)/4</f>
         <v>159.4013671875</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="0"/>
-        <v>7.3974609375E-2</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="0"/>
-        <v>7.3974609375E-2</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="0"/>
+      <c r="J13" s="1" t="n">
+        <f aca="false">C13-C14</f>
+        <v>0.073974609375</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <f aca="false">D13-D14</f>
+        <v>0.073974609375</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <f aca="false">E13-E14</f>
         <v>0</v>
       </c>
-      <c r="M13">
-        <f t="shared" si="0"/>
+      <c r="M13" s="1" t="n">
+        <f aca="false">F13-F14</f>
         <v>0</v>
       </c>
-      <c r="N13" s="3">
-        <f t="shared" si="1"/>
-        <v>7.3974609375E-2</v>
-      </c>
-      <c r="O13" s="3">
-        <f t="shared" si="1"/>
-        <v>7.3974609375E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
+      <c r="N13" s="4" t="n">
+        <f aca="false">(G13-G14)*-1</f>
+        <v>0.073974609375</v>
+      </c>
+      <c r="O13" s="4" t="n">
+        <f aca="false">(H13-H14)*-1</f>
+        <v>0.073974609375</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="C14">
-        <f>($F$5+$G$6+E13+D13)/4</f>
+      <c r="C14" s="1" t="n">
+        <f aca="false">($F$5+$G$6+E13+D13)/4</f>
         <v>58.524658203125</v>
       </c>
-      <c r="D14">
-        <f>($F$5+$G$6+C13+F13)/4</f>
+      <c r="D14" s="1" t="n">
+        <f aca="false">($F$5+$G$6+C13+F13)/4</f>
         <v>58.524658203125</v>
       </c>
-      <c r="E14">
-        <f>($F$4+C13+G13+F13)/4</f>
+      <c r="E14" s="1" t="n">
+        <f aca="false">($F$4+C13+G13+F13)/4</f>
         <v>109</v>
       </c>
-      <c r="F14">
-        <f>($F$4+D13+H13+E13)/4</f>
+      <c r="F14" s="1" t="n">
+        <f aca="false">($F$4+D13+H13+E13)/4</f>
         <v>109</v>
       </c>
-      <c r="G14">
-        <f>($G$2+$F$3+H13+E13)/4</f>
+      <c r="G14" s="1" t="n">
+        <f aca="false">($G$2+$F$3+H13+E13)/4</f>
         <v>159.475341796875</v>
       </c>
-      <c r="H14">
-        <f>($G$2+$F$3+H13+F13)/4</f>
+      <c r="H14" s="1" t="n">
+        <f aca="false">($G$2+$F$3+H13+F13)/4</f>
         <v>159.475341796875</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="H16" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C17" s="4"/>
-      <c r="D17" s="4">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="n">
         <v>210</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="5" t="n">
         <v>210</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="H17" t="s">
+      <c r="F17" s="5"/>
+      <c r="H17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C18" s="5">
-        <f>$L$3*4+$L$4</f>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="6" t="n">
+        <f aca="false">$L$3*4+$L$4</f>
         <v>210</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5">
-        <f>$L$3*4+$L$4</f>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="n">
+        <f aca="false">$L$3*4+$L$4</f>
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C19" s="4">
-        <f>$L$3*3+$L$4</f>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="5" t="n">
+        <f aca="false">$L$3*3+$L$4</f>
         <v>159.5</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="5" t="n">
         <v>159.5</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C20" s="4">
-        <f>$L$3*2+$L$4</f>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="5" t="n">
+        <f aca="false">$L$3*2+$L$4</f>
         <v>109</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="7" t="n">
         <v>22</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="5" t="n">
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C21" s="4">
-        <f>$L$3*1+$L$4</f>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="5" t="n">
+        <f aca="false">$L$3*1+$L$4</f>
         <v>58.5</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="5" t="n">
         <v>58.5</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C22" s="4"/>
-      <c r="D22" s="4">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="F22" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F26">
-        <f>F30*F32/C32^2</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="H26">
-        <f>(1-2*$F$26)*I34+$F$26*(H34+J34)</f>
-        <v>12.320000000000004</v>
-      </c>
-      <c r="I26">
-        <f t="shared" ref="I26:K26" si="2">(1-2*$F$26)*J34+$F$26*(I34+K34)</f>
-        <v>31.040000000000006</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="2"/>
+      <c r="F26" s="1" t="n">
+        <f aca="false">F30*F32/C32^2</f>
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <f aca="false">(1-2*$F$26)*I34+$F$26*(H34+J34)</f>
+        <v>12.32</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <f aca="false">(1-2*$F$26)*J34+$F$26*(I34+K34)</f>
+        <v>31.04</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <f aca="false">(1-2*$F$26)*K34+$F$26*(J34+L34)</f>
         <v>62.24</v>
       </c>
-      <c r="K26">
-        <f t="shared" si="2"/>
-        <v>105.92000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H27">
-        <f t="shared" ref="H27:H28" si="3">(1-2*$F$26)*I35+$F$26*(H35+J35)</f>
-        <v>14.053333333333336</v>
-      </c>
-      <c r="I27">
-        <f t="shared" ref="I27:I28" si="4">(1-2*$F$26)*J35+$F$26*(I35+K35)</f>
-        <v>33.120000000000005</v>
-      </c>
-      <c r="J27">
-        <f t="shared" ref="J27:J28" si="5">(1-2*$F$26)*K35+$F$26*(J35+L35)</f>
-        <v>64.319999999999993</v>
-      </c>
-      <c r="K27">
-        <f t="shared" ref="K27" si="6">(1-2*$F$26)*L35+$F$26*(K35+M35)</f>
-        <v>107.65333333333336</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H28">
-        <f t="shared" si="3"/>
-        <v>15.555555555555557</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="4"/>
-        <v>35.142222222222216</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="5"/>
-        <v>66.342222222222219</v>
-      </c>
-      <c r="K28">
-        <f>(1-2*$F$26)*L36+$F$26*(K36+M36)</f>
-        <v>109.15555555555557</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="K26" s="1" t="n">
+        <f aca="false">(1-2*$F$26)*L34+$F$26*(K34+M34)</f>
+        <v>105.92</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H27" s="1" t="n">
+        <f aca="false">(1-2*$F$26)*I35+$F$26*(H35+J35)</f>
+        <v>14.0533333333333</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <f aca="false">(1-2*$F$26)*J35+$F$26*(I35+K35)</f>
+        <v>33.12</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <f aca="false">(1-2*$F$26)*K35+$F$26*(J35+L35)</f>
+        <v>64.32</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <f aca="false">(1-2*$F$26)*L35+$F$26*(K35+M35)</f>
+        <v>107.653333333333</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H28" s="1" t="n">
+        <f aca="false">(1-2*$F$26)*I36+$F$26*(H36+J36)</f>
+        <v>15.5555555555555</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <f aca="false">(1-2*$F$26)*J36+$F$26*(I36+K36)</f>
+        <v>35.1422222222222</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <f aca="false">(1-2*$F$26)*K36+$F$26*(J36+L36)</f>
+        <v>66.3422222222222</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <f aca="false">(1-2*$F$26)*L36+$F$26*(K36+M36)</f>
+        <v>109.155555555555</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F29">
-        <f>(C38-C37)/C31^2*1^2+C37</f>
+      <c r="F29" s="1" t="n">
+        <f aca="false">(C38-C37)/C31^2*1^2+C37</f>
         <v>628</v>
       </c>
-      <c r="N29" s="7"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F30">
-        <f>C35/(C36*C34)</f>
-        <v>2.4350480419022512E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="F30" s="1" t="n">
+        <f aca="false">C35/(C36*C34)</f>
+        <v>0.0243504804190225</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F32">
-        <f>1/6*C32^2/F30</f>
-        <v>6.8444919278252622E-2</v>
-      </c>
-      <c r="H32">
+      <c r="F32" s="1" t="n">
+        <f aca="false">1/6*C32^2/F30</f>
+        <v>0.0684449192782527</v>
+      </c>
+      <c r="H32" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="1" t="n">
         <v>10.24</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="1" t="n">
         <v>28.96</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" s="1" t="n">
         <v>60.16</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="1" t="n">
         <v>103.84</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="10" t="n">
         <v>0.1</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="10" t="n">
         <v>0.2</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33" s="10" t="n">
         <v>0.3</v>
       </c>
-      <c r="L33" s="8">
+      <c r="L33" s="10" t="n">
         <v>0.4</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="1" t="n">
         <v>12.06</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" s="1" t="n">
         <v>62.2</v>
       </c>
-      <c r="R33">
+      <c r="R33" s="1" t="n">
         <v>105.66</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1" t="n">
         <v>11350</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H34">
-        <f>$C$37</f>
+      <c r="H34" s="1" t="n">
+        <f aca="false">$C$37</f>
         <v>4</v>
       </c>
-      <c r="I34" s="8">
-        <f>($C$38-$C$37)/$C$31^2*I33^2+$C$37</f>
-        <v>10.240000000000002</v>
-      </c>
-      <c r="J34" s="8">
-        <f>($C$38-$C$37)/$C$31^2*J33^2+$C$37</f>
-        <v>28.960000000000004</v>
-      </c>
-      <c r="K34" s="8">
-        <f>($C$38-$C$37)/$C$31^2*K33^2+$C$37</f>
+      <c r="I34" s="10" t="n">
+        <f aca="false">($C$38-$C$37)/$C$31^2*I33^2+$C$37</f>
+        <v>10.24</v>
+      </c>
+      <c r="J34" s="10" t="n">
+        <f aca="false">($C$38-$C$37)/$C$31^2*J33^2+$C$37</f>
+        <v>28.96</v>
+      </c>
+      <c r="K34" s="10" t="n">
+        <f aca="false">($C$38-$C$37)/$C$31^2*K33^2+$C$37</f>
         <v>60.16</v>
       </c>
-      <c r="L34" s="8">
-        <f>($C$38-$C$37)/$C$31^2*L33^2+$C$37</f>
-        <v>103.84000000000002</v>
-      </c>
-      <c r="M34">
-        <f>$C$38</f>
+      <c r="L34" s="10" t="n">
+        <f aca="false">($C$38-$C$37)/$C$31^2*L33^2+$C$37</f>
+        <v>103.84</v>
+      </c>
+      <c r="M34" s="1" t="n">
+        <f aca="false">$C$38</f>
         <v>160</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="1" t="n">
         <v>13.67</v>
       </c>
-      <c r="P34">
-        <v>32.979999999999997</v>
-      </c>
-      <c r="Q34">
-        <v>64.180000000000007</v>
-      </c>
-      <c r="R34">
+      <c r="P34" s="1" t="n">
+        <v>32.98</v>
+      </c>
+      <c r="Q34" s="1" t="n">
+        <v>64.18</v>
+      </c>
+      <c r="R34" s="1" t="n">
         <v>107.27</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1" t="n">
         <v>35.1</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G35">
-        <f>F35*$F$32</f>
-        <v>6.8444919278252622E-2</v>
-      </c>
-      <c r="H35">
-        <f>$C$37</f>
+      <c r="G35" s="1" t="n">
+        <f aca="false">F35*$F$32</f>
+        <v>0.0684449192782527</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <f aca="false">$C$37</f>
         <v>4</v>
       </c>
-      <c r="I35" s="8">
-        <f>1/6*(H34+4*I34+J34)</f>
-        <v>12.320000000000002</v>
-      </c>
-      <c r="J35" s="8">
-        <f>1/6*(I34+4*J34+K34)</f>
+      <c r="I35" s="10" t="n">
+        <f aca="false">1/6*(H34+4*I34+J34)</f>
+        <v>12.32</v>
+      </c>
+      <c r="J35" s="10" t="n">
+        <f aca="false">1/6*(I34+4*J34+K34)</f>
         <v>31.04</v>
       </c>
-      <c r="K35" s="8">
-        <f>1/6*(J34+4*K34+L34)</f>
-        <v>62.239999999999995</v>
-      </c>
-      <c r="L35" s="8">
-        <f t="shared" ref="I35:L37" si="7">1/6*(K34+4*L34+M34)</f>
-        <v>105.92000000000002</v>
-      </c>
-      <c r="M35">
-        <f>$C$38</f>
+      <c r="K35" s="10" t="n">
+        <f aca="false">1/6*(J34+4*K34+L34)</f>
+        <v>62.24</v>
+      </c>
+      <c r="L35" s="10" t="n">
+        <f aca="false">1/6*(K34+4*L34+M34)</f>
+        <v>105.92</v>
+      </c>
+      <c r="M35" s="1" t="n">
+        <f aca="false">$C$38</f>
         <v>160</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="1" t="n">
         <v>15.11</v>
       </c>
-      <c r="P35">
-        <v>34.880000000000003</v>
-      </c>
-      <c r="Q35">
+      <c r="P35" s="1" t="n">
+        <v>34.88</v>
+      </c>
+      <c r="Q35" s="1" t="n">
         <v>66.08</v>
       </c>
-      <c r="R35">
+      <c r="R35" s="1" t="n">
         <v>108.71</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1" t="n">
         <v>0.127</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G36">
-        <f>F36*$F$32</f>
-        <v>0.13688983855650524</v>
-      </c>
-      <c r="H36">
-        <f>$C$37</f>
+      <c r="G36" s="1" t="n">
+        <f aca="false">F36*$F$32</f>
+        <v>0.136889838556505</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <f aca="false">$C$37</f>
         <v>4</v>
       </c>
-      <c r="I36" s="8">
-        <f t="shared" si="7"/>
-        <v>14.053333333333335</v>
-      </c>
-      <c r="J36" s="8">
-        <f t="shared" si="7"/>
-        <v>33.11999999999999</v>
-      </c>
-      <c r="K36" s="8">
-        <f t="shared" si="7"/>
-        <v>64.319999999999993</v>
-      </c>
-      <c r="L36" s="8">
-        <f t="shared" si="7"/>
-        <v>107.65333333333334</v>
-      </c>
-      <c r="M36">
-        <f>$C$38</f>
+      <c r="I36" s="10" t="n">
+        <f aca="false">1/6*(H35+4*I35+J35)</f>
+        <v>14.0533333333333</v>
+      </c>
+      <c r="J36" s="10" t="n">
+        <f aca="false">1/6*(I35+4*J35+K35)</f>
+        <v>33.12</v>
+      </c>
+      <c r="K36" s="10" t="n">
+        <f aca="false">1/6*(J35+4*K35+L35)</f>
+        <v>64.32</v>
+      </c>
+      <c r="L36" s="10" t="n">
+        <f aca="false">1/6*(K35+4*L35+M35)</f>
+        <v>107.653333333333</v>
+      </c>
+      <c r="M36" s="1" t="n">
+        <f aca="false">$C$38</f>
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G37">
-        <f>F37*$F$32</f>
-        <v>0.20533475783475785</v>
-      </c>
-      <c r="H37">
-        <f>$C$37</f>
+      <c r="G37" s="1" t="n">
+        <f aca="false">F37*$F$32</f>
+        <v>0.205334757834758</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <f aca="false">$C$37</f>
         <v>4</v>
       </c>
-      <c r="I37" s="8">
-        <f t="shared" si="7"/>
-        <v>15.555555555555554</v>
-      </c>
-      <c r="J37" s="8">
-        <f t="shared" si="7"/>
-        <v>35.142222222222216</v>
-      </c>
-      <c r="K37" s="8">
-        <f t="shared" si="7"/>
-        <v>66.342222222222205</v>
-      </c>
-      <c r="L37" s="8">
-        <f t="shared" si="7"/>
-        <v>109.15555555555557</v>
-      </c>
-      <c r="M37">
-        <f>$C$38</f>
+      <c r="I37" s="10" t="n">
+        <f aca="false">1/6*(H36+4*I36+J36)</f>
+        <v>15.5555555555556</v>
+      </c>
+      <c r="J37" s="10" t="n">
+        <f aca="false">1/6*(I36+4*J36+K36)</f>
+        <v>35.1422222222222</v>
+      </c>
+      <c r="K37" s="10" t="n">
+        <f aca="false">1/6*(J36+4*K36+L36)</f>
+        <v>66.3422222222222</v>
+      </c>
+      <c r="L37" s="10" t="n">
+        <f aca="false">1/6*(K36+4*L36+M36)</f>
+        <v>109.155555555556</v>
+      </c>
+      <c r="M37" s="1" t="n">
+        <f aca="false">$C$38</f>
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C38">
-        <f>40*4</f>
+      <c r="C38" s="1" t="n">
+        <f aca="false">40*4</f>
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
-      <c r="R56" s="17"/>
-      <c r="S56" s="17"/>
-      <c r="T56" s="17"/>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E59" s="10">
-        <f>1/6</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+      <c r="E59" s="12" t="n">
+        <f aca="false">1/6</f>
+        <v>0.166666666666667</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E60" s="10">
-        <f>E59</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+      <c r="E60" s="12" t="n">
+        <f aca="false">E59</f>
+        <v>0.166666666666667</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E61" s="10">
-        <f>E60</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11">
+      <c r="E61" s="12" t="n">
+        <f aca="false">E60</f>
+        <v>0.166666666666667</v>
+      </c>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="I61" s="11">
+      <c r="I61" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="J61" s="11">
+      <c r="J61" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="K61" s="11">
+      <c r="K61" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="L61" s="11">
+      <c r="L61" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="M61" s="11">
+      <c r="M61" s="13" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E62" s="10">
-        <f>1+2*E61</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11">
+      <c r="E62" s="12" t="n">
+        <f aca="false">1+2*E61</f>
+        <v>1.33333333333333</v>
+      </c>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="I62" s="11">
+      <c r="I62" s="13" t="n">
         <v>0.1</v>
       </c>
-      <c r="J62" s="11">
+      <c r="J62" s="13" t="n">
         <v>0.2</v>
       </c>
-      <c r="K62" s="11">
+      <c r="K62" s="13" t="n">
         <v>0.3</v>
       </c>
-      <c r="L62" s="11">
+      <c r="L62" s="13" t="n">
         <v>0.4</v>
       </c>
-      <c r="M62" s="11">
+      <c r="M62" s="13" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="1" t="n">
         <v>11350</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F63" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="G63" s="11">
+      <c r="G63" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="H63" s="11">
+      <c r="H63" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="I63" s="11">
-        <f>($C$38-$C$37)/$C$31^2*I62^2+$C$37</f>
-        <v>10.240000000000002</v>
-      </c>
-      <c r="J63" s="11">
-        <f>($C$38-$C$37)/$C$31^2*J62^2+$C$37</f>
-        <v>28.960000000000004</v>
-      </c>
-      <c r="K63" s="11">
-        <f>($C$38-$C$37)/$C$31^2*K62^2+$C$37</f>
+      <c r="I63" s="13" t="n">
+        <f aca="false">($C$38-$C$37)/$C$31^2*I62^2+$C$37</f>
+        <v>10.24</v>
+      </c>
+      <c r="J63" s="13" t="n">
+        <f aca="false">($C$38-$C$37)/$C$31^2*J62^2+$C$37</f>
+        <v>28.96</v>
+      </c>
+      <c r="K63" s="13" t="n">
+        <f aca="false">($C$38-$C$37)/$C$31^2*K62^2+$C$37</f>
         <v>60.16</v>
       </c>
-      <c r="L63" s="11">
-        <f>($C$38-$C$37)/$C$31^2*L62^2+$C$37</f>
-        <v>103.84000000000002</v>
-      </c>
-      <c r="M63" s="11">
-        <f>$C$38</f>
+      <c r="L63" s="13" t="n">
+        <f aca="false">($C$38-$C$37)/$C$31^2*L62^2+$C$37</f>
+        <v>103.84</v>
+      </c>
+      <c r="M63" s="13" t="n">
+        <f aca="false">$C$38</f>
         <v>160</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="1" t="n">
         <v>35.1</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F64" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="G64" s="11">
-        <f>F64*$F$32</f>
-        <v>6.8444919278252622E-2</v>
-      </c>
-      <c r="H64" s="11">
+      <c r="G64" s="13" t="n">
+        <f aca="false">F64*$F$32</f>
+        <v>0.0684449192782527</v>
+      </c>
+      <c r="H64" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="I64" s="11">
+      <c r="I64" s="13" t="n">
         <v>12.06</v>
       </c>
-      <c r="J64" s="11">
+      <c r="J64" s="13" t="n">
         <v>31</v>
       </c>
-      <c r="K64" s="11">
+      <c r="K64" s="13" t="n">
         <v>62.2</v>
       </c>
-      <c r="L64" s="11">
+      <c r="L64" s="13" t="n">
         <v>105.66</v>
       </c>
-      <c r="M64" s="11">
-        <f>$C$38</f>
+      <c r="M64" s="13" t="n">
+        <f aca="false">$C$38</f>
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1" t="n">
         <v>0.127</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F65" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G65" s="11">
-        <f>F65*$F$32</f>
-        <v>0.13688983855650524</v>
-      </c>
-      <c r="H65" s="11">
+      <c r="G65" s="13" t="n">
+        <f aca="false">F65*$F$32</f>
+        <v>0.136889838556505</v>
+      </c>
+      <c r="H65" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="I65" s="11">
+      <c r="I65" s="13" t="n">
         <v>13.67</v>
       </c>
-      <c r="J65" s="11">
-        <v>32.979999999999997</v>
-      </c>
-      <c r="K65" s="11">
-        <v>64.180000000000007</v>
-      </c>
-      <c r="L65" s="11">
+      <c r="J65" s="13" t="n">
+        <v>32.98</v>
+      </c>
+      <c r="K65" s="13" t="n">
+        <v>64.18</v>
+      </c>
+      <c r="L65" s="13" t="n">
         <v>107.27</v>
       </c>
-      <c r="M65" s="11">
-        <f>$C$38</f>
+      <c r="M65" s="13" t="n">
+        <f aca="false">$C$38</f>
         <v>160</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F66" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="G66" s="11">
-        <f>F66*$F$32</f>
-        <v>0.20533475783475785</v>
-      </c>
-      <c r="H66" s="11">
+      <c r="G66" s="13" t="n">
+        <f aca="false">F66*$F$32</f>
+        <v>0.205334757834758</v>
+      </c>
+      <c r="H66" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="I66" s="11">
+      <c r="I66" s="13" t="n">
         <v>15.11</v>
       </c>
-      <c r="J66" s="11">
-        <v>34.880000000000003</v>
-      </c>
-      <c r="K66" s="11">
+      <c r="J66" s="13" t="n">
+        <v>34.88</v>
+      </c>
+      <c r="K66" s="13" t="n">
         <v>66.08</v>
       </c>
-      <c r="L66" s="11">
+      <c r="L66" s="13" t="n">
         <v>108.71</v>
       </c>
-      <c r="M66" s="11">
-        <f>$C$38</f>
+      <c r="M66" s="13" t="n">
+        <f aca="false">$C$38</f>
         <v>160</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C67">
-        <f>40*4</f>
+      <c r="C67" s="1" t="n">
+        <f aca="false">40*4</f>
         <v>160</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B71" s="11" t="s">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="D71" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E71" s="11" t="s">
+      <c r="E71" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B72" s="11">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C72" s="12">
+      <c r="C72" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="D72" s="12">
-        <f>H63</f>
+      <c r="D72" s="14" t="n">
+        <f aca="false">H63</f>
         <v>4</v>
       </c>
-      <c r="E72" s="12">
-        <f>C73*E73+D73</f>
-        <v>15.113090909090907</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B73" s="11">
+      <c r="E72" s="14" t="n">
+        <f aca="false">C73*E73+D73</f>
+        <v>15.1130909090909</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C73" s="12">
-        <f>$E$61/($E$62-$E$60*C72)</f>
+      <c r="C73" s="14" t="n">
+        <f aca="false">$E$61/($E$62-$E$60*C72)</f>
         <v>0.125</v>
       </c>
-      <c r="D73" s="12">
-        <f>($E$60*D72+I65)/($E$62-$E$60*C72)</f>
+      <c r="D73" s="14" t="n">
+        <f aca="false">($E$60*D72+I65)/($E$62-$E$60*C72)</f>
         <v>10.7525</v>
       </c>
-      <c r="E73" s="12">
-        <f>C74*E74+D74</f>
-        <v>34.884727272727268</v>
-      </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B74" s="11">
+      <c r="E73" s="14" t="n">
+        <f aca="false">C74*E74+D74</f>
+        <v>34.8847272727273</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C74" s="12">
-        <f>$E$61/($E$62-$E$60*C73)</f>
-        <v>0.12698412698412698</v>
-      </c>
-      <c r="D74" s="12">
-        <f>($E$60*D73+J65)/($E$62-$E$60*C73)</f>
-        <v>26.493015873015867</v>
-      </c>
-      <c r="E74" s="12">
-        <f>C75*E75+D75</f>
-        <v>66.084727272727278</v>
-      </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B75" s="11">
+      <c r="C74" s="14" t="n">
+        <f aca="false">$E$61/($E$62-$E$60*C73)</f>
+        <v>0.126984126984127</v>
+      </c>
+      <c r="D74" s="14" t="n">
+        <f aca="false">($E$60*D73+J65)/($E$62-$E$60*C73)</f>
+        <v>26.4930158730159</v>
+      </c>
+      <c r="E74" s="14" t="n">
+        <f aca="false">C75*E75+D75</f>
+        <v>66.0847272727273</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C75" s="12">
-        <f>$E$61/($E$62-$E$60*C74)</f>
-        <v>0.12701612903225806</v>
-      </c>
-      <c r="D75" s="12">
-        <f>($E$60*D74+K65)/($E$62-$E$60*C74)</f>
-        <v>52.276411290322585</v>
-      </c>
-      <c r="E75" s="12">
-        <f>C76*E76+D76</f>
-        <v>108.71309090909092</v>
-      </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B76" s="11">
+      <c r="C75" s="14" t="n">
+        <f aca="false">$E$61/($E$62-$E$60*C74)</f>
+        <v>0.127016129032258</v>
+      </c>
+      <c r="D75" s="14" t="n">
+        <f aca="false">($E$60*D74+K65)/($E$62-$E$60*C74)</f>
+        <v>52.2764112903226</v>
+      </c>
+      <c r="E75" s="14" t="n">
+        <f aca="false">C76*E76+D76</f>
+        <v>108.713090909091</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="C76" s="12">
-        <f>$E$61/($E$62-$E$60*C75)</f>
-        <v>0.1270166453265045</v>
-      </c>
-      <c r="D76" s="12">
-        <f>($E$60*D75+L65)/($E$62-$E$60*C75)</f>
-        <v>88.390427656850207</v>
-      </c>
-      <c r="E76" s="12">
-        <f>M63</f>
+      <c r="C76" s="14" t="n">
+        <f aca="false">$E$61/($E$62-$E$60*C75)</f>
+        <v>0.127016645326505</v>
+      </c>
+      <c r="D76" s="14" t="n">
+        <f aca="false">($E$60*D75+L65)/($E$62-$E$60*C75)</f>
+        <v>88.3904276568502</v>
+      </c>
+      <c r="E76" s="14" t="n">
+        <f aca="false">M63</f>
         <v>160</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A89" s="17" t="s">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="17"/>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
-      <c r="R89" s="17"/>
-      <c r="S89" s="17"/>
-      <c r="T89" s="17"/>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B96" s="13" t="s">
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="8"/>
+      <c r="O89" s="8"/>
+      <c r="P89" s="8"/>
+      <c r="Q89" s="8"/>
+      <c r="R89" s="8"/>
+      <c r="S89" s="8"/>
+      <c r="T89" s="8"/>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C96" s="14">
+      <c r="C96" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="E96" s="13" t="s">
+      <c r="E96" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F96" s="14">
+      <c r="F96" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="P96" s="18" t="s">
+      <c r="P96" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="2"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2"/>
+      <c r="U96" s="2"/>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E97" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F97" s="17" t="n">
+        <f aca="false">1/4</f>
+        <v>0.25</v>
+      </c>
+      <c r="I97" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L97" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M97" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P97" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R97" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S97" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T97" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="U97" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C98" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E98" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F98" s="18" t="n">
+        <f aca="false">C102/(C103*C101)</f>
+        <v>0.0243504804190225</v>
+      </c>
+      <c r="I98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K98" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L98" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M98" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N98" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P98" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R98" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="S98" s="2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="T98" s="2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="U98" s="2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C99" s="16" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E99" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" s="17" t="n">
+        <f aca="false">1/4</f>
+        <v>0.25</v>
+      </c>
+      <c r="G99" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J99" s="1" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="K99" s="1" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="L99" s="1" t="n">
+        <v>60.16</v>
+      </c>
+      <c r="M99" s="1" t="n">
+        <v>103.84</v>
+      </c>
+      <c r="N99" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="P99" s="19" t="n">
+        <f aca="false">$F$98*EXP(-1*$F$97*P98)</f>
+        <v>0.0243504804190225</v>
+      </c>
+      <c r="Q99" s="19" t="n">
+        <f aca="false">$F$98*EXP(-1*$F$97*Q98)</f>
+        <v>0.0237492649153245</v>
+      </c>
+      <c r="R99" s="19" t="n">
+        <f aca="false">$F$98*EXP(-1*$F$97*R98)</f>
+        <v>0.0231628934753027</v>
+      </c>
+      <c r="S99" s="19" t="n">
+        <f aca="false">$F$98*EXP(-1*$F$97*S98)</f>
+        <v>0.0225909995977191</v>
+      </c>
+      <c r="T99" s="19" t="n">
+        <f aca="false">$F$98*EXP(-1*$F$97*T98)</f>
+        <v>0.0220332258302835</v>
+      </c>
+      <c r="U99" s="19" t="n">
+        <f aca="false">$F$98*EXP(-1*$F$97*U98)</f>
+        <v>0.0214892235462342</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G100" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I100" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="P100" s="10"/>
+      <c r="Q100" s="10"/>
+      <c r="R100" s="10"/>
+      <c r="S100" s="10"/>
+      <c r="T100" s="10"/>
+      <c r="U100" s="10"/>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C101" s="16" t="n">
+        <v>11350</v>
+      </c>
+      <c r="E101" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F101" s="1" t="n">
+        <f aca="false">(1/2*F32)/C99^2</f>
+        <v>3.42224596391263</v>
+      </c>
+      <c r="G101" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I101" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="P101" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q101" s="10" t="n">
+        <f aca="false">1/2*(Q99+P99)</f>
+        <v>0.0240498726671735</v>
+      </c>
+      <c r="R101" s="10" t="n">
+        <f aca="false">1/2*(R99+Q99)</f>
+        <v>0.0234560791953136</v>
+      </c>
+      <c r="S101" s="10" t="n">
+        <f aca="false">1/2*(S99+R99)</f>
+        <v>0.0228769465365109</v>
+      </c>
+      <c r="T101" s="10" t="n">
+        <f aca="false">1/2*(T99+S99)</f>
+        <v>0.0223121127140013</v>
+      </c>
+      <c r="U101" s="10"/>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C102" s="16" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="G102" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H102" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Q96" s="18"/>
-      <c r="R96" s="18"/>
-      <c r="S96" s="18"/>
-      <c r="T96" s="18"/>
-      <c r="U96" s="18"/>
-    </row>
-    <row r="97" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B97" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C97" s="14">
+      <c r="I102" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="P102" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q102" s="10" t="n">
+        <f aca="false">1/2*(R99+Q99)</f>
+        <v>0.0234560791953136</v>
+      </c>
+      <c r="R102" s="10" t="n">
+        <f aca="false">1/2*(S99+R99)</f>
+        <v>0.0228769465365109</v>
+      </c>
+      <c r="S102" s="10" t="n">
+        <f aca="false">1/2*(T99+S99)</f>
+        <v>0.0223121127140013</v>
+      </c>
+      <c r="T102" s="10" t="n">
+        <f aca="false">1/2*(U99+T99)</f>
+        <v>0.0217612246882589</v>
+      </c>
+      <c r="U102" s="10"/>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C103" s="16" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="P103" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q103" s="10" t="n">
+        <f aca="false">Q101+Q102+1/$F$101</f>
+        <v>0.339711716890757</v>
+      </c>
+      <c r="R103" s="10" t="n">
+        <f aca="false">R101+R102+1/$F$101</f>
+        <v>0.338538790760095</v>
+      </c>
+      <c r="S103" s="10" t="n">
+        <f aca="false">S101+S102+1/$F$101</f>
+        <v>0.337394824278782</v>
+      </c>
+      <c r="T103" s="10" t="n">
+        <f aca="false">T101+T102+1/$F$101</f>
+        <v>0.33627910243053</v>
+      </c>
+      <c r="U103" s="10"/>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="P104" s="10"/>
+      <c r="Q104" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="E97" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F97" s="15">
-        <f>1/4</f>
-        <v>0.25</v>
-      </c>
-      <c r="I97">
+      <c r="R104" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S104" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T104" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="U104" s="10"/>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" s="16" t="n">
+        <f aca="false">40*4</f>
+        <v>160</v>
+      </c>
+      <c r="P105" s="10"/>
+      <c r="Q105" s="10"/>
+      <c r="R105" s="10"/>
+      <c r="S105" s="10"/>
+      <c r="T105" s="10"/>
+      <c r="U105" s="10"/>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P106" s="10"/>
+      <c r="Q106" s="10"/>
+      <c r="R106" s="10"/>
+      <c r="S106" s="10"/>
+      <c r="T106" s="10"/>
+      <c r="U106" s="10"/>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P107" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q107" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R107" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S107" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T107" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="U107" s="21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P108" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q108" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="J97">
+      <c r="R108" s="13" t="n">
+        <f aca="false">Q102/(Q103-Q101*Q108)</f>
+        <v>0.0690470125964377</v>
+      </c>
+      <c r="S108" s="13" t="n">
+        <f aca="false">R102/(R103-R101*R108)</f>
+        <v>0.0679003905861663</v>
+      </c>
+      <c r="T108" s="13" t="n">
+        <f aca="false">S102/(S103-S101*S108)</f>
+        <v>0.0664364429719</v>
+      </c>
+      <c r="U108" s="13" t="n">
+        <f aca="false">T102/(T103-T101*T108)</f>
+        <v>0.0649983122941119</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P109" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q109" s="13" t="n">
+        <f aca="false">I99</f>
+        <v>4</v>
+      </c>
+      <c r="R109" s="13" t="n">
+        <f aca="false">(Q101*Q109+J99)/(Q103-Q101*Q108)</f>
+        <v>30.4263850104192</v>
+      </c>
+      <c r="S109" s="13" t="n">
+        <f aca="false">(R101*R109+K99)/(R103-R101*R108)</f>
+        <v>88.0735857778225</v>
+      </c>
+      <c r="T109" s="13" t="n">
+        <f aca="false">(S101*S109+L99)/(S103-S101*S108)</f>
+        <v>185.131558018805</v>
+      </c>
+      <c r="U109" s="13" t="n">
+        <f aca="false">(T101*T109+M99)/(T103-T101*T108)</f>
+        <v>322.496175197058</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P110" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q110" s="1" t="n">
+        <f aca="false">R108*R110+R109</f>
+        <v>37.4792476549633</v>
+      </c>
+      <c r="R110" s="1" t="n">
+        <f aca="false">S108*S110+S109</f>
+        <v>102.145804421204</v>
+      </c>
+      <c r="S110" s="1" t="n">
+        <f aca="false">T108*T110+T109</f>
+        <v>207.247977837819</v>
+      </c>
+      <c r="T110" s="1" t="n">
+        <f aca="false">U108*U110+U109</f>
+        <v>332.895905164116</v>
+      </c>
+      <c r="U110" s="1" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P111" s="13"/>
+      <c r="Q111" s="14"/>
+      <c r="R111" s="14"/>
+      <c r="S111" s="14"/>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P112" s="13"/>
+      <c r="Q112" s="14"/>
+      <c r="R112" s="14"/>
+      <c r="S112" s="14"/>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="8"/>
+      <c r="L118" s="8"/>
+      <c r="M118" s="8"/>
+      <c r="N118" s="8"/>
+      <c r="O118" s="8"/>
+      <c r="P118" s="8"/>
+      <c r="Q118" s="8"/>
+      <c r="R118" s="8"/>
+      <c r="S118" s="8"/>
+      <c r="T118" s="8"/>
+      <c r="U118" s="8"/>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="M120" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="O120" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P120" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q120" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R120" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="S120" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T120" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K97">
-        <v>2</v>
-      </c>
-      <c r="L97">
-        <v>3</v>
-      </c>
-      <c r="M97">
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E121" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F121" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="I121" s="25"/>
+      <c r="O121" s="26" t="n">
+        <f aca="false">1/(1+1/2*0.2*ABS(4*COS(3.14*O120)))</f>
+        <v>0.714285714285714</v>
+      </c>
+      <c r="P121" s="26" t="n">
+        <f aca="false">1/(1+1/2*0.2*ABS(4*COS(3.14*P120)))</f>
+        <v>0.755468645411167</v>
+      </c>
+      <c r="Q121" s="26" t="n">
+        <f aca="false">1/(1+1/2*0.2*ABS(4*COS(3.14*Q120)))</f>
+        <v>0.889799153246433</v>
+      </c>
+      <c r="R121" s="26" t="n">
+        <f aca="false">1/(1+1/2*0.2*ABS(4*COS(3.14*R120)))</f>
+        <v>0.890279138891331</v>
+      </c>
+      <c r="S121" s="26" t="n">
+        <f aca="false">1/(1+1/2*0.2*ABS(4*COS(3.14*S120)))</f>
+        <v>0.755682560422128</v>
+      </c>
+      <c r="T121" s="26" t="n">
+        <f aca="false">1/(1+1/2*0.2*ABS(4*COS(3.14*T120)))</f>
+        <v>0.714285973116922</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F122" s="10"/>
+      <c r="M122" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="O122" s="26" t="n">
+        <f aca="false">(((4*COS(3.14*O120))+ABS(4*COS(3.14*O120))))/2</f>
         <v>4</v>
       </c>
-      <c r="N97">
-        <v>5</v>
-      </c>
-      <c r="P97" s="18">
+      <c r="P122" s="26" t="n">
+        <f aca="false">(((4*COS(3.14*P120))+ABS(4*COS(3.14*P120))))/2</f>
+        <v>3.23681672395213</v>
+      </c>
+      <c r="Q122" s="26" t="n">
+        <f aca="false">(((4*COS(3.14*Q120))+ABS(4*COS(3.14*Q120))))/2</f>
+        <v>1.2384912522281</v>
+      </c>
+      <c r="R122" s="26" t="n">
+        <f aca="false">(((4*COS(3.14*R120))+ABS(4*COS(3.14*R120))))/2</f>
         <v>0</v>
       </c>
-      <c r="Q97" s="18">
+      <c r="S122" s="26" t="n">
+        <f aca="false">(((4*COS(3.14*S120))+ABS(4*COS(3.14*S120))))/2</f>
+        <v>0</v>
+      </c>
+      <c r="T122" s="26" t="n">
+        <f aca="false">(((4*COS(3.14*T120))+ABS(4*COS(3.14*T120))))/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E123" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F123" s="24" t="n">
+        <f aca="false">10*EXP(-4)</f>
+        <v>0.183156388887342</v>
+      </c>
+      <c r="M123" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="O123" s="26" t="n">
+        <f aca="false">(((4*COS(3.14*O120))-ABS(4*COS(3.14*O120))))/2</f>
+        <v>0</v>
+      </c>
+      <c r="P123" s="26" t="n">
+        <f aca="false">(((4*COS(3.14*P120))-ABS(4*COS(3.14*P120))))/2</f>
+        <v>0</v>
+      </c>
+      <c r="Q123" s="26" t="n">
+        <f aca="false">(((4*COS(3.14*Q120))-ABS(4*COS(3.14*Q120))))/2</f>
+        <v>0</v>
+      </c>
+      <c r="R123" s="26" t="n">
+        <f aca="false">(((4*COS(3.14*R120))-ABS(4*COS(3.14*R120))))/2</f>
+        <v>-1.23243212511197</v>
+      </c>
+      <c r="S123" s="26" t="n">
+        <f aca="false">(((4*COS(3.14*S120))-ABS(4*COS(3.14*S120))))/2</f>
+        <v>-3.23306970907724</v>
+      </c>
+      <c r="T123" s="26" t="n">
+        <f aca="false">(((4*COS(3.14*T120))-ABS(4*COS(3.14*T120))))/2</f>
+        <v>-3.99999492691016</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M125" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="O125" s="26" t="n">
+        <f aca="false">(O121/0.2^2-O123/0.2)</f>
+        <v>17.8571428571429</v>
+      </c>
+      <c r="P125" s="26" t="n">
+        <f aca="false">(P121/0.2^2-P123/0.2)</f>
+        <v>18.8867161352792</v>
+      </c>
+      <c r="Q125" s="26" t="n">
+        <f aca="false">(Q121/0.2^2-Q123/0.2)</f>
+        <v>22.2449788311608</v>
+      </c>
+      <c r="R125" s="26" t="n">
+        <f aca="false">(R121/0.2^2-R123/0.2)</f>
+        <v>28.4191390978431</v>
+      </c>
+      <c r="S125" s="26" t="n">
+        <f aca="false">(S121/0.2^2-S123/0.2)</f>
+        <v>35.0574125559394</v>
+      </c>
+      <c r="T125" s="26" t="n">
+        <f aca="false">(T121/0.2^2-T123/0.2)</f>
+        <v>37.8571239624739</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C126" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E126" s="23"/>
+      <c r="F126" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" s="27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H126" s="23" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I126" s="23" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J126" s="23" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K126" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="R97" s="18">
-        <v>2</v>
-      </c>
-      <c r="S97" s="18">
-        <v>3</v>
-      </c>
-      <c r="T97" s="18">
-        <v>4</v>
-      </c>
-      <c r="U97" s="18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B98" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C98" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="E98" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F98" s="16">
-        <f>C102/(C103*C101)</f>
-        <v>2.4350480419022512E-2</v>
-      </c>
-      <c r="I98">
+      <c r="M126" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="O126" s="26" t="n">
+        <f aca="false">(O121/0.2^2+O122/0.2)</f>
+        <v>37.8571428571429</v>
+      </c>
+      <c r="P126" s="26" t="n">
+        <f aca="false">(P121/0.2^2+P122/0.2)</f>
+        <v>35.0707997550398</v>
+      </c>
+      <c r="Q126" s="26" t="n">
+        <f aca="false">(Q121/0.2^2+Q122/0.2)</f>
+        <v>28.4374350923013</v>
+      </c>
+      <c r="R126" s="26" t="n">
+        <f aca="false">(R121/0.2^2+R122/0.2)</f>
+        <v>22.2569784722833</v>
+      </c>
+      <c r="S126" s="26" t="n">
+        <f aca="false">(S121/0.2^2+S122/0.2)</f>
+        <v>18.8920640105532</v>
+      </c>
+      <c r="T126" s="26" t="n">
+        <f aca="false">(T121/0.2^2+T122/0.2)</f>
+        <v>17.8571493279231</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E127" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F127" s="24" t="n">
+        <f aca="false">10*EXP(-4*F126)</f>
+        <v>10</v>
+      </c>
+      <c r="G127" s="24" t="n">
+        <f aca="false">10*EXP(-4*G126)</f>
+        <v>4.49328964117222</v>
+      </c>
+      <c r="H127" s="24" t="n">
+        <f aca="false">10*EXP(-4*H126)</f>
+        <v>2.01896517994655</v>
+      </c>
+      <c r="I127" s="24" t="n">
+        <f aca="false">10*EXP(-4*I126)</f>
+        <v>0.907179532894125</v>
+      </c>
+      <c r="J127" s="24" t="n">
+        <f aca="false">10*EXP(-4*J126)</f>
+        <v>0.407622039783662</v>
+      </c>
+      <c r="K127" s="24" t="n">
+        <f aca="false">10*EXP(-4*K126)</f>
+        <v>0.183156388887342</v>
+      </c>
+      <c r="M127" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="O127" s="26" t="n">
+        <f aca="false">((2*O121)/0.2^2+1+O122/0.2-O123/0.2)</f>
+        <v>56.7142857142857</v>
+      </c>
+      <c r="P127" s="26" t="n">
+        <f aca="false">((2*P121)/0.2^2+1+P122/0.2-P123/0.2)</f>
+        <v>54.957515890319</v>
+      </c>
+      <c r="Q127" s="26" t="n">
+        <f aca="false">((2*Q121)/0.2^2+1+Q122/0.2-Q123/0.2)</f>
+        <v>51.6824139234621</v>
+      </c>
+      <c r="R127" s="26" t="n">
+        <f aca="false">((2*R121)/0.2^2+1+R122/0.2-R123/0.2)</f>
+        <v>51.6761175701264</v>
+      </c>
+      <c r="S127" s="26" t="n">
+        <f aca="false">((2*S121)/0.2^2+1+S122/0.2-S123/0.2)</f>
+        <v>54.9494765664926</v>
+      </c>
+      <c r="T127" s="26" t="n">
+        <f aca="false">((2*T121)/0.2^2+1+T122/0.2-T123/0.2)</f>
+        <v>56.7142732903969</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F128" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="G128" s="24" t="n">
+        <v>4.36586576221462</v>
+      </c>
+      <c r="H128" s="28" t="n">
+        <v>3.35339450984373</v>
+      </c>
+      <c r="I128" s="28" t="n">
+        <v>2.60832125772092</v>
+      </c>
+      <c r="J128" s="28" t="n">
+        <v>1.7333957286522</v>
+      </c>
+      <c r="K128" s="24" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F129" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="G129" s="24" t="n">
+        <v>4.46892176756984</v>
+      </c>
+      <c r="H129" s="28" t="n">
+        <v>3.48147538342862</v>
+      </c>
+      <c r="I129" s="28" t="n">
+        <v>2.71120290712082</v>
+      </c>
+      <c r="J129" s="28" t="n">
+        <v>1.78351945493744</v>
+      </c>
+      <c r="K129" s="24" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F130" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="G130" s="24" t="n">
+        <v>4.47829527373849</v>
+      </c>
+      <c r="H130" s="28" t="n">
+        <v>3.48985605339688</v>
+      </c>
+      <c r="I130" s="28" t="n">
+        <v>2.71650120510137</v>
+      </c>
+      <c r="J130" s="28" t="n">
+        <v>1.7854144902348</v>
+      </c>
+      <c r="K130" s="24" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M130" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="N130" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="J98">
-        <v>0.1</v>
-      </c>
-      <c r="K98">
-        <v>0.2</v>
-      </c>
-      <c r="L98">
-        <v>0.3</v>
-      </c>
-      <c r="M98">
-        <v>0.4</v>
-      </c>
-      <c r="N98">
-        <v>0.5</v>
-      </c>
-      <c r="P98" s="18">
+      <c r="O130" s="26" t="n">
+        <f aca="false">O126/(O127-N130*O125)</f>
+        <v>0.667506297229219</v>
+      </c>
+      <c r="P130" s="26" t="n">
+        <f aca="false">P126/(P127-O130*P125)</f>
+        <v>0.828108008512154</v>
+      </c>
+      <c r="Q130" s="26" t="n">
+        <f aca="false">Q126/(Q127-P130*Q125)</f>
+        <v>0.854974016689248</v>
+      </c>
+      <c r="R130" s="26" t="n">
+        <f aca="false">R126/(R127-Q130*R125)</f>
+        <v>0.812936608035631</v>
+      </c>
+      <c r="S130" s="26" t="n">
+        <f aca="false">S126/(S127-R130*S125)</f>
+        <v>0.714255120145218</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F131" s="0"/>
+      <c r="G131" s="0"/>
+      <c r="M131" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="N131" s="26" t="n">
+        <v>10</v>
+      </c>
+      <c r="O131" s="26" t="n">
+        <f aca="false">(O125*N131+F127)/(O127-O125*N130)</f>
+        <v>3.32493702770781</v>
+      </c>
+      <c r="P131" s="26" t="n">
+        <f aca="false">(P125*O131+G127)/(P127-P125*O130)</f>
+        <v>1.58889291291234</v>
+      </c>
+      <c r="Q131" s="26" t="n">
+        <f aca="false">(Q125*P131+H127)/(Q127-Q125*P130)</f>
+        <v>1.12334760731412</v>
+      </c>
+      <c r="R131" s="26" t="n">
+        <f aca="false">(R125*Q131+I127)/(R127-R125*Q130)</f>
+        <v>1.19918041368695</v>
+      </c>
+      <c r="S131" s="26" t="n">
+        <f aca="false">(S125*R131+J127)/(S127-S125*R130)</f>
+        <v>1.60482980702606</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F132" s="0"/>
+      <c r="G132" s="0"/>
+      <c r="M132" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O132" s="22" t="n">
+        <f aca="false">P130*P132+P131</f>
+        <v>4.36586576221462</v>
+      </c>
+      <c r="P132" s="22" t="n">
+        <f aca="false">Q130*Q132+Q131</f>
+        <v>3.35339450984373</v>
+      </c>
+      <c r="Q132" s="22" t="n">
+        <f aca="false">R130*R132+R131</f>
+        <v>2.60832125772092</v>
+      </c>
+      <c r="R132" s="22" t="n">
+        <f aca="false">S130*S132+S131</f>
+        <v>1.7333957286522</v>
+      </c>
+      <c r="S132" s="0" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M134" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="N134" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="Q98" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="R98" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="S98" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="T98" s="18">
-        <v>0.4</v>
-      </c>
-      <c r="U98" s="18">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="99" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B99" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C99" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="E99" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F99" s="15">
-        <f>1/4</f>
-        <v>0.25</v>
-      </c>
-      <c r="G99">
+      <c r="O134" s="26" t="n">
+        <v>0.667506297229219</v>
+      </c>
+      <c r="P134" s="26" t="n">
+        <v>0.828108008512154</v>
+      </c>
+      <c r="Q134" s="26" t="n">
+        <v>0.854974016689248</v>
+      </c>
+      <c r="R134" s="26" t="n">
+        <v>0.812936608035631</v>
+      </c>
+      <c r="S134" s="26" t="n">
+        <v>0.714255120145218</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M135" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="N135" s="26" t="n">
+        <v>10</v>
+      </c>
+      <c r="O135" s="26" t="n">
+        <f aca="false">(O125*N131+F128)/(O127-O125*N130)</f>
+        <v>3.32493702770781</v>
+      </c>
+      <c r="P135" s="26" t="n">
+        <f aca="false">(P125*O131+G128)/(P127-P125*O130)</f>
+        <v>1.58588412111468</v>
+      </c>
+      <c r="Q135" s="26" t="n">
+        <f aca="false">(Q125*P131+H128)/(Q127-Q125*P130)</f>
+        <v>1.16346734386797</v>
+      </c>
+      <c r="R135" s="26" t="n">
+        <f aca="false">(R125*Q131+I128)/(R127-R125*Q130)</f>
+        <v>1.26131465105842</v>
+      </c>
+      <c r="S135" s="26" t="n">
+        <f aca="false">(S125*R131+J128)/(S127-S125*R130)</f>
+        <v>1.6549535333113</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M136" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O136" s="22" t="n">
+        <f aca="false">P134*P136+P135</f>
+        <v>4.46892176756984</v>
+      </c>
+      <c r="P136" s="22" t="n">
+        <f aca="false">Q134*Q136+Q135</f>
+        <v>3.48147538342862</v>
+      </c>
+      <c r="Q136" s="22" t="n">
+        <f aca="false">R134*R136+R135</f>
+        <v>2.71120290712082</v>
+      </c>
+      <c r="R136" s="22" t="n">
+        <f aca="false">S134*S136+S135</f>
+        <v>1.78351945493744</v>
+      </c>
+      <c r="S136" s="0" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M138" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="N138" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99">
-        <v>4</v>
-      </c>
-      <c r="J99">
-        <v>10.240000000000002</v>
-      </c>
-      <c r="K99">
-        <v>28.960000000000004</v>
-      </c>
-      <c r="L99">
-        <v>60.16</v>
-      </c>
-      <c r="M99">
-        <v>103.84000000000002</v>
-      </c>
-      <c r="N99">
-        <v>160</v>
-      </c>
-      <c r="P99" s="18">
-        <f>$F$98*EXP(-1*$F$97*P98)</f>
-        <v>2.4350480419022512E-2</v>
-      </c>
-      <c r="Q99" s="18">
-        <f>$F$98*EXP(-1*$F$97*Q98)</f>
-        <v>2.3749264915324482E-2</v>
-      </c>
-      <c r="R99" s="18">
-        <f t="shared" ref="Q99:U99" si="8">$F$98*EXP(-1*$F$97*R98)</f>
-        <v>2.316289347530269E-2</v>
-      </c>
-      <c r="S99" s="18">
-        <f t="shared" si="8"/>
-        <v>2.2590999597719107E-2</v>
-      </c>
-      <c r="T99" s="18">
-        <f t="shared" si="8"/>
-        <v>2.2033225830283519E-2</v>
-      </c>
-      <c r="U99" s="18">
-        <f>$F$98*EXP(-1*$F$97*U98)</f>
-        <v>2.1489223546234209E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B100" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C100" s="14">
-        <v>3</v>
-      </c>
-      <c r="G100">
-        <v>1</v>
-      </c>
-      <c r="H100" t="s">
-        <v>43</v>
-      </c>
-      <c r="I100">
-        <v>4</v>
-      </c>
-      <c r="N100">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="101" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B101" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C101" s="14">
-        <v>11350</v>
-      </c>
-      <c r="E101" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F101">
-        <f>(1/2*F32)/C99^2</f>
-        <v>3.4222459639126304</v>
-      </c>
-      <c r="G101">
-        <v>2</v>
-      </c>
-      <c r="H101" t="s">
-        <v>44</v>
-      </c>
-      <c r="I101">
-        <v>4</v>
-      </c>
-      <c r="N101">
-        <v>160</v>
-      </c>
-      <c r="P101" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q101">
-        <f>1/2*(Q99+P99)</f>
-        <v>2.4049872667173497E-2</v>
-      </c>
-      <c r="R101">
-        <f t="shared" ref="R101:U101" si="9">1/2*(R99+Q99)</f>
-        <v>2.3456079195313586E-2</v>
-      </c>
-      <c r="S101">
-        <f t="shared" si="9"/>
-        <v>2.28769465365109E-2</v>
-      </c>
-      <c r="T101">
-        <f>1/2*(T99+S99)</f>
-        <v>2.2312112714001311E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B102" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C102" s="14">
-        <v>35.1</v>
-      </c>
-      <c r="G102">
-        <v>3</v>
-      </c>
-      <c r="H102" t="s">
-        <v>45</v>
-      </c>
-      <c r="I102">
-        <v>4</v>
-      </c>
-      <c r="N102">
-        <v>160</v>
-      </c>
-      <c r="P102" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q102">
-        <f>1/2*(R99+Q99)</f>
-        <v>2.3456079195313586E-2</v>
-      </c>
-      <c r="R102">
-        <f t="shared" ref="R102:U102" si="10">1/2*(S99+R99)</f>
-        <v>2.28769465365109E-2</v>
-      </c>
-      <c r="S102">
-        <f>1/2*(T99+S99)</f>
-        <v>2.2312112714001311E-2</v>
-      </c>
-      <c r="T102">
-        <f>1/2*(U99+T99)</f>
-        <v>2.1761224688258862E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B103" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C103" s="14">
-        <v>0.127</v>
-      </c>
-      <c r="P103" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q103">
-        <f>Q101+Q102+1/$F$101</f>
-        <v>0.33971171689075724</v>
-      </c>
-      <c r="R103">
-        <f t="shared" ref="R103:T103" si="11">R101+R102+1/$F$101</f>
-        <v>0.33853879076009463</v>
-      </c>
-      <c r="S103">
-        <f t="shared" si="11"/>
-        <v>0.33739482427878237</v>
-      </c>
-      <c r="T103">
-        <f>T101+T102+1/$F$101</f>
-        <v>0.33627910243053033</v>
-      </c>
-    </row>
-    <row r="104" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B104" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C104" s="14">
-        <v>4</v>
-      </c>
-      <c r="Q104">
-        <v>1</v>
-      </c>
-      <c r="R104">
-        <v>2</v>
-      </c>
-      <c r="S104">
-        <v>3</v>
-      </c>
-      <c r="T104">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B105" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C105" s="14">
-        <f>40*4</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="107" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="P107" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q107" s="11">
-        <v>1</v>
-      </c>
-      <c r="R107" s="11">
-        <v>2</v>
-      </c>
-      <c r="S107" s="11">
-        <v>3</v>
-      </c>
-      <c r="T107" s="20">
-        <v>4</v>
-      </c>
-      <c r="U107" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="P108" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q108" s="12">
-        <v>0</v>
-      </c>
-      <c r="R108" s="12">
-        <f>Q102/(Q103-Q101*Q108)</f>
-        <v>6.9047012596437682E-2</v>
-      </c>
-      <c r="S108" s="12">
-        <f t="shared" ref="S108:U108" si="12">R102/(R103-R101*R108)</f>
-        <v>6.7900390586166245E-2</v>
-      </c>
-      <c r="T108" s="12">
-        <f t="shared" si="12"/>
-        <v>6.6436442971900045E-2</v>
-      </c>
-      <c r="U108" s="12">
-        <f>T102/(T103-T101*T108)</f>
-        <v>6.4998312294111765E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="P109" s="11" t="s">
+      <c r="O138" s="26" t="n">
+        <v>0.667506297229219</v>
+      </c>
+      <c r="P138" s="26" t="n">
+        <v>0.828108008512154</v>
+      </c>
+      <c r="Q138" s="26" t="n">
+        <v>0.854974016689248</v>
+      </c>
+      <c r="R138" s="26" t="n">
+        <v>0.812936608035631</v>
+      </c>
+      <c r="S138" s="26" t="n">
+        <v>0.714255120145218</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M139" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="Q109" s="12">
-        <f>I99</f>
-        <v>4</v>
-      </c>
-      <c r="R109" s="12">
-        <f>(Q101*Q109+J99)/(Q103-Q101*Q108)</f>
-        <v>30.426385010419168</v>
-      </c>
-      <c r="S109" s="12">
-        <f>(R101*R109+K99)/(R103-R101*R108)</f>
-        <v>88.073585777822501</v>
-      </c>
-      <c r="T109" s="12">
-        <f>(S101*S109+L99)/(S103-S101*S108)</f>
-        <v>185.13155801880444</v>
-      </c>
-      <c r="U109" s="12">
-        <f>(T101*T109+M99)/(T103-T101*T108)</f>
-        <v>322.4961751970576</v>
-      </c>
-    </row>
-    <row r="110" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="P110" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q110">
-        <f t="shared" ref="Q110:S110" si="13">R108*R110+R109</f>
-        <v>37.479247654963267</v>
-      </c>
-      <c r="R110">
-        <f t="shared" si="13"/>
-        <v>102.14580442120355</v>
-      </c>
-      <c r="S110">
-        <f t="shared" si="13"/>
-        <v>207.24797783781923</v>
-      </c>
-      <c r="T110">
-        <f>U108*U110+U109</f>
-        <v>332.8959051641155</v>
-      </c>
-      <c r="U110">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="111" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="P111" s="11"/>
-      <c r="Q111" s="12"/>
-      <c r="R111" s="12"/>
-      <c r="S111" s="12"/>
-    </row>
-    <row r="112" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="P112" s="11"/>
-      <c r="Q112" s="12"/>
-      <c r="R112" s="12"/>
-      <c r="S112" s="12"/>
+      <c r="N139" s="26" t="n">
+        <v>10</v>
+      </c>
+      <c r="O139" s="26" t="n">
+        <f aca="false">(O125*N131+F129)/(O127-O125*N130)</f>
+        <v>3.32493702770781</v>
+      </c>
+      <c r="P139" s="26" t="n">
+        <f aca="false">(P125*O131+G129)/(P127-P125*O130)</f>
+        <v>1.58831752736592</v>
+      </c>
+      <c r="Q139" s="26" t="n">
+        <f aca="false">(Q125*P131+H129)/(Q127-Q125*P130)</f>
+        <v>1.16731810673018</v>
+      </c>
+      <c r="R139" s="26" t="n">
+        <f aca="false">(R125*Q131+I129)/(R127-R125*Q130)</f>
+        <v>1.26507240547223</v>
+      </c>
+      <c r="S139" s="26" t="n">
+        <f aca="false">(S125*R131+J129)/(S127-S125*R130)</f>
+        <v>1.65684856860866</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M140" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O140" s="22" t="n">
+        <f aca="false">P138*P140+P139</f>
+        <v>4.47829527373849</v>
+      </c>
+      <c r="P140" s="22" t="n">
+        <f aca="false">Q138*Q140+Q139</f>
+        <v>3.48985605339688</v>
+      </c>
+      <c r="Q140" s="22" t="n">
+        <f aca="false">R138*R140+R139</f>
+        <v>2.71650120510137</v>
+      </c>
+      <c r="R140" s="22" t="n">
+        <f aca="false">S138*S140+S139</f>
+        <v>1.7854144902348</v>
+      </c>
+      <c r="S140" s="0" t="n">
+        <v>0.18</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A24:T24"/>
     <mergeCell ref="A56:T56"/>
     <mergeCell ref="A89:T89"/>
+    <mergeCell ref="B118:U118"/>
   </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/mathematical physics/Book 1.xlsx
+++ b/mathematical physics/Book 1.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\university-labs\mathematical physics\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D261C35F-BD96-4DC3-8026-CF660213D0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -22,82 +38,82 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="75">
   <si>
-    <t xml:space="preserve">a=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{1=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2н</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3в</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5п}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\================================================================================================================================================================================================================================================================================================================================================</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T(x, 0)=</t>
+    <t>a=</t>
+  </si>
+  <si>
+    <t>b=</t>
+  </si>
+  <si>
+    <t>h=</t>
+  </si>
+  <si>
+    <t>k1</t>
+  </si>
+  <si>
+    <t>T1=</t>
+  </si>
+  <si>
+    <t>k2</t>
+  </si>
+  <si>
+    <t>T2=</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>T21</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>T22</t>
+  </si>
+  <si>
+    <t>T13</t>
+  </si>
+  <si>
+    <t>T23</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>{1=</t>
+  </si>
+  <si>
+    <t>2н</t>
+  </si>
+  <si>
+    <t>3в</t>
+  </si>
+  <si>
+    <t>4л</t>
+  </si>
+  <si>
+    <t>5п}</t>
+  </si>
+  <si>
+    <t>\================================================================================================================================================================================================================================================================================================================================================</t>
+  </si>
+  <si>
+    <t>LAB2</t>
+  </si>
+  <si>
+    <t>k =</t>
+  </si>
+  <si>
+    <t>T(x, 0)=</t>
   </si>
   <si>
     <t xml:space="preserve">s = </t>
   </si>
   <si>
-    <t xml:space="preserve">a^2=</t>
+    <t>a^2=</t>
   </si>
   <si>
     <t xml:space="preserve">l = </t>
@@ -106,160 +122,156 @@
     <t xml:space="preserve">h = </t>
   </si>
   <si>
-    <t xml:space="preserve">tau=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lambda =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sigma=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alpha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K(i)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a_1=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a_0=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x*=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1tau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gamma=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2tau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3tau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab #5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U_1(t)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U_0(x)=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a_0*exp(-m*x)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U_1(t)=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U_2(t)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U_2(t)=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a_0*exp(-m)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r(x)=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4*cos(pi*x)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U0(x)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N=5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H=0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tau=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t_1=3tau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A_0=10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f(x)=0</t>
+    <t>tau=</t>
+  </si>
+  <si>
+    <t>m =</t>
+  </si>
+  <si>
+    <t>p =</t>
+  </si>
+  <si>
+    <t>lambda =</t>
+  </si>
+  <si>
+    <t>c =</t>
+  </si>
+  <si>
+    <t>sigma=</t>
+  </si>
+  <si>
+    <t>c=</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>N=</t>
+  </si>
+  <si>
+    <t>K(i)</t>
+  </si>
+  <si>
+    <t>a_1=</t>
+  </si>
+  <si>
+    <t>a_0=</t>
+  </si>
+  <si>
+    <t>x*=</t>
+  </si>
+  <si>
+    <t>1tau</t>
+  </si>
+  <si>
+    <t>gamma=</t>
+  </si>
+  <si>
+    <t>2tau</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>3tau</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Lab #5</t>
+  </si>
+  <si>
+    <t>mu</t>
+  </si>
+  <si>
+    <t>U_1(t)</t>
+  </si>
+  <si>
+    <t>U_0(x)=</t>
+  </si>
+  <si>
+    <t>a_0*exp(-m*x)</t>
+  </si>
+  <si>
+    <t>r+</t>
+  </si>
+  <si>
+    <t>U_1(t)=</t>
+  </si>
+  <si>
+    <t>A_0</t>
+  </si>
+  <si>
+    <t>U_2(t)</t>
+  </si>
+  <si>
+    <t>r-</t>
+  </si>
+  <si>
+    <t>U_2(t)=</t>
+  </si>
+  <si>
+    <t>a_0*exp(-m)</t>
+  </si>
+  <si>
+    <t>m=</t>
+  </si>
+  <si>
+    <t>r(x)=</t>
+  </si>
+  <si>
+    <t>4*cos(pi*x)</t>
+  </si>
+  <si>
+    <t>U0(x)</t>
+  </si>
+  <si>
+    <t>L=1</t>
+  </si>
+  <si>
+    <t>N=5</t>
+  </si>
+  <si>
+    <t>H=0.2</t>
+  </si>
+  <si>
+    <t>Tau=1</t>
+  </si>
+  <si>
+    <t>t_1=3tau</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>A_0=10</t>
+  </si>
+  <si>
+    <t>f(x)=0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-    <numFmt numFmtId="166" formatCode="dd\-mmm"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00"/>
-    <numFmt numFmtId="168" formatCode="0.00"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd\-mmm"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,22 +280,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Aptos Narrow"/>
@@ -310,24 +307,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -363,14 +342,14 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -385,188 +364,91 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="29">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="5" borderId="2" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="5">
+    <cellStyle name="Excel Built-in Bad" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Excel Built-in Calculation" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Excel Built-in Good" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Excel Built-in Neutral" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Excel Built-in Calculation" xfId="20"/>
-    <cellStyle name="Excel Built-in Neutral" xfId="21"/>
-    <cellStyle name="Excel Built-in Good" xfId="22"/>
-    <cellStyle name="Excel Built-in Bad" xfId="23"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -625,15 +507,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -642,7 +542,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" lang="uk-UA" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr lang="uk-UA" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -650,7 +550,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" lang="uk-UA" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr lang="uk-UA" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -671,6 +571,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -678,21 +579,10 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"0"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>0</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="156082"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="28440">
+            <a:ln w="28440" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="156082"/>
               </a:solidFill>
@@ -703,18 +593,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Aptos Narrow"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -723,8 +621,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -735,52 +634,46 @@
             <c:numRef>
               <c:f>Sheet1!$H$34:$M$34</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.24</c:v>
+                  <c:v>10.240000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.96</c:v>
+                  <c:v>28.960000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>60.16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>103.84</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                  <c:v>103.84000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
                   <c:v>160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F5E9-47F6-8BA9-298DF7D12AD7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"0.06844"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.06844</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>0.06844</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="e97132"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="28440">
+            <a:ln w="28440" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="e97132"/>
+                <a:srgbClr val="E97132"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -789,18 +682,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Aptos Narrow"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -809,8 +710,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -821,30 +723,35 @@
             <c:numRef>
               <c:f>Sheet1!$H$35:$M$35</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.32</c:v>
+                  <c:v>12.320000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>31.04</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62.24</c:v>
+                  <c:v>62.239999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>105.92</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                  <c:v>105.92000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
                   <c:v>160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F5E9-47F6-8BA9-298DF7D12AD7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -855,18 +762,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.136889838556505</c:v>
+                  <c:v>0.136889839</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="196b24"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="28440">
+            <a:ln w="28440" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="196b24"/>
+                <a:srgbClr val="196B24"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -875,18 +779,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Aptos Narrow"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -895,8 +807,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -907,30 +820,35 @@
             <c:numRef>
               <c:f>Sheet1!$H$36:$M$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.0533333333333</c:v>
+                  <c:v>14.053333333333335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.12</c:v>
+                  <c:v>33.11999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64.32</c:v>
+                  <c:v>64.319999999999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>107.653333333333</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                  <c:v>107.65333333333334</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
                   <c:v>160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F5E9-47F6-8BA9-298DF7D12AD7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -941,18 +859,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.205334757834758</c:v>
+                  <c:v>0.205334758</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="0f9ed5"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="28440">
+            <a:ln w="28440" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="0f9ed5"/>
+                <a:srgbClr val="0F9ED5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -961,18 +876,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Aptos Narrow"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -981,8 +904,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -993,31 +917,44 @@
             <c:numRef>
               <c:f>Sheet1!$H$37:$M$37</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.5555555555556</c:v>
+                  <c:v>15.555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.1422222222222</c:v>
+                  <c:v>35.142222222222216</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66.3422222222222</c:v>
+                  <c:v>66.342222222222205</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>109.155555555556</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                  <c:v>109.15555555555557</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
                   <c:v>160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F5E9-47F6-8BA9-298DF7D12AD7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln w="0">
@@ -1025,7 +962,7 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:marker val="0"/>
+        <c:smooth val="0"/>
         <c:axId val="26723876"/>
         <c:axId val="87192848"/>
       </c:lineChart>
@@ -1043,7 +980,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1053,13 +990,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Aptos Narrow"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="87192848"/>
@@ -1080,7 +1018,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1100,13 +1038,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Aptos Narrow"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="26723876"/>
@@ -1134,37 +1073,46 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+            <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="Aptos Narrow"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1173,7 +1121,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" lang="uk-UA" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr lang="uk-UA" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1181,7 +1129,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" lang="uk-UA" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr lang="uk-UA" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1202,6 +1150,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1220,10 +1169,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="156082"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="28440">
+            <a:ln w="28440" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="156082"/>
               </a:solidFill>
@@ -1234,18 +1180,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Aptos Narrow"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1254,8 +1208,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1284,6 +1239,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4DB4-4D93-A118-6369658E07C0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1300,12 +1260,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="e97132"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="28440">
+            <a:ln w="28440" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="e97132"/>
+                <a:srgbClr val="E97132"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1314,18 +1271,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Aptos Narrow"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1334,8 +1299,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1349,21 +1315,26 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10.24</c:v>
+                  <c:v>10.240000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.32</c:v>
+                  <c:v>12.320000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.0533333333333</c:v>
+                  <c:v>14.053333333333335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.5555555555556</c:v>
+                  <c:v>15.555555555555554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4DB4-4D93-A118-6369658E07C0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1380,12 +1351,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="196b24"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="28440">
+            <a:ln w="28440" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="196b24"/>
+                <a:srgbClr val="196B24"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1394,18 +1362,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Aptos Narrow"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1414,8 +1390,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1429,21 +1406,26 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>28.96</c:v>
+                  <c:v>28.960000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>31.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.12</c:v>
+                  <c:v>33.11999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.1422222222222</c:v>
+                  <c:v>35.142222222222216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4DB4-4D93-A118-6369658E07C0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1460,12 +1442,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="0f9ed5"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="28440">
+            <a:ln w="28440" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="0f9ed5"/>
+                <a:srgbClr val="0F9ED5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1474,18 +1453,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Aptos Narrow"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1494,8 +1481,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1512,18 +1500,23 @@
                   <c:v>60.16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.24</c:v>
+                  <c:v>62.239999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.32</c:v>
+                  <c:v>64.319999999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66.3422222222222</c:v>
+                  <c:v>66.342222222222205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4DB4-4D93-A118-6369658E07C0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1540,12 +1533,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="a02b93"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="28440">
+            <a:ln w="28440" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="a02b93"/>
+                <a:srgbClr val="A02B93"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1554,18 +1544,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Aptos Narrow"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1574,8 +1572,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1589,21 +1588,26 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>103.84</c:v>
+                  <c:v>103.84000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105.92</c:v>
+                  <c:v>105.92000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>107.653333333333</c:v>
+                  <c:v>107.65333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>109.155555555556</c:v>
+                  <c:v>109.15555555555557</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4DB4-4D93-A118-6369658E07C0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1620,12 +1624,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4ea72e"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="28440">
+            <a:ln w="28440" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="4ea72e"/>
+                <a:srgbClr val="4EA72E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1634,18 +1635,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Aptos Narrow"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1654,8 +1663,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1684,7 +1694,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4DB4-4D93-A118-6369658E07C0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln w="0">
@@ -1692,7 +1715,7 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:marker val="0"/>
+        <c:smooth val="0"/>
         <c:axId val="40623820"/>
         <c:axId val="75075550"/>
       </c:lineChart>
@@ -1710,7 +1733,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1720,13 +1743,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Aptos Narrow"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="75075550"/>
@@ -1747,7 +1771,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1767,13 +1791,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Aptos Narrow"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="40623820"/>
@@ -1801,40 +1826,50 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+            <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="Aptos Narrow"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1842,9 +1877,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="004586"/>
@@ -1856,18 +1888,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1876,8 +1916,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1906,17 +1947,19 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-705A-4A96-A976-C930B20D9976}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1925,18 +1968,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1945,8 +1996,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1960,7 +2012,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10.24</c:v>
+                  <c:v>10.240000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>12.06</c:v>
@@ -1975,17 +2027,19 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-705A-4A96-A976-C930B20D9976}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="FFD320"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1994,18 +2048,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -2014,8 +2076,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2029,32 +2092,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>28.96</c:v>
+                  <c:v>28.960000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.98</c:v>
+                  <c:v>32.979999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.88</c:v>
+                  <c:v>34.880000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-705A-4A96-A976-C930B20D9976}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="579D1C"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2063,18 +2128,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -2083,8 +2156,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2104,7 +2178,7 @@
                   <c:v>62.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.18</c:v>
+                  <c:v>64.180000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>66.08</c:v>
@@ -2113,17 +2187,19 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-705A-4A96-A976-C930B20D9976}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7e0021"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="7E0021"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2132,18 +2208,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -2152,8 +2236,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2167,7 +2252,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>103.84</c:v>
+                  <c:v>103.84000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>105.66</c:v>
@@ -2182,17 +2267,19 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-705A-4A96-A976-C930B20D9976}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="83caff"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="83CAFF"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2201,18 +2288,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -2221,8 +2316,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2251,7 +2347,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-705A-4A96-A976-C930B20D9976}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln w="0">
@@ -2259,7 +2368,7 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:marker val="0"/>
+        <c:smooth val="0"/>
         <c:axId val="53483356"/>
         <c:axId val="28312818"/>
       </c:lineChart>
@@ -2277,7 +2386,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -2286,13 +2395,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="28312818"/>
@@ -2313,7 +2423,7 @@
           <c:spPr>
             <a:ln w="0">
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -2325,7 +2435,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -2334,13 +2444,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="53483356"/>
@@ -2351,7 +2462,7 @@
         <a:noFill/>
         <a:ln w="0">
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -2370,37 +2481,47 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+            <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -2408,9 +2529,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="004586"/>
@@ -2422,18 +2540,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -2442,8 +2568,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2460,16 +2587,16 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.24</c:v>
+                  <c:v>10.240000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.96</c:v>
+                  <c:v>28.960000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>60.16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>103.84</c:v>
+                  <c:v>103.84000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>160</c:v>
@@ -2478,17 +2605,19 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7093-4C2A-943B-99D280921849}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2497,18 +2626,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -2517,8 +2654,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2553,17 +2691,19 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7093-4C2A-943B-99D280921849}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="FFD320"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2572,18 +2712,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -2592,8 +2740,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2613,10 +2762,10 @@
                   <c:v>13.67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.98</c:v>
+                  <c:v>32.979999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64.18</c:v>
+                  <c:v>64.180000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>107.27</c:v>
@@ -2628,17 +2777,19 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7093-4C2A-943B-99D280921849}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="579D1C"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2647,18 +2798,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -2667,8 +2826,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2688,7 +2848,7 @@
                   <c:v>15.11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.88</c:v>
+                  <c:v>34.880000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>66.08</c:v>
@@ -2703,7 +2863,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7093-4C2A-943B-99D280921849}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln w="0">
@@ -2711,7 +2884,7 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:marker val="0"/>
+        <c:smooth val="0"/>
         <c:axId val="61881727"/>
         <c:axId val="41118470"/>
       </c:lineChart>
@@ -2729,7 +2902,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -2738,13 +2911,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="41118470"/>
@@ -2765,7 +2939,7 @@
           <c:spPr>
             <a:ln w="0">
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -2777,7 +2951,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -2786,13 +2960,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="61881727"/>
@@ -2803,7 +2978,7 @@
         <a:noFill/>
         <a:ln w="0">
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -2822,32 +2997,39 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+            <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2861,14 +3043,20 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>86400</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 3"/>
+        <xdr:cNvPr id="2" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="591120" y="7440840"/>
-        <a:ext cx="5822280" cy="2742120"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2891,14 +3079,20 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 4"/>
+        <xdr:cNvPr id="3" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7054200" y="7434360"/>
-        <a:ext cx="5169960" cy="2742120"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2921,14 +3115,20 @@
       <xdr:row>85</xdr:row>
       <xdr:rowOff>6480</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4683960" y="12961080"/>
-        <a:ext cx="5754960" cy="3237840"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2951,14 +3151,20 @@
       <xdr:row>84</xdr:row>
       <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10825920" y="12953880"/>
-        <a:ext cx="5742360" cy="3237840"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2983,11 +3189,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 6" descr=""/>
+        <xdr:cNvPr id="6" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3014,17 +3226,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>883800</xdr:colOff>
+      <xdr:colOff>740925</xdr:colOff>
       <xdr:row>113</xdr:row>
       <xdr:rowOff>160920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 7" descr=""/>
+        <xdr:cNvPr id="7" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3046,54 +3264,54 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0e2841"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e8e8e8"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="e97132"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196b24"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0f9ed5"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="a02b93"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4ea72e"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607d"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -3125,7 +3343,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -3149,7 +3367,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -3209,1367 +3427,1366 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U140"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C113" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L123" activeCellId="0" sqref="L123"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O131" sqref="O131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.15"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2">
         <v>3</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="2">
         <v>210</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="2">
         <v>210</v>
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="n">
-        <f aca="false">$L$3*3+$L$4</f>
+      <c r="F3" s="2">
+        <f>$L$3*3+$L$4</f>
         <v>159.5</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="3">
         <v>13</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="3">
         <v>23</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="2">
         <v>159.5</v>
       </c>
-      <c r="L3" s="1" t="n">
-        <f aca="false">($G$2-$G$6)/4</f>
+      <c r="L3">
+        <f>($G$2-$G$6)/4</f>
         <v>50.5</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4">
         <v>8</v>
       </c>
-      <c r="F4" s="2" t="n">
-        <f aca="false">$L$3*2+$L$4</f>
+      <c r="F4" s="2">
+        <f>$L$3*2+$L$4</f>
         <v>109</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="3">
         <v>12</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="3">
         <v>22</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="2">
         <v>109</v>
       </c>
-      <c r="L4" s="1" t="n">
-        <f aca="false">C4</f>
+      <c r="L4">
+        <f>C4</f>
         <v>8</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <f aca="false">7*30</f>
+      <c r="C5">
+        <f>7*30</f>
         <v>210</v>
       </c>
-      <c r="F5" s="2" t="n">
-        <f aca="false">$L$3*1+$L$4</f>
+      <c r="F5" s="2">
+        <f>$L$3*1+$L$4</f>
         <v>58.5</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="3">
         <v>11</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="3">
         <v>21</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="2">
         <v>58.5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F6" s="2"/>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="2">
         <v>8</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="2">
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1" t="n">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <f aca="false">($F$5+$G$2+$I$5+$G$6)/4</f>
+      <c r="C9">
+        <f>($F$5+$G$2+$I$5+$G$6)/4</f>
         <v>83.75</v>
       </c>
-      <c r="D9" s="1" t="n">
-        <f aca="false">($F$5+$G$2+$I$5+$G$6)/4</f>
+      <c r="D9">
+        <f>($F$5+$G$2+$I$5+$G$6)/4</f>
         <v>83.75</v>
       </c>
-      <c r="E9" s="1" t="n">
-        <f aca="false">($G$6+$F$4+$G$2+$I$4)/4</f>
+      <c r="E9">
+        <f>($G$6+$F$4+$G$2+$I$4)/4</f>
         <v>109</v>
       </c>
-      <c r="F9" s="1" t="n">
-        <f aca="false">($G$6+$F$4+$G$2+$I$4)/4</f>
+      <c r="F9">
+        <f>($G$6+$F$4+$G$2+$I$4)/4</f>
         <v>109</v>
       </c>
-      <c r="G9" s="1" t="n">
-        <f aca="false">($G$6+$F$3+$G$2+$I$3)/4</f>
+      <c r="G9">
+        <f>($G$6+$F$3+$G$2+$I$3)/4</f>
         <v>134.25</v>
       </c>
-      <c r="H9" s="1" t="n">
-        <f aca="false">($G$6+$F$3+$G$2+$I$3)/4</f>
+      <c r="H9">
+        <f>($G$6+$F$3+$G$2+$I$3)/4</f>
         <v>134.25</v>
       </c>
-      <c r="J9" s="1" t="n">
-        <f aca="false">C9-C10</f>
+      <c r="J9">
+        <f t="shared" ref="J9:M13" si="0">C9-C10</f>
         <v>18.9375</v>
       </c>
-      <c r="K9" s="1" t="n">
-        <f aca="false">D9-D10</f>
+      <c r="K9">
+        <f t="shared" si="0"/>
         <v>18.9375</v>
       </c>
-      <c r="L9" s="1" t="n">
-        <f aca="false">E9-E10</f>
+      <c r="L9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M9" s="1" t="n">
-        <f aca="false">F9-F10</f>
+      <c r="M9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N9" s="1" t="n">
-        <f aca="false">(G9-G10)*-1</f>
+      <c r="N9">
+        <f t="shared" ref="N9:O13" si="1">(G9-G10)*-1</f>
         <v>18.9375</v>
       </c>
-      <c r="O9" s="1" t="n">
-        <f aca="false">(H9-H10)*-1</f>
+      <c r="O9">
+        <f t="shared" si="1"/>
         <v>18.9375</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1" t="n">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <f aca="false">($F$5+$G$6+E9+D9)/4</f>
+      <c r="C10">
+        <f>($F$5+$G$6+E9+D9)/4</f>
         <v>64.8125</v>
       </c>
-      <c r="D10" s="1" t="n">
-        <f aca="false">($F$5+$G$6+C9+F9)/4</f>
+      <c r="D10">
+        <f>($F$5+$G$6+C9+F9)/4</f>
         <v>64.8125</v>
       </c>
-      <c r="E10" s="1" t="n">
-        <f aca="false">($F$4+C9+G9+F9)/4</f>
+      <c r="E10">
+        <f>($F$4+C9+G9+F9)/4</f>
         <v>109</v>
       </c>
-      <c r="F10" s="1" t="n">
-        <f aca="false">($F$4+D9+H9+E9)/4</f>
+      <c r="F10">
+        <f>($F$4+D9+H9+E9)/4</f>
         <v>109</v>
       </c>
-      <c r="G10" s="1" t="n">
-        <f aca="false">($G$2+$F$3+H9+E9)/4</f>
+      <c r="G10">
+        <f>($G$2+$F$3+H9+E9)/4</f>
         <v>153.1875</v>
       </c>
-      <c r="H10" s="1" t="n">
-        <f aca="false">($G$2+$F$3+H9+F9)/4</f>
+      <c r="H10">
+        <f>($G$2+$F$3+H9+F9)/4</f>
         <v>153.1875</v>
       </c>
-      <c r="J10" s="1" t="n">
-        <f aca="false">C10-C11</f>
+      <c r="J10">
+        <f t="shared" si="0"/>
         <v>4.734375</v>
       </c>
-      <c r="K10" s="1" t="n">
-        <f aca="false">D10-D11</f>
+      <c r="K10">
+        <f t="shared" si="0"/>
         <v>4.734375</v>
       </c>
-      <c r="L10" s="1" t="n">
-        <f aca="false">E10-E11</f>
+      <c r="L10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M10" s="1" t="n">
-        <f aca="false">F10-F11</f>
+      <c r="M10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N10" s="1" t="n">
-        <f aca="false">(G10-G11)*-1</f>
+      <c r="N10">
+        <f t="shared" si="1"/>
         <v>4.734375</v>
       </c>
-      <c r="O10" s="1" t="n">
-        <f aca="false">(H10-H11)*-1</f>
+      <c r="O10">
+        <f t="shared" si="1"/>
         <v>4.734375</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1" t="n">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <f aca="false">($F$5+$G$6+E10+D10)/4</f>
+      <c r="C11">
+        <f>($F$5+$G$6+E10+D10)/4</f>
         <v>60.078125</v>
       </c>
-      <c r="D11" s="1" t="n">
-        <f aca="false">($F$5+$G$6+C10+F10)/4</f>
+      <c r="D11">
+        <f>($F$5+$G$6+C10+F10)/4</f>
         <v>60.078125</v>
       </c>
-      <c r="E11" s="1" t="n">
-        <f aca="false">($F$4+C10+G10+F10)/4</f>
+      <c r="E11">
+        <f>($F$4+C10+G10+F10)/4</f>
         <v>109</v>
       </c>
-      <c r="F11" s="1" t="n">
-        <f aca="false">($F$4+D10+H10+E10)/4</f>
+      <c r="F11">
+        <f>($F$4+D10+H10+E10)/4</f>
         <v>109</v>
       </c>
-      <c r="G11" s="1" t="n">
-        <f aca="false">($G$2+$F$3+H10+E10)/4</f>
+      <c r="G11">
+        <f>($G$2+$F$3+H10+E10)/4</f>
         <v>157.921875</v>
       </c>
-      <c r="H11" s="1" t="n">
-        <f aca="false">($G$2+$F$3+H10+F10)/4</f>
+      <c r="H11">
+        <f>($G$2+$F$3+H10+F10)/4</f>
         <v>157.921875</v>
       </c>
-      <c r="J11" s="1" t="n">
-        <f aca="false">C11-C12</f>
+      <c r="J11">
+        <f t="shared" si="0"/>
         <v>1.18359375</v>
       </c>
-      <c r="K11" s="1" t="n">
-        <f aca="false">D11-D12</f>
+      <c r="K11">
+        <f t="shared" si="0"/>
         <v>1.18359375</v>
       </c>
-      <c r="L11" s="1" t="n">
-        <f aca="false">E11-E12</f>
+      <c r="L11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M11" s="1" t="n">
-        <f aca="false">F11-F12</f>
+      <c r="M11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N11" s="1" t="n">
-        <f aca="false">(G11-G12)*-1</f>
+      <c r="N11">
+        <f t="shared" si="1"/>
         <v>1.18359375</v>
       </c>
-      <c r="O11" s="1" t="n">
-        <f aca="false">(H11-H12)*-1</f>
+      <c r="O11">
+        <f t="shared" si="1"/>
         <v>1.18359375</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="n">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <f aca="false">($F$5+$G$6+E11+D11)/4</f>
+      <c r="C12">
+        <f>($F$5+$G$6+E11+D11)/4</f>
         <v>58.89453125</v>
       </c>
-      <c r="D12" s="1" t="n">
-        <f aca="false">($F$5+$G$6+C11+F11)/4</f>
+      <c r="D12">
+        <f>($F$5+$G$6+C11+F11)/4</f>
         <v>58.89453125</v>
       </c>
-      <c r="E12" s="1" t="n">
-        <f aca="false">($F$4+C11+G11+F11)/4</f>
+      <c r="E12">
+        <f>($F$4+C11+G11+F11)/4</f>
         <v>109</v>
       </c>
-      <c r="F12" s="1" t="n">
-        <f aca="false">($F$4+D11+H11+E11)/4</f>
+      <c r="F12">
+        <f>($F$4+D11+H11+E11)/4</f>
         <v>109</v>
       </c>
-      <c r="G12" s="1" t="n">
-        <f aca="false">($G$2+$F$3+H11+E11)/4</f>
+      <c r="G12">
+        <f>($G$2+$F$3+H11+E11)/4</f>
         <v>159.10546875</v>
       </c>
-      <c r="H12" s="1" t="n">
-        <f aca="false">($G$2+$F$3+H11+F11)/4</f>
+      <c r="H12">
+        <f>($G$2+$F$3+H11+F11)/4</f>
         <v>159.10546875</v>
       </c>
-      <c r="J12" s="1" t="n">
-        <f aca="false">C12-C13</f>
+      <c r="J12">
+        <f t="shared" si="0"/>
         <v>0.2958984375</v>
       </c>
-      <c r="K12" s="1" t="n">
-        <f aca="false">D12-D13</f>
+      <c r="K12">
+        <f t="shared" si="0"/>
         <v>0.2958984375</v>
       </c>
-      <c r="L12" s="1" t="n">
-        <f aca="false">E12-E13</f>
+      <c r="L12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M12" s="1" t="n">
-        <f aca="false">F12-F13</f>
+      <c r="M12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N12" s="1" t="n">
-        <f aca="false">(G12-G13)*-1</f>
+      <c r="N12">
+        <f t="shared" si="1"/>
         <v>0.2958984375</v>
       </c>
-      <c r="O12" s="1" t="n">
-        <f aca="false">(H12-H13)*-1</f>
+      <c r="O12">
+        <f t="shared" si="1"/>
         <v>0.2958984375</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="4" t="n">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
         <v>4</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <f aca="false">($F$5+$G$6+E12+D12)/4</f>
+      <c r="C13">
+        <f>($F$5+$G$6+E12+D12)/4</f>
         <v>58.5986328125</v>
       </c>
-      <c r="D13" s="1" t="n">
-        <f aca="false">($F$5+$G$6+C12+F12)/4</f>
+      <c r="D13">
+        <f>($F$5+$G$6+C12+F12)/4</f>
         <v>58.5986328125</v>
       </c>
-      <c r="E13" s="1" t="n">
-        <f aca="false">($F$4+C12+G12+F12)/4</f>
+      <c r="E13">
+        <f>($F$4+C12+G12+F12)/4</f>
         <v>109</v>
       </c>
-      <c r="F13" s="1" t="n">
-        <f aca="false">($F$4+D12+H12+E12)/4</f>
+      <c r="F13">
+        <f>($F$4+D12+H12+E12)/4</f>
         <v>109</v>
       </c>
-      <c r="G13" s="1" t="n">
-        <f aca="false">($G$2+$F$3+H12+E12)/4</f>
+      <c r="G13">
+        <f>($G$2+$F$3+H12+E12)/4</f>
         <v>159.4013671875</v>
       </c>
-      <c r="H13" s="1" t="n">
-        <f aca="false">($G$2+$F$3+H12+F12)/4</f>
+      <c r="H13">
+        <f>($G$2+$F$3+H12+F12)/4</f>
         <v>159.4013671875</v>
       </c>
-      <c r="J13" s="1" t="n">
-        <f aca="false">C13-C14</f>
-        <v>0.073974609375</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <f aca="false">D13-D14</f>
-        <v>0.073974609375</v>
-      </c>
-      <c r="L13" s="1" t="n">
-        <f aca="false">E13-E14</f>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>7.3974609375E-2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>7.3974609375E-2</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="1" t="n">
-        <f aca="false">F13-F14</f>
+      <c r="M13">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N13" s="4" t="n">
-        <f aca="false">(G13-G14)*-1</f>
-        <v>0.073974609375</v>
-      </c>
-      <c r="O13" s="4" t="n">
-        <f aca="false">(H13-H14)*-1</f>
-        <v>0.073974609375</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="4" t="n">
+      <c r="N13" s="4">
+        <f t="shared" si="1"/>
+        <v>7.3974609375E-2</v>
+      </c>
+      <c r="O13" s="4">
+        <f t="shared" si="1"/>
+        <v>7.3974609375E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
         <v>5</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <f aca="false">($F$5+$G$6+E13+D13)/4</f>
+      <c r="C14">
+        <f>($F$5+$G$6+E13+D13)/4</f>
         <v>58.524658203125</v>
       </c>
-      <c r="D14" s="1" t="n">
-        <f aca="false">($F$5+$G$6+C13+F13)/4</f>
+      <c r="D14">
+        <f>($F$5+$G$6+C13+F13)/4</f>
         <v>58.524658203125</v>
       </c>
-      <c r="E14" s="1" t="n">
-        <f aca="false">($F$4+C13+G13+F13)/4</f>
+      <c r="E14">
+        <f>($F$4+C13+G13+F13)/4</f>
         <v>109</v>
       </c>
-      <c r="F14" s="1" t="n">
-        <f aca="false">($F$4+D13+H13+E13)/4</f>
+      <c r="F14">
+        <f>($F$4+D13+H13+E13)/4</f>
         <v>109</v>
       </c>
-      <c r="G14" s="1" t="n">
-        <f aca="false">($G$2+$F$3+H13+E13)/4</f>
+      <c r="G14">
+        <f>($G$2+$F$3+H13+E13)/4</f>
         <v>159.475341796875</v>
       </c>
-      <c r="H14" s="1" t="n">
-        <f aca="false">($G$2+$F$3+H13+F13)/4</f>
+      <c r="H14">
+        <f>($G$2+$F$3+H13+F13)/4</f>
         <v>159.475341796875</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H16" s="1" t="s">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C17" s="5"/>
-      <c r="D17" s="5" t="n">
+      <c r="D17" s="5">
         <v>210</v>
       </c>
-      <c r="E17" s="5" t="n">
+      <c r="E17" s="5">
         <v>210</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="H17" s="1" t="s">
+      <c r="H17" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="6" t="n">
-        <f aca="false">$L$3*4+$L$4</f>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C18" s="6">
+        <f>$L$3*4+$L$4</f>
         <v>210</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="6" t="n">
-        <f aca="false">$L$3*4+$L$4</f>
+      <c r="F18" s="6">
+        <f>$L$3*4+$L$4</f>
         <v>210</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="5" t="n">
-        <f aca="false">$L$3*3+$L$4</f>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C19" s="5">
+        <f>$L$3*3+$L$4</f>
         <v>159.5</v>
       </c>
-      <c r="D19" s="7" t="n">
+      <c r="D19" s="7">
         <v>13</v>
       </c>
-      <c r="E19" s="7" t="n">
+      <c r="E19" s="7">
         <v>23</v>
       </c>
-      <c r="F19" s="5" t="n">
+      <c r="F19" s="5">
         <v>159.5</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="5" t="n">
-        <f aca="false">$L$3*2+$L$4</f>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C20" s="5">
+        <f>$L$3*2+$L$4</f>
         <v>109</v>
       </c>
-      <c r="D20" s="7" t="n">
+      <c r="D20" s="7">
         <v>12</v>
       </c>
-      <c r="E20" s="7" t="n">
+      <c r="E20" s="7">
         <v>22</v>
       </c>
-      <c r="F20" s="5" t="n">
+      <c r="F20" s="5">
         <v>109</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="5" t="n">
-        <f aca="false">$L$3*1+$L$4</f>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C21" s="5">
+        <f>$L$3*1+$L$4</f>
         <v>58.5</v>
       </c>
-      <c r="D21" s="7" t="n">
+      <c r="D21" s="7">
         <v>11</v>
       </c>
-      <c r="E21" s="7" t="n">
+      <c r="E21" s="7">
         <v>21</v>
       </c>
-      <c r="F21" s="5" t="n">
+      <c r="F21" s="5">
         <v>58.5</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C22" s="5"/>
-      <c r="D22" s="5" t="n">
+      <c r="D22" s="5">
         <v>8</v>
       </c>
-      <c r="E22" s="5" t="n">
+      <c r="E22" s="5">
         <v>8</v>
       </c>
       <c r="F22" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="1" t="n">
-        <f aca="false">F30*F32/C32^2</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="H26" s="1" t="n">
-        <f aca="false">(1-2*$F$26)*I34+$F$26*(H34+J34)</f>
-        <v>12.32</v>
-      </c>
-      <c r="I26" s="1" t="n">
-        <f aca="false">(1-2*$F$26)*J34+$F$26*(I34+K34)</f>
+      <c r="F26">
+        <f>F30*F32/C32^2</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ref="H26:K28" si="2">(1-2*$F$26)*I34+$F$26*(H34+J34)</f>
+        <v>12.320000000000004</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>31.040000000000006</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>62.24</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>105.92000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>14.053333333333336</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>33.120000000000005</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>64.319999999999993</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>107.65333333333336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>15.555555555555557</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>35.142222222222216</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>66.342222222222219</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>109.15555555555557</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29">
+        <f>(C38-C37)/C31^2*1^2+C37</f>
+        <v>628</v>
+      </c>
+      <c r="N29" s="8"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30">
+        <f>C35/(C36*C34)</f>
+        <v>2.4350480419022512E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32">
+        <v>0.1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32">
+        <f>1/6*C32^2/F30</f>
+        <v>6.8444919278252622E-2</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>4</v>
+      </c>
+      <c r="M32">
+        <v>5</v>
+      </c>
+      <c r="O32">
+        <v>10.24</v>
+      </c>
+      <c r="P32">
+        <v>28.96</v>
+      </c>
+      <c r="Q32">
+        <v>60.16</v>
+      </c>
+      <c r="R32">
+        <v>103.84</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="J33" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="L33" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="M33">
+        <v>0.5</v>
+      </c>
+      <c r="O33">
+        <v>12.06</v>
+      </c>
+      <c r="P33">
+        <v>31</v>
+      </c>
+      <c r="Q33">
+        <v>62.2</v>
+      </c>
+      <c r="R33">
+        <v>105.66</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <v>11350</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f>$C$37</f>
+        <v>4</v>
+      </c>
+      <c r="I34" s="9">
+        <f>($C$38-$C$37)/$C$31^2*I33^2+$C$37</f>
+        <v>10.240000000000002</v>
+      </c>
+      <c r="J34" s="9">
+        <f>($C$38-$C$37)/$C$31^2*J33^2+$C$37</f>
+        <v>28.960000000000004</v>
+      </c>
+      <c r="K34" s="9">
+        <f>($C$38-$C$37)/$C$31^2*K33^2+$C$37</f>
+        <v>60.16</v>
+      </c>
+      <c r="L34" s="9">
+        <f>($C$38-$C$37)/$C$31^2*L33^2+$C$37</f>
+        <v>103.84000000000002</v>
+      </c>
+      <c r="M34">
+        <f>$C$38</f>
+        <v>160</v>
+      </c>
+      <c r="O34">
+        <v>13.67</v>
+      </c>
+      <c r="P34">
+        <v>32.979999999999997</v>
+      </c>
+      <c r="Q34">
+        <v>64.180000000000007</v>
+      </c>
+      <c r="R34">
+        <v>107.27</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35">
+        <v>35.1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <f>F35*$F$32</f>
+        <v>6.8444919278252622E-2</v>
+      </c>
+      <c r="H35">
+        <f>$C$37</f>
+        <v>4</v>
+      </c>
+      <c r="I35" s="9">
+        <f t="shared" ref="I35:L37" si="3">1/6*(H34+4*I34+J34)</f>
+        <v>12.320000000000002</v>
+      </c>
+      <c r="J35" s="9">
+        <f t="shared" si="3"/>
         <v>31.04</v>
       </c>
-      <c r="J26" s="1" t="n">
-        <f aca="false">(1-2*$F$26)*K34+$F$26*(J34+L34)</f>
-        <v>62.24</v>
-      </c>
-      <c r="K26" s="1" t="n">
-        <f aca="false">(1-2*$F$26)*L34+$F$26*(K34+M34)</f>
-        <v>105.92</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H27" s="1" t="n">
-        <f aca="false">(1-2*$F$26)*I35+$F$26*(H35+J35)</f>
-        <v>14.0533333333333</v>
-      </c>
-      <c r="I27" s="1" t="n">
-        <f aca="false">(1-2*$F$26)*J35+$F$26*(I35+K35)</f>
-        <v>33.12</v>
-      </c>
-      <c r="J27" s="1" t="n">
-        <f aca="false">(1-2*$F$26)*K35+$F$26*(J35+L35)</f>
-        <v>64.32</v>
-      </c>
-      <c r="K27" s="1" t="n">
-        <f aca="false">(1-2*$F$26)*L35+$F$26*(K35+M35)</f>
-        <v>107.653333333333</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H28" s="1" t="n">
-        <f aca="false">(1-2*$F$26)*I36+$F$26*(H36+J36)</f>
-        <v>15.5555555555555</v>
-      </c>
-      <c r="I28" s="1" t="n">
-        <f aca="false">(1-2*$F$26)*J36+$F$26*(I36+K36)</f>
-        <v>35.1422222222222</v>
-      </c>
-      <c r="J28" s="1" t="n">
-        <f aca="false">(1-2*$F$26)*K36+$F$26*(J36+L36)</f>
-        <v>66.3422222222222</v>
-      </c>
-      <c r="K28" s="1" t="n">
-        <f aca="false">(1-2*$F$26)*L36+$F$26*(K36+M36)</f>
-        <v>109.155555555555</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="1" t="s">
+      <c r="K35" s="9">
+        <f t="shared" si="3"/>
+        <v>62.239999999999995</v>
+      </c>
+      <c r="L35" s="9">
+        <f t="shared" si="3"/>
+        <v>105.92000000000002</v>
+      </c>
+      <c r="M35">
+        <f>$C$38</f>
+        <v>160</v>
+      </c>
+      <c r="O35">
+        <v>15.11</v>
+      </c>
+      <c r="P35">
+        <v>34.880000000000003</v>
+      </c>
+      <c r="Q35">
+        <v>66.08</v>
+      </c>
+      <c r="R35">
+        <v>108.71</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36">
+        <v>0.127</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <f>F36*$F$32</f>
+        <v>0.13688983855650524</v>
+      </c>
+      <c r="H36">
+        <f>$C$37</f>
+        <v>4</v>
+      </c>
+      <c r="I36" s="9">
+        <f t="shared" si="3"/>
+        <v>14.053333333333335</v>
+      </c>
+      <c r="J36" s="9">
+        <f t="shared" si="3"/>
+        <v>33.11999999999999</v>
+      </c>
+      <c r="K36" s="9">
+        <f t="shared" si="3"/>
+        <v>64.319999999999993</v>
+      </c>
+      <c r="L36" s="9">
+        <f t="shared" si="3"/>
+        <v>107.65333333333334</v>
+      </c>
+      <c r="M36">
+        <f>$C$38</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <f>F37*$F$32</f>
+        <v>0.20533475783475785</v>
+      </c>
+      <c r="H37">
+        <f>$C$37</f>
+        <v>4</v>
+      </c>
+      <c r="I37" s="9">
+        <f t="shared" si="3"/>
+        <v>15.555555555555554</v>
+      </c>
+      <c r="J37" s="9">
+        <f t="shared" si="3"/>
+        <v>35.142222222222216</v>
+      </c>
+      <c r="K37" s="9">
+        <f t="shared" si="3"/>
+        <v>66.342222222222205</v>
+      </c>
+      <c r="L37" s="9">
+        <f t="shared" si="3"/>
+        <v>109.15555555555557</v>
+      </c>
+      <c r="M37">
+        <f>$C$38</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <f>40*4</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="C58">
         <v>4</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="1" t="n">
-        <f aca="false">(C38-C37)/C31^2*1^2+C37</f>
-        <v>628</v>
-      </c>
-      <c r="N29" s="9"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="1" t="s">
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="1" t="n">
+      <c r="C59">
         <v>1</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="1" t="n">
-        <f aca="false">C35/(C36*C34)</f>
-        <v>0.0243504804190225</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="1" t="s">
+      <c r="D59" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" s="11">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="1" t="n">
+      <c r="C60">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="1" t="s">
+      <c r="D60" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="11">
+        <f>E59</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="C61">
         <v>0.1</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="1" t="n">
-        <f aca="false">1/6*C32^2/F30</f>
-        <v>0.0684449192782527</v>
-      </c>
-      <c r="H32" s="1" t="n">
+      <c r="D61" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" s="11">
+        <f>E60</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12">
         <v>0</v>
       </c>
-      <c r="I32" s="1" t="n">
+      <c r="I61" s="12">
         <v>1</v>
       </c>
-      <c r="J32" s="1" t="n">
+      <c r="J61" s="12">
         <v>2</v>
       </c>
-      <c r="K32" s="1" t="n">
+      <c r="K61" s="12">
         <v>3</v>
       </c>
-      <c r="L32" s="1" t="n">
+      <c r="L61" s="12">
         <v>4</v>
       </c>
-      <c r="M32" s="1" t="n">
+      <c r="M61" s="12">
         <v>5</v>
       </c>
-      <c r="O32" s="1" t="n">
-        <v>10.24</v>
-      </c>
-      <c r="P32" s="1" t="n">
-        <v>28.96</v>
-      </c>
-      <c r="Q32" s="1" t="n">
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E62" s="11">
+        <f>1+2*E61</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12">
+        <v>0</v>
+      </c>
+      <c r="I62" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="J62" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="K62" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="L62" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="M62" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63">
+        <v>11350</v>
+      </c>
+      <c r="F63" s="12">
+        <v>0</v>
+      </c>
+      <c r="G63" s="12">
+        <v>0</v>
+      </c>
+      <c r="H63" s="12">
+        <v>4</v>
+      </c>
+      <c r="I63" s="12">
+        <f>($C$38-$C$37)/$C$31^2*I62^2+$C$37</f>
+        <v>10.240000000000002</v>
+      </c>
+      <c r="J63" s="12">
+        <f>($C$38-$C$37)/$C$31^2*J62^2+$C$37</f>
+        <v>28.960000000000004</v>
+      </c>
+      <c r="K63" s="12">
+        <f>($C$38-$C$37)/$C$31^2*K62^2+$C$37</f>
         <v>60.16</v>
       </c>
-      <c r="R32" s="1" t="n">
-        <v>103.84</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="1" t="n">
+      <c r="L63" s="12">
+        <f>($C$38-$C$37)/$C$31^2*L62^2+$C$37</f>
+        <v>103.84000000000002</v>
+      </c>
+      <c r="M63" s="12">
+        <f>$C$38</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64">
+        <v>35.1</v>
+      </c>
+      <c r="F64" s="12">
+        <v>1</v>
+      </c>
+      <c r="G64" s="12">
+        <f>F64*$F$32</f>
+        <v>6.8444919278252622E-2</v>
+      </c>
+      <c r="H64" s="12">
+        <v>4</v>
+      </c>
+      <c r="I64" s="12">
+        <v>12.06</v>
+      </c>
+      <c r="J64" s="12">
+        <v>31</v>
+      </c>
+      <c r="K64" s="12">
+        <v>62.2</v>
+      </c>
+      <c r="L64" s="12">
+        <v>105.66</v>
+      </c>
+      <c r="M64" s="12">
+        <f>$C$38</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65">
+        <v>0.127</v>
+      </c>
+      <c r="F65" s="12">
+        <v>2</v>
+      </c>
+      <c r="G65" s="12">
+        <f>F65*$F$32</f>
+        <v>0.13688983855650524</v>
+      </c>
+      <c r="H65" s="12">
+        <v>4</v>
+      </c>
+      <c r="I65" s="12">
+        <v>13.67</v>
+      </c>
+      <c r="J65" s="12">
+        <v>32.979999999999997</v>
+      </c>
+      <c r="K65" s="12">
+        <v>64.180000000000007</v>
+      </c>
+      <c r="L65" s="12">
+        <v>107.27</v>
+      </c>
+      <c r="M65" s="12">
+        <f>$C$38</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="F66" s="12">
         <v>3</v>
       </c>
-      <c r="H33" s="1" t="n">
+      <c r="G66" s="12">
+        <f>F66*$F$32</f>
+        <v>0.20533475783475785</v>
+      </c>
+      <c r="H66" s="12">
+        <v>4</v>
+      </c>
+      <c r="I66" s="12">
+        <v>15.11</v>
+      </c>
+      <c r="J66" s="12">
+        <v>34.880000000000003</v>
+      </c>
+      <c r="K66" s="12">
+        <v>66.08</v>
+      </c>
+      <c r="L66" s="12">
+        <v>108.71</v>
+      </c>
+      <c r="M66" s="12">
+        <f>$C$38</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <f>40*4</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B71" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B72" s="12">
+        <v>1</v>
+      </c>
+      <c r="C72" s="13">
         <v>0</v>
       </c>
-      <c r="I33" s="10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J33" s="10" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K33" s="10" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L33" s="10" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="M33" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O33" s="1" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="P33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q33" s="1" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="R33" s="1" t="n">
-        <v>105.66</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="1" t="n">
-        <v>11350</v>
-      </c>
-      <c r="F34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1" t="n">
-        <f aca="false">$C$37</f>
+      <c r="D72" s="13">
+        <f>H63</f>
         <v>4</v>
       </c>
-      <c r="I34" s="10" t="n">
-        <f aca="false">($C$38-$C$37)/$C$31^2*I33^2+$C$37</f>
-        <v>10.24</v>
-      </c>
-      <c r="J34" s="10" t="n">
-        <f aca="false">($C$38-$C$37)/$C$31^2*J33^2+$C$37</f>
-        <v>28.96</v>
-      </c>
-      <c r="K34" s="10" t="n">
-        <f aca="false">($C$38-$C$37)/$C$31^2*K33^2+$C$37</f>
-        <v>60.16</v>
-      </c>
-      <c r="L34" s="10" t="n">
-        <f aca="false">($C$38-$C$37)/$C$31^2*L33^2+$C$37</f>
-        <v>103.84</v>
-      </c>
-      <c r="M34" s="1" t="n">
-        <f aca="false">$C$38</f>
+      <c r="E72" s="13">
+        <f>C73*E73+D73</f>
+        <v>15.113090909090907</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B73" s="12">
+        <v>2</v>
+      </c>
+      <c r="C73" s="13">
+        <f>$E$61/($E$62-$E$60*C72)</f>
+        <v>0.125</v>
+      </c>
+      <c r="D73" s="13">
+        <f>($E$60*D72+I65)/($E$62-$E$60*C72)</f>
+        <v>10.7525</v>
+      </c>
+      <c r="E73" s="13">
+        <f>C74*E74+D74</f>
+        <v>34.884727272727268</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B74" s="12">
+        <v>3</v>
+      </c>
+      <c r="C74" s="13">
+        <f>$E$61/($E$62-$E$60*C73)</f>
+        <v>0.12698412698412698</v>
+      </c>
+      <c r="D74" s="13">
+        <f>($E$60*D73+J65)/($E$62-$E$60*C73)</f>
+        <v>26.493015873015867</v>
+      </c>
+      <c r="E74" s="13">
+        <f>C75*E75+D75</f>
+        <v>66.084727272727278</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B75" s="12">
+        <v>4</v>
+      </c>
+      <c r="C75" s="13">
+        <f>$E$61/($E$62-$E$60*C74)</f>
+        <v>0.12701612903225806</v>
+      </c>
+      <c r="D75" s="13">
+        <f>($E$60*D74+K65)/($E$62-$E$60*C74)</f>
+        <v>52.276411290322585</v>
+      </c>
+      <c r="E75" s="13">
+        <f>C76*E76+D76</f>
+        <v>108.71309090909092</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B76" s="12">
+        <v>5</v>
+      </c>
+      <c r="C76" s="13">
+        <f>$E$61/($E$62-$E$60*C75)</f>
+        <v>0.1270166453265045</v>
+      </c>
+      <c r="D76" s="13">
+        <f>($E$60*D75+L65)/($E$62-$E$60*C75)</f>
+        <v>88.390427656850207</v>
+      </c>
+      <c r="E76" s="13">
+        <f>M63</f>
         <v>160</v>
       </c>
-      <c r="O34" s="1" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="P34" s="1" t="n">
-        <v>32.98</v>
-      </c>
-      <c r="Q34" s="1" t="n">
-        <v>64.18</v>
-      </c>
-      <c r="R34" s="1" t="n">
-        <v>107.27</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="1" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="F35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" s="1" t="n">
-        <f aca="false">F35*$F$32</f>
-        <v>0.0684449192782527</v>
-      </c>
-      <c r="H35" s="1" t="n">
-        <f aca="false">$C$37</f>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B96" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" s="15">
         <v>4</v>
       </c>
-      <c r="I35" s="10" t="n">
-        <f aca="false">1/6*(H34+4*I34+J34)</f>
-        <v>12.32</v>
-      </c>
-      <c r="J35" s="10" t="n">
-        <f aca="false">1/6*(I34+4*J34+K34)</f>
-        <v>31.04</v>
-      </c>
-      <c r="K35" s="10" t="n">
-        <f aca="false">1/6*(J34+4*K34+L34)</f>
-        <v>62.24</v>
-      </c>
-      <c r="L35" s="10" t="n">
-        <f aca="false">1/6*(K34+4*L34+M34)</f>
-        <v>105.92</v>
-      </c>
-      <c r="M35" s="1" t="n">
-        <f aca="false">$C$38</f>
-        <v>160</v>
-      </c>
-      <c r="O35" s="1" t="n">
-        <v>15.11</v>
-      </c>
-      <c r="P35" s="1" t="n">
-        <v>34.88</v>
-      </c>
-      <c r="Q35" s="1" t="n">
-        <v>66.08</v>
-      </c>
-      <c r="R35" s="1" t="n">
-        <v>108.71</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="1" t="n">
-        <v>0.127</v>
-      </c>
-      <c r="F36" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G36" s="1" t="n">
-        <f aca="false">F36*$F$32</f>
-        <v>0.136889838556505</v>
-      </c>
-      <c r="H36" s="1" t="n">
-        <f aca="false">$C$37</f>
-        <v>4</v>
-      </c>
-      <c r="I36" s="10" t="n">
-        <f aca="false">1/6*(H35+4*I35+J35)</f>
-        <v>14.0533333333333</v>
-      </c>
-      <c r="J36" s="10" t="n">
-        <f aca="false">1/6*(I35+4*J35+K35)</f>
-        <v>33.12</v>
-      </c>
-      <c r="K36" s="10" t="n">
-        <f aca="false">1/6*(J35+4*K35+L35)</f>
-        <v>64.32</v>
-      </c>
-      <c r="L36" s="10" t="n">
-        <f aca="false">1/6*(K35+4*L35+M35)</f>
-        <v>107.653333333333</v>
-      </c>
-      <c r="M36" s="1" t="n">
-        <f aca="false">$C$38</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F37" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G37" s="1" t="n">
-        <f aca="false">F37*$F$32</f>
-        <v>0.205334757834758</v>
-      </c>
-      <c r="H37" s="1" t="n">
-        <f aca="false">$C$37</f>
-        <v>4</v>
-      </c>
-      <c r="I37" s="10" t="n">
-        <f aca="false">1/6*(H36+4*I36+J36)</f>
-        <v>15.5555555555556</v>
-      </c>
-      <c r="J37" s="10" t="n">
-        <f aca="false">1/6*(I36+4*J36+K36)</f>
-        <v>35.1422222222222</v>
-      </c>
-      <c r="K37" s="10" t="n">
-        <f aca="false">1/6*(J36+4*K36+L36)</f>
-        <v>66.3422222222222</v>
-      </c>
-      <c r="L37" s="10" t="n">
-        <f aca="false">1/6*(K36+4*L36+M36)</f>
-        <v>109.155555555556</v>
-      </c>
-      <c r="M37" s="1" t="n">
-        <f aca="false">$C$38</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="1" t="n">
-        <f aca="false">40*4</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="8"/>
-      <c r="S56" s="8"/>
-      <c r="T56" s="8"/>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C58" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E59" s="12" t="n">
-        <f aca="false">1/6</f>
-        <v>0.166666666666667</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C60" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E60" s="12" t="n">
-        <f aca="false">E59</f>
-        <v>0.166666666666667</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C61" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E61" s="12" t="n">
-        <f aca="false">E60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="K61" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="L61" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="M61" s="13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C62" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E62" s="12" t="n">
-        <f aca="false">1+2*E61</f>
-        <v>1.33333333333333</v>
-      </c>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" s="13" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J62" s="13" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K62" s="13" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L62" s="13" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="M62" s="13" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C63" s="1" t="n">
-        <v>11350</v>
-      </c>
-      <c r="F63" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H63" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="I63" s="13" t="n">
-        <f aca="false">($C$38-$C$37)/$C$31^2*I62^2+$C$37</f>
-        <v>10.24</v>
-      </c>
-      <c r="J63" s="13" t="n">
-        <f aca="false">($C$38-$C$37)/$C$31^2*J62^2+$C$37</f>
-        <v>28.96</v>
-      </c>
-      <c r="K63" s="13" t="n">
-        <f aca="false">($C$38-$C$37)/$C$31^2*K62^2+$C$37</f>
-        <v>60.16</v>
-      </c>
-      <c r="L63" s="13" t="n">
-        <f aca="false">($C$38-$C$37)/$C$31^2*L62^2+$C$37</f>
-        <v>103.84</v>
-      </c>
-      <c r="M63" s="13" t="n">
-        <f aca="false">$C$38</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C64" s="1" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="F64" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G64" s="13" t="n">
-        <f aca="false">F64*$F$32</f>
-        <v>0.0684449192782527</v>
-      </c>
-      <c r="H64" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="I64" s="13" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="J64" s="13" t="n">
-        <v>31</v>
-      </c>
-      <c r="K64" s="13" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="L64" s="13" t="n">
-        <v>105.66</v>
-      </c>
-      <c r="M64" s="13" t="n">
-        <f aca="false">$C$38</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C65" s="1" t="n">
-        <v>0.127</v>
-      </c>
-      <c r="F65" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G65" s="13" t="n">
-        <f aca="false">F65*$F$32</f>
-        <v>0.136889838556505</v>
-      </c>
-      <c r="H65" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="I65" s="13" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="J65" s="13" t="n">
-        <v>32.98</v>
-      </c>
-      <c r="K65" s="13" t="n">
-        <v>64.18</v>
-      </c>
-      <c r="L65" s="13" t="n">
-        <v>107.27</v>
-      </c>
-      <c r="M65" s="13" t="n">
-        <f aca="false">$C$38</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F66" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G66" s="13" t="n">
-        <f aca="false">F66*$F$32</f>
-        <v>0.205334757834758</v>
-      </c>
-      <c r="H66" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="I66" s="13" t="n">
-        <v>15.11</v>
-      </c>
-      <c r="J66" s="13" t="n">
-        <v>34.88</v>
-      </c>
-      <c r="K66" s="13" t="n">
-        <v>66.08</v>
-      </c>
-      <c r="L66" s="13" t="n">
-        <v>108.71</v>
-      </c>
-      <c r="M66" s="13" t="n">
-        <f aca="false">$C$38</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="1" t="n">
-        <f aca="false">40*4</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C72" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" s="14" t="n">
-        <f aca="false">H63</f>
-        <v>4</v>
-      </c>
-      <c r="E72" s="14" t="n">
-        <f aca="false">C73*E73+D73</f>
-        <v>15.1130909090909</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C73" s="14" t="n">
-        <f aca="false">$E$61/($E$62-$E$60*C72)</f>
-        <v>0.125</v>
-      </c>
-      <c r="D73" s="14" t="n">
-        <f aca="false">($E$60*D72+I65)/($E$62-$E$60*C72)</f>
-        <v>10.7525</v>
-      </c>
-      <c r="E73" s="14" t="n">
-        <f aca="false">C74*E74+D74</f>
-        <v>34.8847272727273</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C74" s="14" t="n">
-        <f aca="false">$E$61/($E$62-$E$60*C73)</f>
-        <v>0.126984126984127</v>
-      </c>
-      <c r="D74" s="14" t="n">
-        <f aca="false">($E$60*D73+J65)/($E$62-$E$60*C73)</f>
-        <v>26.4930158730159</v>
-      </c>
-      <c r="E74" s="14" t="n">
-        <f aca="false">C75*E75+D75</f>
-        <v>66.0847272727273</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C75" s="14" t="n">
-        <f aca="false">$E$61/($E$62-$E$60*C74)</f>
-        <v>0.127016129032258</v>
-      </c>
-      <c r="D75" s="14" t="n">
-        <f aca="false">($E$60*D74+K65)/($E$62-$E$60*C74)</f>
-        <v>52.2764112903226</v>
-      </c>
-      <c r="E75" s="14" t="n">
-        <f aca="false">C76*E76+D76</f>
-        <v>108.713090909091</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C76" s="14" t="n">
-        <f aca="false">$E$61/($E$62-$E$60*C75)</f>
-        <v>0.127016645326505</v>
-      </c>
-      <c r="D76" s="14" t="n">
-        <f aca="false">($E$60*D75+L65)/($E$62-$E$60*C75)</f>
-        <v>88.3904276568502</v>
-      </c>
-      <c r="E76" s="14" t="n">
-        <f aca="false">M63</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
-      <c r="M89" s="8"/>
-      <c r="N89" s="8"/>
-      <c r="O89" s="8"/>
-      <c r="P89" s="8"/>
-      <c r="Q89" s="8"/>
-      <c r="R89" s="8"/>
-      <c r="S89" s="8"/>
-      <c r="T89" s="8"/>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C96" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="E96" s="15" t="s">
+      <c r="E96" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F96" s="16" t="n">
+      <c r="F96" s="15">
         <v>4</v>
       </c>
       <c r="P96" s="2" t="s">
@@ -4581,1088 +4798,1083 @@
       <c r="T96" s="2"/>
       <c r="U96" s="2"/>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="15" t="s">
+    <row r="97" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B97" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C97" s="16" t="n">
+      <c r="C97" s="15">
         <v>1</v>
       </c>
-      <c r="E97" s="15" t="s">
+      <c r="E97" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F97" s="17" t="n">
-        <f aca="false">1/4</f>
+      <c r="F97" s="16">
+        <f>1/4</f>
         <v>0.25</v>
       </c>
-      <c r="I97" s="1" t="n">
+      <c r="I97">
         <v>0</v>
       </c>
-      <c r="J97" s="1" t="n">
+      <c r="J97">
         <v>1</v>
       </c>
-      <c r="K97" s="1" t="n">
+      <c r="K97">
         <v>2</v>
       </c>
-      <c r="L97" s="1" t="n">
+      <c r="L97">
         <v>3</v>
       </c>
-      <c r="M97" s="1" t="n">
+      <c r="M97">
         <v>4</v>
       </c>
-      <c r="N97" s="1" t="n">
+      <c r="N97">
         <v>5</v>
       </c>
-      <c r="P97" s="2" t="n">
+      <c r="P97" s="2">
         <v>0</v>
       </c>
-      <c r="Q97" s="2" t="n">
+      <c r="Q97" s="2">
         <v>1</v>
       </c>
-      <c r="R97" s="2" t="n">
+      <c r="R97" s="2">
         <v>2</v>
       </c>
-      <c r="S97" s="2" t="n">
+      <c r="S97" s="2">
         <v>3</v>
       </c>
-      <c r="T97" s="2" t="n">
+      <c r="T97" s="2">
         <v>4</v>
       </c>
-      <c r="U97" s="2" t="n">
+      <c r="U97" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="15" t="s">
+    <row r="98" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B98" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C98" s="16" t="n">
+      <c r="C98" s="15">
         <v>0.5</v>
       </c>
-      <c r="E98" s="15" t="s">
+      <c r="E98" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F98" s="18" t="n">
-        <f aca="false">C102/(C103*C101)</f>
-        <v>0.0243504804190225</v>
-      </c>
-      <c r="I98" s="1" t="n">
+      <c r="F98" s="17">
+        <f>C102/(C103*C101)</f>
+        <v>2.4350480419022512E-2</v>
+      </c>
+      <c r="I98">
         <v>0</v>
       </c>
-      <c r="J98" s="1" t="n">
+      <c r="J98">
         <v>0.1</v>
       </c>
-      <c r="K98" s="1" t="n">
+      <c r="K98">
         <v>0.2</v>
       </c>
-      <c r="L98" s="1" t="n">
+      <c r="L98">
         <v>0.3</v>
       </c>
-      <c r="M98" s="1" t="n">
+      <c r="M98">
         <v>0.4</v>
       </c>
-      <c r="N98" s="1" t="n">
+      <c r="N98">
         <v>0.5</v>
       </c>
-      <c r="P98" s="2" t="n">
+      <c r="P98" s="2">
         <v>0</v>
       </c>
-      <c r="Q98" s="2" t="n">
+      <c r="Q98" s="2">
         <v>0.1</v>
       </c>
-      <c r="R98" s="2" t="n">
+      <c r="R98" s="2">
         <v>0.2</v>
       </c>
-      <c r="S98" s="2" t="n">
+      <c r="S98" s="2">
         <v>0.3</v>
       </c>
-      <c r="T98" s="2" t="n">
+      <c r="T98" s="2">
         <v>0.4</v>
       </c>
-      <c r="U98" s="2" t="n">
+      <c r="U98" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="15" t="s">
+    <row r="99" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B99" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C99" s="16" t="n">
+      <c r="C99" s="15">
         <v>0.1</v>
       </c>
-      <c r="E99" s="15" t="s">
+      <c r="E99" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F99" s="17" t="n">
-        <f aca="false">1/4</f>
+      <c r="F99" s="16">
+        <f>1/4</f>
         <v>0.25</v>
       </c>
-      <c r="G99" s="1" t="n">
+      <c r="G99">
         <v>0</v>
       </c>
-      <c r="H99" s="1" t="n">
+      <c r="H99">
         <v>0</v>
       </c>
-      <c r="I99" s="1" t="n">
+      <c r="I99">
         <v>4</v>
       </c>
-      <c r="J99" s="1" t="n">
+      <c r="J99">
         <v>10.24</v>
       </c>
-      <c r="K99" s="1" t="n">
+      <c r="K99">
         <v>28.96</v>
       </c>
-      <c r="L99" s="1" t="n">
+      <c r="L99">
         <v>60.16</v>
       </c>
-      <c r="M99" s="1" t="n">
+      <c r="M99">
         <v>103.84</v>
       </c>
-      <c r="N99" s="1" t="n">
+      <c r="N99">
         <v>160</v>
       </c>
-      <c r="P99" s="19" t="n">
-        <f aca="false">$F$98*EXP(-1*$F$97*P98)</f>
-        <v>0.0243504804190225</v>
-      </c>
-      <c r="Q99" s="19" t="n">
-        <f aca="false">$F$98*EXP(-1*$F$97*Q98)</f>
-        <v>0.0237492649153245</v>
-      </c>
-      <c r="R99" s="19" t="n">
-        <f aca="false">$F$98*EXP(-1*$F$97*R98)</f>
-        <v>0.0231628934753027</v>
-      </c>
-      <c r="S99" s="19" t="n">
-        <f aca="false">$F$98*EXP(-1*$F$97*S98)</f>
-        <v>0.0225909995977191</v>
-      </c>
-      <c r="T99" s="19" t="n">
-        <f aca="false">$F$98*EXP(-1*$F$97*T98)</f>
-        <v>0.0220332258302835</v>
-      </c>
-      <c r="U99" s="19" t="n">
-        <f aca="false">$F$98*EXP(-1*$F$97*U98)</f>
-        <v>0.0214892235462342</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="15" t="s">
+      <c r="P99" s="18">
+        <f t="shared" ref="P99:U99" si="4">$F$98*EXP(-1*$F$97*P98)</f>
+        <v>2.4350480419022512E-2</v>
+      </c>
+      <c r="Q99" s="18">
+        <f t="shared" si="4"/>
+        <v>2.3749264915324482E-2</v>
+      </c>
+      <c r="R99" s="18">
+        <f t="shared" si="4"/>
+        <v>2.316289347530269E-2</v>
+      </c>
+      <c r="S99" s="18">
+        <f t="shared" si="4"/>
+        <v>2.2590999597719107E-2</v>
+      </c>
+      <c r="T99" s="18">
+        <f t="shared" si="4"/>
+        <v>2.2033225830283519E-2</v>
+      </c>
+      <c r="U99" s="18">
+        <f t="shared" si="4"/>
+        <v>2.1489223546234209E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B100" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C100" s="16" t="n">
+      <c r="C100" s="15">
         <v>3</v>
       </c>
-      <c r="G100" s="1" t="n">
+      <c r="G100">
         <v>1</v>
       </c>
-      <c r="H100" s="1" t="s">
+      <c r="H100" t="s">
         <v>44</v>
       </c>
-      <c r="I100" s="1" t="n">
+      <c r="I100">
         <v>4</v>
       </c>
-      <c r="N100" s="1" t="n">
+      <c r="N100">
         <v>160</v>
       </c>
-      <c r="P100" s="10"/>
-      <c r="Q100" s="10"/>
-      <c r="R100" s="10"/>
-      <c r="S100" s="10"/>
-      <c r="T100" s="10"/>
-      <c r="U100" s="10"/>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="15" t="s">
+      <c r="P100" s="9"/>
+      <c r="Q100" s="9"/>
+      <c r="R100" s="9"/>
+      <c r="S100" s="9"/>
+      <c r="T100" s="9"/>
+      <c r="U100" s="9"/>
+    </row>
+    <row r="101" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B101" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C101" s="16" t="n">
+      <c r="C101" s="15">
         <v>11350</v>
       </c>
-      <c r="E101" s="20" t="s">
+      <c r="E101" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F101" s="1" t="n">
-        <f aca="false">(1/2*F32)/C99^2</f>
-        <v>3.42224596391263</v>
-      </c>
-      <c r="G101" s="1" t="n">
+      <c r="F101">
+        <f>(1/2*F32)/C99^2</f>
+        <v>3.4222459639126304</v>
+      </c>
+      <c r="G101">
         <v>2</v>
       </c>
-      <c r="H101" s="1" t="s">
+      <c r="H101" t="s">
         <v>46</v>
       </c>
-      <c r="I101" s="1" t="n">
+      <c r="I101">
         <v>4</v>
       </c>
-      <c r="N101" s="1" t="n">
+      <c r="N101">
         <v>160</v>
       </c>
-      <c r="P101" s="10" t="s">
+      <c r="P101" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="Q101" s="10" t="n">
-        <f aca="false">1/2*(Q99+P99)</f>
-        <v>0.0240498726671735</v>
-      </c>
-      <c r="R101" s="10" t="n">
-        <f aca="false">1/2*(R99+Q99)</f>
-        <v>0.0234560791953136</v>
-      </c>
-      <c r="S101" s="10" t="n">
-        <f aca="false">1/2*(S99+R99)</f>
-        <v>0.0228769465365109</v>
-      </c>
-      <c r="T101" s="10" t="n">
-        <f aca="false">1/2*(T99+S99)</f>
-        <v>0.0223121127140013</v>
-      </c>
-      <c r="U101" s="10"/>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="15" t="s">
+      <c r="Q101" s="9">
+        <f>1/2*(Q99+P99)</f>
+        <v>2.4049872667173497E-2</v>
+      </c>
+      <c r="R101" s="9">
+        <f>1/2*(R99+Q99)</f>
+        <v>2.3456079195313586E-2</v>
+      </c>
+      <c r="S101" s="9">
+        <f>1/2*(S99+R99)</f>
+        <v>2.28769465365109E-2</v>
+      </c>
+      <c r="T101" s="9">
+        <f>1/2*(T99+S99)</f>
+        <v>2.2312112714001311E-2</v>
+      </c>
+      <c r="U101" s="9"/>
+    </row>
+    <row r="102" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B102" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C102" s="16" t="n">
+      <c r="C102" s="15">
         <v>35.1</v>
       </c>
-      <c r="G102" s="1" t="n">
+      <c r="G102">
         <v>3</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="H102" t="s">
         <v>48</v>
       </c>
-      <c r="I102" s="1" t="n">
+      <c r="I102">
         <v>4</v>
       </c>
-      <c r="N102" s="1" t="n">
+      <c r="N102">
         <v>160</v>
       </c>
-      <c r="P102" s="10" t="s">
+      <c r="P102" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="Q102" s="10" t="n">
-        <f aca="false">1/2*(R99+Q99)</f>
-        <v>0.0234560791953136</v>
-      </c>
-      <c r="R102" s="10" t="n">
-        <f aca="false">1/2*(S99+R99)</f>
-        <v>0.0228769465365109</v>
-      </c>
-      <c r="S102" s="10" t="n">
-        <f aca="false">1/2*(T99+S99)</f>
-        <v>0.0223121127140013</v>
-      </c>
-      <c r="T102" s="10" t="n">
-        <f aca="false">1/2*(U99+T99)</f>
-        <v>0.0217612246882589</v>
-      </c>
-      <c r="U102" s="10"/>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="15" t="s">
+      <c r="Q102" s="9">
+        <f>1/2*(R99+Q99)</f>
+        <v>2.3456079195313586E-2</v>
+      </c>
+      <c r="R102" s="9">
+        <f>1/2*(S99+R99)</f>
+        <v>2.28769465365109E-2</v>
+      </c>
+      <c r="S102" s="9">
+        <f>1/2*(T99+S99)</f>
+        <v>2.2312112714001311E-2</v>
+      </c>
+      <c r="T102" s="9">
+        <f>1/2*(U99+T99)</f>
+        <v>2.1761224688258862E-2</v>
+      </c>
+      <c r="U102" s="9"/>
+    </row>
+    <row r="103" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B103" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C103" s="16" t="n">
+      <c r="C103" s="15">
         <v>0.127</v>
       </c>
-      <c r="P103" s="10" t="s">
+      <c r="P103" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="Q103" s="10" t="n">
-        <f aca="false">Q101+Q102+1/$F$101</f>
-        <v>0.339711716890757</v>
-      </c>
-      <c r="R103" s="10" t="n">
-        <f aca="false">R101+R102+1/$F$101</f>
-        <v>0.338538790760095</v>
-      </c>
-      <c r="S103" s="10" t="n">
-        <f aca="false">S101+S102+1/$F$101</f>
-        <v>0.337394824278782</v>
-      </c>
-      <c r="T103" s="10" t="n">
-        <f aca="false">T101+T102+1/$F$101</f>
-        <v>0.33627910243053</v>
-      </c>
-      <c r="U103" s="10"/>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="15" t="s">
+      <c r="Q103" s="9">
+        <f>Q101+Q102+1/$F$101</f>
+        <v>0.33971171689075724</v>
+      </c>
+      <c r="R103" s="9">
+        <f>R101+R102+1/$F$101</f>
+        <v>0.33853879076009463</v>
+      </c>
+      <c r="S103" s="9">
+        <f>S101+S102+1/$F$101</f>
+        <v>0.33739482427878237</v>
+      </c>
+      <c r="T103" s="9">
+        <f>T101+T102+1/$F$101</f>
+        <v>0.33627910243053033</v>
+      </c>
+      <c r="U103" s="9"/>
+    </row>
+    <row r="104" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B104" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C104" s="16" t="n">
+      <c r="C104" s="15">
         <v>4</v>
       </c>
-      <c r="P104" s="10"/>
-      <c r="Q104" s="10" t="n">
+      <c r="P104" s="9"/>
+      <c r="Q104" s="9">
         <v>1</v>
       </c>
-      <c r="R104" s="10" t="n">
+      <c r="R104" s="9">
         <v>2</v>
       </c>
-      <c r="S104" s="10" t="n">
+      <c r="S104" s="9">
         <v>3</v>
       </c>
-      <c r="T104" s="10" t="n">
+      <c r="T104" s="9">
         <v>4</v>
       </c>
-      <c r="U104" s="10"/>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="15" t="s">
+      <c r="U104" s="9"/>
+    </row>
+    <row r="105" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B105" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C105" s="16" t="n">
-        <f aca="false">40*4</f>
+      <c r="C105" s="15">
+        <f>40*4</f>
         <v>160</v>
       </c>
-      <c r="P105" s="10"/>
-      <c r="Q105" s="10"/>
-      <c r="R105" s="10"/>
-      <c r="S105" s="10"/>
-      <c r="T105" s="10"/>
-      <c r="U105" s="10"/>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P106" s="10"/>
-      <c r="Q106" s="10"/>
-      <c r="R106" s="10"/>
-      <c r="S106" s="10"/>
-      <c r="T106" s="10"/>
-      <c r="U106" s="10"/>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P107" s="14" t="s">
+      <c r="P105" s="9"/>
+      <c r="Q105" s="9"/>
+      <c r="R105" s="9"/>
+      <c r="S105" s="9"/>
+      <c r="T105" s="9"/>
+      <c r="U105" s="9"/>
+    </row>
+    <row r="106" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="P106" s="9"/>
+      <c r="Q106" s="9"/>
+      <c r="R106" s="9"/>
+      <c r="S106" s="9"/>
+      <c r="T106" s="9"/>
+      <c r="U106" s="9"/>
+    </row>
+    <row r="107" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="P107" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="Q107" s="14" t="n">
+      <c r="Q107" s="13">
         <v>1</v>
       </c>
-      <c r="R107" s="14" t="n">
+      <c r="R107" s="13">
         <v>2</v>
       </c>
-      <c r="S107" s="14" t="n">
+      <c r="S107" s="13">
         <v>3</v>
       </c>
-      <c r="T107" s="21" t="n">
+      <c r="T107" s="19">
         <v>4</v>
       </c>
-      <c r="U107" s="21" t="n">
+      <c r="U107" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P108" s="14" t="s">
+    <row r="108" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="P108" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Q108" s="13" t="n">
+      <c r="Q108" s="12">
         <v>0</v>
       </c>
-      <c r="R108" s="13" t="n">
-        <f aca="false">Q102/(Q103-Q101*Q108)</f>
-        <v>0.0690470125964377</v>
-      </c>
-      <c r="S108" s="13" t="n">
-        <f aca="false">R102/(R103-R101*R108)</f>
-        <v>0.0679003905861663</v>
-      </c>
-      <c r="T108" s="13" t="n">
-        <f aca="false">S102/(S103-S101*S108)</f>
-        <v>0.0664364429719</v>
-      </c>
-      <c r="U108" s="13" t="n">
-        <f aca="false">T102/(T103-T101*T108)</f>
-        <v>0.0649983122941119</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P109" s="14" t="s">
+      <c r="R108" s="12">
+        <f>Q102/(Q103-Q101*Q108)</f>
+        <v>6.9047012596437682E-2</v>
+      </c>
+      <c r="S108" s="12">
+        <f>R102/(R103-R101*R108)</f>
+        <v>6.7900390586166245E-2</v>
+      </c>
+      <c r="T108" s="12">
+        <f>S102/(S103-S101*S108)</f>
+        <v>6.6436442971900045E-2</v>
+      </c>
+      <c r="U108" s="12">
+        <f>T102/(T103-T101*T108)</f>
+        <v>6.4998312294111765E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="P109" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="Q109" s="13" t="n">
-        <f aca="false">I99</f>
+      <c r="Q109" s="12">
+        <f>I99</f>
         <v>4</v>
       </c>
-      <c r="R109" s="13" t="n">
-        <f aca="false">(Q101*Q109+J99)/(Q103-Q101*Q108)</f>
-        <v>30.4263850104192</v>
-      </c>
-      <c r="S109" s="13" t="n">
-        <f aca="false">(R101*R109+K99)/(R103-R101*R108)</f>
-        <v>88.0735857778225</v>
-      </c>
-      <c r="T109" s="13" t="n">
-        <f aca="false">(S101*S109+L99)/(S103-S101*S108)</f>
-        <v>185.131558018805</v>
-      </c>
-      <c r="U109" s="13" t="n">
-        <f aca="false">(T101*T109+M99)/(T103-T101*T108)</f>
-        <v>322.496175197058</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P110" s="14" t="s">
+      <c r="R109" s="12">
+        <f>(Q101*Q109+J99)/(Q103-Q101*Q108)</f>
+        <v>30.42638501041916</v>
+      </c>
+      <c r="S109" s="12">
+        <f>(R101*R109+K99)/(R103-R101*R108)</f>
+        <v>88.073585777822487</v>
+      </c>
+      <c r="T109" s="12">
+        <f>(S101*S109+L99)/(S103-S101*S108)</f>
+        <v>185.13155801880444</v>
+      </c>
+      <c r="U109" s="12">
+        <f>(T101*T109+M99)/(T103-T101*T108)</f>
+        <v>322.4961751970576</v>
+      </c>
+    </row>
+    <row r="110" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="P110" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Q110" s="1" t="n">
-        <f aca="false">R108*R110+R109</f>
-        <v>37.4792476549633</v>
-      </c>
-      <c r="R110" s="1" t="n">
-        <f aca="false">S108*S110+S109</f>
-        <v>102.145804421204</v>
-      </c>
-      <c r="S110" s="1" t="n">
-        <f aca="false">T108*T110+T109</f>
-        <v>207.247977837819</v>
-      </c>
-      <c r="T110" s="1" t="n">
-        <f aca="false">U108*U110+U109</f>
-        <v>332.895905164116</v>
-      </c>
-      <c r="U110" s="1" t="n">
+      <c r="Q110">
+        <f>R108*R110+R109</f>
+        <v>37.47924765496326</v>
+      </c>
+      <c r="R110">
+        <f>S108*S110+S109</f>
+        <v>102.14580442120354</v>
+      </c>
+      <c r="S110">
+        <f>T108*T110+T109</f>
+        <v>207.24797783781923</v>
+      </c>
+      <c r="T110">
+        <f>U108*U110+U109</f>
+        <v>332.8959051641155</v>
+      </c>
+      <c r="U110">
         <v>160</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P111" s="13"/>
-      <c r="Q111" s="14"/>
-      <c r="R111" s="14"/>
-      <c r="S111" s="14"/>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P112" s="13"/>
-      <c r="Q112" s="14"/>
-      <c r="R112" s="14"/>
-      <c r="S112" s="14"/>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="8" t="s">
+    <row r="111" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="P111" s="12"/>
+      <c r="Q111" s="13"/>
+      <c r="R111" s="13"/>
+      <c r="S111" s="13"/>
+    </row>
+    <row r="112" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="P112" s="12"/>
+      <c r="Q112" s="13"/>
+      <c r="R112" s="13"/>
+      <c r="S112" s="13"/>
+    </row>
+    <row r="118" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B118" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
-      <c r="I118" s="8"/>
-      <c r="J118" s="8"/>
-      <c r="K118" s="8"/>
-      <c r="L118" s="8"/>
-      <c r="M118" s="8"/>
-      <c r="N118" s="8"/>
-      <c r="O118" s="8"/>
-      <c r="P118" s="8"/>
-      <c r="Q118" s="8"/>
-      <c r="R118" s="8"/>
-      <c r="S118" s="8"/>
-      <c r="T118" s="8"/>
-      <c r="U118" s="8"/>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="0" t="s">
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="T118" s="1"/>
+      <c r="U118" s="1"/>
+    </row>
+    <row r="120" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
         <v>51</v>
       </c>
-      <c r="M120" s="22" t="s">
+      <c r="M120" t="s">
         <v>52</v>
       </c>
-      <c r="O120" s="0" t="n">
+      <c r="O120">
         <v>0</v>
       </c>
-      <c r="P120" s="0" t="n">
+      <c r="P120">
         <v>0.2</v>
       </c>
-      <c r="Q120" s="0" t="n">
+      <c r="Q120">
         <v>0.4</v>
       </c>
-      <c r="R120" s="0" t="n">
+      <c r="R120">
         <v>0.6</v>
       </c>
-      <c r="S120" s="0" t="n">
+      <c r="S120">
         <v>0.8</v>
       </c>
-      <c r="T120" s="0" t="n">
+      <c r="T120">
         <v>1</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E121" s="23" t="s">
+    <row r="121" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="E121" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F121" s="24" t="n">
+      <c r="F121" s="21">
         <v>10</v>
       </c>
-      <c r="I121" s="25"/>
-      <c r="O121" s="26" t="n">
-        <f aca="false">1/(1+1/2*0.2*ABS(4*COS(3.14*O120)))</f>
-        <v>0.714285714285714</v>
-      </c>
-      <c r="P121" s="26" t="n">
-        <f aca="false">1/(1+1/2*0.2*ABS(4*COS(3.14*P120)))</f>
-        <v>0.755468645411167</v>
-      </c>
-      <c r="Q121" s="26" t="n">
-        <f aca="false">1/(1+1/2*0.2*ABS(4*COS(3.14*Q120)))</f>
-        <v>0.889799153246433</v>
-      </c>
-      <c r="R121" s="26" t="n">
-        <f aca="false">1/(1+1/2*0.2*ABS(4*COS(3.14*R120)))</f>
-        <v>0.890279138891331</v>
-      </c>
-      <c r="S121" s="26" t="n">
-        <f aca="false">1/(1+1/2*0.2*ABS(4*COS(3.14*S120)))</f>
-        <v>0.755682560422128</v>
-      </c>
-      <c r="T121" s="26" t="n">
-        <f aca="false">1/(1+1/2*0.2*ABS(4*COS(3.14*T120)))</f>
-        <v>0.714285973116922</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="0" t="s">
+      <c r="O121" s="9">
+        <f t="shared" ref="O121:T121" si="5">1/(1+1/2*0.2*ABS(4*COS(3.14*O120)))</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="P121" s="9">
+        <f t="shared" si="5"/>
+        <v>0.75546864541116732</v>
+      </c>
+      <c r="Q121" s="9">
+        <f t="shared" si="5"/>
+        <v>0.88979915324643266</v>
+      </c>
+      <c r="R121" s="9">
+        <f t="shared" si="5"/>
+        <v>0.89027913889133048</v>
+      </c>
+      <c r="S121" s="9">
+        <f t="shared" si="5"/>
+        <v>0.75568256042212845</v>
+      </c>
+      <c r="T121" s="9">
+        <f t="shared" si="5"/>
+        <v>0.71428597311692243</v>
+      </c>
+    </row>
+    <row r="122" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
         <v>54</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" t="s">
         <v>55</v>
       </c>
-      <c r="F122" s="10"/>
-      <c r="M122" s="22" t="s">
+      <c r="F122" s="9"/>
+      <c r="M122" t="s">
         <v>56</v>
       </c>
-      <c r="O122" s="26" t="n">
-        <f aca="false">(((4*COS(3.14*O120))+ABS(4*COS(3.14*O120))))/2</f>
+      <c r="O122" s="9">
+        <f t="shared" ref="O122:T122" si="6">(((4*COS(3.14*O120))+ABS(4*COS(3.14*O120))))/2</f>
         <v>4</v>
       </c>
-      <c r="P122" s="26" t="n">
-        <f aca="false">(((4*COS(3.14*P120))+ABS(4*COS(3.14*P120))))/2</f>
-        <v>3.23681672395213</v>
-      </c>
-      <c r="Q122" s="26" t="n">
-        <f aca="false">(((4*COS(3.14*Q120))+ABS(4*COS(3.14*Q120))))/2</f>
-        <v>1.2384912522281</v>
-      </c>
-      <c r="R122" s="26" t="n">
-        <f aca="false">(((4*COS(3.14*R120))+ABS(4*COS(3.14*R120))))/2</f>
+      <c r="P122" s="9">
+        <f t="shared" si="6"/>
+        <v>3.236816723952129</v>
+      </c>
+      <c r="Q122" s="9">
+        <f t="shared" si="6"/>
+        <v>1.238491252228096</v>
+      </c>
+      <c r="R122" s="9">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S122" s="26" t="n">
-        <f aca="false">(((4*COS(3.14*S120))+ABS(4*COS(3.14*S120))))/2</f>
+      <c r="S122" s="9">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T122" s="26" t="n">
-        <f aca="false">(((4*COS(3.14*T120))+ABS(4*COS(3.14*T120))))/2</f>
+      <c r="T122" s="9">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="0" t="s">
+    <row r="123" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
         <v>57</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" t="s">
         <v>58</v>
       </c>
-      <c r="E123" s="23" t="s">
+      <c r="E123" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F123" s="24" t="n">
-        <f aca="false">10*EXP(-4)</f>
-        <v>0.183156388887342</v>
-      </c>
-      <c r="M123" s="22" t="s">
+      <c r="F123" s="21">
+        <f>10*EXP(-4)</f>
+        <v>0.18315638888734179</v>
+      </c>
+      <c r="M123" t="s">
         <v>60</v>
       </c>
-      <c r="O123" s="26" t="n">
-        <f aca="false">(((4*COS(3.14*O120))-ABS(4*COS(3.14*O120))))/2</f>
+      <c r="O123" s="9">
+        <f>(((4*COS(3.14*O120))-ABS(4*COS(3.14*O120))))/2</f>
         <v>0</v>
       </c>
-      <c r="P123" s="26" t="n">
-        <f aca="false">(((4*COS(3.14*P120))-ABS(4*COS(3.14*P120))))/2</f>
+      <c r="P123" s="9">
+        <f t="shared" ref="O123:T123" si="7">(((4*COS(3.14*P120))-ABS(4*COS(3.14*P120))))/2</f>
         <v>0</v>
       </c>
-      <c r="Q123" s="26" t="n">
-        <f aca="false">(((4*COS(3.14*Q120))-ABS(4*COS(3.14*Q120))))/2</f>
+      <c r="Q123" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R123" s="26" t="n">
-        <f aca="false">(((4*COS(3.14*R120))-ABS(4*COS(3.14*R120))))/2</f>
-        <v>-1.23243212511197</v>
-      </c>
-      <c r="S123" s="26" t="n">
-        <f aca="false">(((4*COS(3.14*S120))-ABS(4*COS(3.14*S120))))/2</f>
-        <v>-3.23306970907724</v>
-      </c>
-      <c r="T123" s="26" t="n">
-        <f aca="false">(((4*COS(3.14*T120))-ABS(4*COS(3.14*T120))))/2</f>
-        <v>-3.99999492691016</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="0" t="s">
+      <c r="R123" s="9">
+        <f t="shared" si="7"/>
+        <v>-1.2324321251119694</v>
+      </c>
+      <c r="S123" s="9">
+        <f t="shared" si="7"/>
+        <v>-3.2330697090772413</v>
+      </c>
+      <c r="T123" s="9">
+        <f t="shared" si="7"/>
+        <v>-3.999994926910158</v>
+      </c>
+    </row>
+    <row r="124" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
         <v>61</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M125" s="22" t="s">
+    <row r="125" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="M125" t="s">
         <v>47</v>
       </c>
-      <c r="O125" s="26" t="n">
-        <f aca="false">(O121/0.2^2-O123/0.2)</f>
-        <v>17.8571428571429</v>
-      </c>
-      <c r="P125" s="26" t="n">
-        <f aca="false">(P121/0.2^2-P123/0.2)</f>
-        <v>18.8867161352792</v>
-      </c>
-      <c r="Q125" s="26" t="n">
-        <f aca="false">(Q121/0.2^2-Q123/0.2)</f>
-        <v>22.2449788311608</v>
-      </c>
-      <c r="R125" s="26" t="n">
-        <f aca="false">(R121/0.2^2-R123/0.2)</f>
-        <v>28.4191390978431</v>
-      </c>
-      <c r="S125" s="26" t="n">
-        <f aca="false">(S121/0.2^2-S123/0.2)</f>
-        <v>35.0574125559394</v>
-      </c>
-      <c r="T125" s="26" t="n">
-        <f aca="false">(T121/0.2^2-T123/0.2)</f>
-        <v>37.8571239624739</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="0" t="s">
+      <c r="O125" s="9">
+        <f>(O121/0.2^2-O123/0.2)</f>
+        <v>17.857142857142854</v>
+      </c>
+      <c r="P125" s="9">
+        <f>(P121/0.2^2-P123/0.2)</f>
+        <v>18.88671613527918</v>
+      </c>
+      <c r="Q125" s="9">
+        <f t="shared" ref="O125:T125" si="8">(Q121/0.2^2-Q123/0.2)</f>
+        <v>22.244978831160811</v>
+      </c>
+      <c r="R125" s="9">
+        <f t="shared" si="8"/>
+        <v>28.419139097843104</v>
+      </c>
+      <c r="S125" s="9">
+        <f t="shared" si="8"/>
+        <v>35.057412555939408</v>
+      </c>
+      <c r="T125" s="9">
+        <f t="shared" si="8"/>
+        <v>37.85712396247385</v>
+      </c>
+    </row>
+    <row r="126" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
         <v>63</v>
       </c>
-      <c r="C126" s="1" t="n">
+      <c r="C126">
         <v>4</v>
       </c>
-      <c r="E126" s="23"/>
-      <c r="F126" s="27" t="n">
+      <c r="E126" s="20"/>
+      <c r="F126" s="20">
         <v>0</v>
       </c>
-      <c r="G126" s="27" t="n">
+      <c r="G126" s="20">
         <v>0.2</v>
       </c>
-      <c r="H126" s="23" t="n">
+      <c r="H126" s="20">
         <v>0.4</v>
       </c>
-      <c r="I126" s="23" t="n">
+      <c r="I126" s="20">
         <v>0.6</v>
       </c>
-      <c r="J126" s="23" t="n">
+      <c r="J126" s="20">
         <v>0.8</v>
       </c>
-      <c r="K126" s="23" t="n">
+      <c r="K126" s="20">
         <v>1</v>
       </c>
-      <c r="M126" s="22" t="s">
+      <c r="M126" t="s">
         <v>49</v>
       </c>
-      <c r="O126" s="26" t="n">
-        <f aca="false">(O121/0.2^2+O122/0.2)</f>
-        <v>37.8571428571429</v>
-      </c>
-      <c r="P126" s="26" t="n">
-        <f aca="false">(P121/0.2^2+P122/0.2)</f>
-        <v>35.0707997550398</v>
-      </c>
-      <c r="Q126" s="26" t="n">
-        <f aca="false">(Q121/0.2^2+Q122/0.2)</f>
-        <v>28.4374350923013</v>
-      </c>
-      <c r="R126" s="26" t="n">
-        <f aca="false">(R121/0.2^2+R122/0.2)</f>
-        <v>22.2569784722833</v>
-      </c>
-      <c r="S126" s="26" t="n">
-        <f aca="false">(S121/0.2^2+S122/0.2)</f>
-        <v>18.8920640105532</v>
-      </c>
-      <c r="T126" s="26" t="n">
-        <f aca="false">(T121/0.2^2+T122/0.2)</f>
-        <v>17.8571493279231</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="0" t="s">
+      <c r="O126" s="9">
+        <f>(O121/0.2^2+O122/0.2)</f>
+        <v>37.857142857142854</v>
+      </c>
+      <c r="P126" s="9">
+        <f t="shared" ref="O126:T126" si="9">(P121/0.2^2+P122/0.2)</f>
+        <v>35.070799755039829</v>
+      </c>
+      <c r="Q126" s="9">
+        <f t="shared" si="9"/>
+        <v>28.437435092301293</v>
+      </c>
+      <c r="R126" s="9">
+        <f t="shared" si="9"/>
+        <v>22.256978472283258</v>
+      </c>
+      <c r="S126" s="9">
+        <f t="shared" si="9"/>
+        <v>18.892064010553206</v>
+      </c>
+      <c r="T126" s="9">
+        <f t="shared" si="9"/>
+        <v>17.857149327923057</v>
+      </c>
+    </row>
+    <row r="127" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
         <v>64</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" t="s">
         <v>65</v>
       </c>
-      <c r="E127" s="23" t="s">
+      <c r="E127" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F127" s="24" t="n">
-        <f aca="false">10*EXP(-4*F126)</f>
+      <c r="F127" s="21">
+        <f t="shared" ref="F127:K127" si="10">10*EXP(-4*F126)</f>
         <v>10</v>
       </c>
-      <c r="G127" s="24" t="n">
-        <f aca="false">10*EXP(-4*G126)</f>
-        <v>4.49328964117222</v>
-      </c>
-      <c r="H127" s="24" t="n">
-        <f aca="false">10*EXP(-4*H126)</f>
-        <v>2.01896517994655</v>
-      </c>
-      <c r="I127" s="24" t="n">
-        <f aca="false">10*EXP(-4*I126)</f>
-        <v>0.907179532894125</v>
-      </c>
-      <c r="J127" s="24" t="n">
-        <f aca="false">10*EXP(-4*J126)</f>
-        <v>0.407622039783662</v>
-      </c>
-      <c r="K127" s="24" t="n">
-        <f aca="false">10*EXP(-4*K126)</f>
-        <v>0.183156388887342</v>
-      </c>
-      <c r="M127" s="22" t="s">
+      <c r="G127" s="21">
+        <f>10*EXP(-4*G126)</f>
+        <v>4.4932896411722156</v>
+      </c>
+      <c r="H127" s="21">
+        <f t="shared" si="10"/>
+        <v>2.0189651799465538</v>
+      </c>
+      <c r="I127" s="21">
+        <f t="shared" si="10"/>
+        <v>0.90717953289412512</v>
+      </c>
+      <c r="J127" s="21">
+        <f t="shared" si="10"/>
+        <v>0.40762203978366213</v>
+      </c>
+      <c r="K127" s="21">
+        <f t="shared" si="10"/>
+        <v>0.18315638888734179</v>
+      </c>
+      <c r="M127" t="s">
         <v>50</v>
       </c>
-      <c r="O127" s="26" t="n">
-        <f aca="false">((2*O121)/0.2^2+1+O122/0.2-O123/0.2)</f>
-        <v>56.7142857142857</v>
-      </c>
-      <c r="P127" s="26" t="n">
-        <f aca="false">((2*P121)/0.2^2+1+P122/0.2-P123/0.2)</f>
-        <v>54.957515890319</v>
-      </c>
-      <c r="Q127" s="26" t="n">
-        <f aca="false">((2*Q121)/0.2^2+1+Q122/0.2-Q123/0.2)</f>
+      <c r="O127" s="9">
+        <f>((2*O121)/0.2^2+1+O122/0.2-O123/0.2)</f>
+        <v>56.714285714285708</v>
+      </c>
+      <c r="P127" s="9">
+        <f t="shared" ref="O127:T127" si="11">((2*P121)/0.2^2+1+P122/0.2-P123/0.2)</f>
+        <v>54.957515890319002</v>
+      </c>
+      <c r="Q127" s="9">
+        <f t="shared" si="11"/>
         <v>51.6824139234621</v>
       </c>
-      <c r="R127" s="26" t="n">
-        <f aca="false">((2*R121)/0.2^2+1+R122/0.2-R123/0.2)</f>
-        <v>51.6761175701264</v>
-      </c>
-      <c r="S127" s="26" t="n">
-        <f aca="false">((2*S121)/0.2^2+1+S122/0.2-S123/0.2)</f>
-        <v>54.9494765664926</v>
-      </c>
-      <c r="T127" s="26" t="n">
-        <f aca="false">((2*T121)/0.2^2+1+T122/0.2-T123/0.2)</f>
-        <v>56.7142732903969</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="0" t="s">
+      <c r="R127" s="9">
+        <f t="shared" si="11"/>
+        <v>51.676117570126365</v>
+      </c>
+      <c r="S127" s="9">
+        <f t="shared" si="11"/>
+        <v>54.949476566492621</v>
+      </c>
+      <c r="T127" s="9">
+        <f t="shared" si="11"/>
+        <v>56.714273290396903</v>
+      </c>
+    </row>
+    <row r="128" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
         <v>67</v>
       </c>
-      <c r="F128" s="24" t="n">
+      <c r="F128" s="21">
         <v>10</v>
       </c>
-      <c r="G128" s="24" t="n">
-        <v>4.36586576221462</v>
-      </c>
-      <c r="H128" s="28" t="n">
-        <v>3.35339450984373</v>
-      </c>
-      <c r="I128" s="28" t="n">
-        <v>2.60832125772092</v>
-      </c>
-      <c r="J128" s="28" t="n">
-        <v>1.7333957286522</v>
-      </c>
-      <c r="K128" s="24" t="n">
+      <c r="G128" s="21">
+        <v>4.3658657622146197</v>
+      </c>
+      <c r="H128" s="21">
+        <v>3.3533945098437301</v>
+      </c>
+      <c r="I128" s="21">
+        <v>2.6083212577209198</v>
+      </c>
+      <c r="J128" s="21">
+        <v>1.7333957286521999</v>
+      </c>
+      <c r="K128" s="21">
         <v>0.18</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="0" t="s">
+    <row r="129" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
         <v>68</v>
       </c>
-      <c r="F129" s="24" t="n">
+      <c r="F129" s="21">
         <v>10</v>
       </c>
-      <c r="G129" s="24" t="n">
-        <v>4.46892176756984</v>
-      </c>
-      <c r="H129" s="28" t="n">
-        <v>3.48147538342862</v>
-      </c>
-      <c r="I129" s="28" t="n">
-        <v>2.71120290712082</v>
-      </c>
-      <c r="J129" s="28" t="n">
+      <c r="G129" s="21">
+        <v>4.4689217675698396</v>
+      </c>
+      <c r="H129" s="21">
+        <v>3.4814753834286201</v>
+      </c>
+      <c r="I129" s="21">
+        <v>2.7112029071208199</v>
+      </c>
+      <c r="J129" s="21">
         <v>1.78351945493744</v>
       </c>
-      <c r="K129" s="24" t="n">
+      <c r="K129" s="21">
         <v>0.18</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="0" t="s">
+    <row r="130" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
         <v>69</v>
       </c>
-      <c r="F130" s="24" t="n">
+      <c r="F130" s="21">
         <v>10</v>
       </c>
-      <c r="G130" s="24" t="n">
-        <v>4.47829527373849</v>
-      </c>
-      <c r="H130" s="28" t="n">
-        <v>3.48985605339688</v>
-      </c>
-      <c r="I130" s="28" t="n">
-        <v>2.71650120510137</v>
-      </c>
-      <c r="J130" s="28" t="n">
-        <v>1.7854144902348</v>
-      </c>
-      <c r="K130" s="24" t="n">
+      <c r="G130" s="21">
+        <v>4.4782952737384898</v>
+      </c>
+      <c r="H130" s="21">
+        <v>3.4898560533968799</v>
+      </c>
+      <c r="I130" s="21">
+        <v>2.7165012051013702</v>
+      </c>
+      <c r="J130" s="21">
+        <v>1.7854144902347999</v>
+      </c>
+      <c r="K130" s="21">
         <v>0.18</v>
       </c>
-      <c r="M130" s="22" t="s">
+      <c r="M130" t="s">
         <v>36</v>
       </c>
-      <c r="N130" s="26" t="n">
+      <c r="N130" s="9">
         <v>0</v>
       </c>
-      <c r="O130" s="26" t="n">
-        <f aca="false">O126/(O127-N130*O125)</f>
-        <v>0.667506297229219</v>
-      </c>
-      <c r="P130" s="26" t="n">
-        <f aca="false">P126/(P127-O130*P125)</f>
-        <v>0.828108008512154</v>
-      </c>
-      <c r="Q130" s="26" t="n">
-        <f aca="false">Q126/(Q127-P130*Q125)</f>
+      <c r="O130" s="9">
+        <f>O126/(O127-N130*O125)</f>
+        <v>0.66750629722921917</v>
+      </c>
+      <c r="P130" s="9">
+        <f>P126/(P127-O130*P125)</f>
+        <v>0.82810800851215349</v>
+      </c>
+      <c r="Q130" s="9">
+        <f>Q126/(Q127-P130*Q125)</f>
         <v>0.854974016689248</v>
       </c>
-      <c r="R130" s="26" t="n">
-        <f aca="false">R126/(R127-Q130*R125)</f>
-        <v>0.812936608035631</v>
-      </c>
-      <c r="S130" s="26" t="n">
-        <f aca="false">S126/(S127-R130*S125)</f>
-        <v>0.714255120145218</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="0" t="s">
+      <c r="R130" s="9">
+        <f>R126/(R127-Q130*R125)</f>
+        <v>0.81293660803563106</v>
+      </c>
+      <c r="S130" s="9">
+        <f>S126/(S127-R130*S125)</f>
+        <v>0.71425512014521808</v>
+      </c>
+    </row>
+    <row r="131" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
         <v>70</v>
       </c>
-      <c r="F131" s="0"/>
-      <c r="G131" s="0"/>
-      <c r="M131" s="22" t="s">
+      <c r="M131" t="s">
         <v>37</v>
       </c>
-      <c r="N131" s="26" t="n">
+      <c r="N131" s="9">
         <v>10</v>
       </c>
-      <c r="O131" s="26" t="n">
-        <f aca="false">(O125*N131+F127)/(O127-O125*N130)</f>
-        <v>3.32493702770781</v>
-      </c>
-      <c r="P131" s="26" t="n">
-        <f aca="false">(P125*O131+G127)/(P127-P125*O130)</f>
-        <v>1.58889291291234</v>
-      </c>
-      <c r="Q131" s="26" t="n">
-        <f aca="false">(Q125*P131+H127)/(Q127-Q125*P130)</f>
-        <v>1.12334760731412</v>
-      </c>
-      <c r="R131" s="26" t="n">
-        <f aca="false">(R125*Q131+I127)/(R127-R125*Q130)</f>
-        <v>1.19918041368695</v>
-      </c>
-      <c r="S131" s="26" t="n">
-        <f aca="false">(S125*R131+J127)/(S127-S125*R130)</f>
-        <v>1.60482980702606</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="0" t="s">
+      <c r="O131" s="9">
+        <f>(O125*N131+F127)/(O127-O125*N130)</f>
+        <v>3.3249370277078087</v>
+      </c>
+      <c r="P131" s="9">
+        <f>(P125*O131+G127)/(P127-P125*O130)</f>
+        <v>1.5888929129123428</v>
+      </c>
+      <c r="Q131" s="9">
+        <f>(Q125*P131+H127)/(Q127-Q125*P130)</f>
+        <v>1.1233476073141231</v>
+      </c>
+      <c r="R131" s="9">
+        <f>(R125*Q131+I127)/(R127-R125*Q130)</f>
+        <v>1.1991804136869531</v>
+      </c>
+      <c r="S131" s="9">
+        <f>(S125*R131+J127)/(S127-S125*R130)</f>
+        <v>1.6048298070260587</v>
+      </c>
+    </row>
+    <row r="132" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
         <v>71</v>
       </c>
-      <c r="F132" s="0"/>
-      <c r="G132" s="0"/>
-      <c r="M132" s="22" t="s">
+      <c r="M132" t="s">
         <v>72</v>
       </c>
-      <c r="O132" s="22" t="n">
-        <f aca="false">P130*P132+P131</f>
-        <v>4.36586576221462</v>
-      </c>
-      <c r="P132" s="22" t="n">
-        <f aca="false">Q130*Q132+Q131</f>
-        <v>3.35339450984373</v>
-      </c>
-      <c r="Q132" s="22" t="n">
-        <f aca="false">R130*R132+R131</f>
-        <v>2.60832125772092</v>
-      </c>
-      <c r="R132" s="22" t="n">
-        <f aca="false">S130*S132+S131</f>
-        <v>1.7333957286522</v>
-      </c>
-      <c r="S132" s="0" t="n">
+      <c r="O132">
+        <f>P130*P132+P131</f>
+        <v>4.3658657622146242</v>
+      </c>
+      <c r="P132">
+        <f>Q130*Q132+Q131</f>
+        <v>3.3533945098437314</v>
+      </c>
+      <c r="Q132">
+        <f>R130*R132+R131</f>
+        <v>2.608321257720922</v>
+      </c>
+      <c r="R132">
+        <f>S130*S132+S131</f>
+        <v>1.7333957286521979</v>
+      </c>
+      <c r="S132">
         <v>0.18</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="0" t="s">
+    <row r="133" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="0" t="s">
+    <row r="134" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
         <v>74</v>
       </c>
-      <c r="M134" s="22" t="s">
+      <c r="M134" t="s">
         <v>36</v>
       </c>
-      <c r="N134" s="26" t="n">
+      <c r="N134" s="9">
         <v>0</v>
       </c>
-      <c r="O134" s="26" t="n">
-        <v>0.667506297229219</v>
-      </c>
-      <c r="P134" s="26" t="n">
-        <v>0.828108008512154</v>
-      </c>
-      <c r="Q134" s="26" t="n">
+      <c r="O134" s="9">
+        <v>0.66750629722921895</v>
+      </c>
+      <c r="P134" s="9">
+        <v>0.82810800851215405</v>
+      </c>
+      <c r="Q134" s="9">
         <v>0.854974016689248</v>
       </c>
-      <c r="R134" s="26" t="n">
-        <v>0.812936608035631</v>
-      </c>
-      <c r="S134" s="26" t="n">
-        <v>0.714255120145218</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M135" s="22" t="s">
+      <c r="R134" s="9">
+        <v>0.81293660803563095</v>
+      </c>
+      <c r="S134" s="9">
+        <v>0.71425512014521797</v>
+      </c>
+    </row>
+    <row r="135" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="M135" t="s">
         <v>37</v>
       </c>
-      <c r="N135" s="26" t="n">
+      <c r="N135" s="9">
         <v>10</v>
       </c>
-      <c r="O135" s="26" t="n">
-        <f aca="false">(O125*N131+F128)/(O127-O125*N130)</f>
-        <v>3.32493702770781</v>
-      </c>
-      <c r="P135" s="26" t="n">
-        <f aca="false">(P125*O131+G128)/(P127-P125*O130)</f>
-        <v>1.58588412111468</v>
-      </c>
-      <c r="Q135" s="26" t="n">
-        <f aca="false">(Q125*P131+H128)/(Q127-Q125*P130)</f>
-        <v>1.16346734386797</v>
-      </c>
-      <c r="R135" s="26" t="n">
-        <f aca="false">(R125*Q131+I128)/(R127-R125*Q130)</f>
-        <v>1.26131465105842</v>
-      </c>
-      <c r="S135" s="26" t="n">
-        <f aca="false">(S125*R131+J128)/(S127-S125*R130)</f>
-        <v>1.6549535333113</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M136" s="22" t="s">
+      <c r="O135" s="9">
+        <f>(O125*N131+F128)/(O127-O125*N130)</f>
+        <v>3.3249370277078087</v>
+      </c>
+      <c r="P135" s="9">
+        <f>(P125*O131+G128)/(P127-P125*O130)</f>
+        <v>1.585884121114679</v>
+      </c>
+      <c r="Q135" s="9">
+        <f>(Q125*P131+H128)/(Q127-Q125*P130)</f>
+        <v>1.1634673438679659</v>
+      </c>
+      <c r="R135" s="9">
+        <f>(R125*Q131+I128)/(R127-R125*Q130)</f>
+        <v>1.2613146510584246</v>
+      </c>
+      <c r="S135" s="9">
+        <f>(S125*R131+J128)/(S127-S125*R130)</f>
+        <v>1.6549535333112968</v>
+      </c>
+    </row>
+    <row r="136" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="M136" t="s">
         <v>72</v>
       </c>
-      <c r="O136" s="22" t="n">
-        <f aca="false">P134*P136+P135</f>
-        <v>4.46892176756984</v>
-      </c>
-      <c r="P136" s="22" t="n">
-        <f aca="false">Q134*Q136+Q135</f>
-        <v>3.48147538342862</v>
-      </c>
-      <c r="Q136" s="22" t="n">
-        <f aca="false">R134*R136+R135</f>
-        <v>2.71120290712082</v>
-      </c>
-      <c r="R136" s="22" t="n">
-        <f aca="false">S134*S136+S135</f>
-        <v>1.78351945493744</v>
-      </c>
-      <c r="S136" s="0" t="n">
+      <c r="O136">
+        <f>P134*P136+P135</f>
+        <v>4.4689217675698423</v>
+      </c>
+      <c r="P136">
+        <f>Q134*Q136+Q135</f>
+        <v>3.4814753834286205</v>
+      </c>
+      <c r="Q136">
+        <f>R134*R136+R135</f>
+        <v>2.7112029071208212</v>
+      </c>
+      <c r="R136">
+        <f>S134*S136+S135</f>
+        <v>1.783519454937436</v>
+      </c>
+      <c r="S136">
         <v>0.18</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M138" s="22" t="s">
+    <row r="138" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="M138" t="s">
         <v>36</v>
       </c>
-      <c r="N138" s="26" t="n">
+      <c r="N138" s="9">
         <v>0</v>
       </c>
-      <c r="O138" s="26" t="n">
-        <v>0.667506297229219</v>
-      </c>
-      <c r="P138" s="26" t="n">
-        <v>0.828108008512154</v>
-      </c>
-      <c r="Q138" s="26" t="n">
+      <c r="O138" s="9">
+        <v>0.66750629722921895</v>
+      </c>
+      <c r="P138" s="9">
+        <v>0.82810800851215405</v>
+      </c>
+      <c r="Q138" s="9">
         <v>0.854974016689248</v>
       </c>
-      <c r="R138" s="26" t="n">
-        <v>0.812936608035631</v>
-      </c>
-      <c r="S138" s="26" t="n">
-        <v>0.714255120145218</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M139" s="22" t="s">
+      <c r="R138" s="9">
+        <v>0.81293660803563095</v>
+      </c>
+      <c r="S138" s="9">
+        <v>0.71425512014521797</v>
+      </c>
+    </row>
+    <row r="139" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="M139" t="s">
         <v>37</v>
       </c>
-      <c r="N139" s="26" t="n">
+      <c r="N139" s="9">
         <v>10</v>
       </c>
-      <c r="O139" s="26" t="n">
-        <f aca="false">(O125*N131+F129)/(O127-O125*N130)</f>
-        <v>3.32493702770781</v>
-      </c>
-      <c r="P139" s="26" t="n">
-        <f aca="false">(P125*O131+G129)/(P127-P125*O130)</f>
+      <c r="O139" s="9">
+        <f>(O125*N131+F129)/(O127-O125*N130)</f>
+        <v>3.3249370277078087</v>
+      </c>
+      <c r="P139" s="9">
+        <f>(P125*O131+G129)/(P127-P125*O130)</f>
         <v>1.58831752736592</v>
       </c>
-      <c r="Q139" s="26" t="n">
-        <f aca="false">(Q125*P131+H129)/(Q127-Q125*P130)</f>
-        <v>1.16731810673018</v>
-      </c>
-      <c r="R139" s="26" t="n">
-        <f aca="false">(R125*Q131+I129)/(R127-R125*Q130)</f>
-        <v>1.26507240547223</v>
-      </c>
-      <c r="S139" s="26" t="n">
-        <f aca="false">(S125*R131+J129)/(S127-S125*R130)</f>
-        <v>1.65684856860866</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M140" s="22" t="s">
+      <c r="Q139" s="9">
+        <f>(Q125*P131+H129)/(Q127-Q125*P130)</f>
+        <v>1.1673181067301759</v>
+      </c>
+      <c r="R139" s="9">
+        <f>(R125*Q131+I129)/(R127-R125*Q130)</f>
+        <v>1.2650724054722331</v>
+      </c>
+      <c r="S139" s="9">
+        <f>(S125*R131+J129)/(S127-S125*R130)</f>
+        <v>1.6568485686086574</v>
+      </c>
+    </row>
+    <row r="140" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="M140" t="s">
         <v>72</v>
       </c>
-      <c r="O140" s="22" t="n">
-        <f aca="false">P138*P140+P139</f>
-        <v>4.47829527373849</v>
-      </c>
-      <c r="P140" s="22" t="n">
-        <f aca="false">Q138*Q140+Q139</f>
-        <v>3.48985605339688</v>
-      </c>
-      <c r="Q140" s="22" t="n">
-        <f aca="false">R138*R140+R139</f>
-        <v>2.71650120510137</v>
-      </c>
-      <c r="R140" s="22" t="n">
-        <f aca="false">S138*S140+S139</f>
-        <v>1.7854144902348</v>
-      </c>
-      <c r="S140" s="0" t="n">
+      <c r="O140">
+        <f>P138*P140+P139</f>
+        <v>4.478295273738496</v>
+      </c>
+      <c r="P140">
+        <f>Q138*Q140+Q139</f>
+        <v>3.4898560533968803</v>
+      </c>
+      <c r="Q140">
+        <f>R138*R140+R139</f>
+        <v>2.7165012051013737</v>
+      </c>
+      <c r="R140">
+        <f>S138*S140+S139</f>
+        <v>1.7854144902347966</v>
+      </c>
+      <c r="S140">
         <v>0.18</v>
       </c>
     </row>
@@ -5673,13 +5885,8 @@
     <mergeCell ref="A89:T89"/>
     <mergeCell ref="B118:U118"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/mathematical physics/Book 1.xlsx
+++ b/mathematical physics/Book 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\university-labs\mathematical physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D261C35F-BD96-4DC3-8026-CF660213D0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DF50C85-3127-4FFB-A006-C7F9B99E443E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="85">
   <si>
     <t>a=</t>
   </si>
@@ -155,6 +155,12 @@
     <t>T</t>
   </si>
   <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>F*-1</t>
+  </si>
+  <si>
     <t>N=</t>
   </si>
   <si>
@@ -261,6 +267,30 @@
   </si>
   <si>
     <t>f(x)=0</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>K(x)=</t>
+  </si>
+  <si>
+    <t>a_0*exp(-a_1*x)</t>
+  </si>
+  <si>
+    <t>A_1=</t>
+  </si>
+  <si>
+    <t>A^2=</t>
+  </si>
+  <si>
+    <t>Lab #6</t>
+  </si>
+  <si>
+    <t>Lab #4</t>
+  </si>
+  <si>
+    <t>tau</t>
   </si>
 </sst>
 </file>
@@ -271,7 +301,7 @@
     <numFmt numFmtId="164" formatCode="dd\-mmm"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +338,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -341,7 +377,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -379,15 +415,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -396,9 +423,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyProtection="1"/>
@@ -433,12 +460,16 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Excel Built-in Bad" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
@@ -660,7 +691,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F5E9-47F6-8BA9-298DF7D12AD7}"/>
+              <c16:uniqueId val="{00000000-2439-4509-BBD6-537993F648FF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -749,7 +780,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F5E9-47F6-8BA9-298DF7D12AD7}"/>
+              <c16:uniqueId val="{00000001-2439-4509-BBD6-537993F648FF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -846,7 +877,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F5E9-47F6-8BA9-298DF7D12AD7}"/>
+              <c16:uniqueId val="{00000002-2439-4509-BBD6-537993F648FF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -943,7 +974,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F5E9-47F6-8BA9-298DF7D12AD7}"/>
+              <c16:uniqueId val="{00000003-2439-4509-BBD6-537993F648FF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -963,11 +994,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="26723876"/>
-        <c:axId val="87192848"/>
+        <c:axId val="63143477"/>
+        <c:axId val="14293435"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="26723876"/>
+        <c:axId val="63143477"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1000,7 +1031,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87192848"/>
+        <c:crossAx val="14293435"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1008,7 +1039,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87192848"/>
+        <c:axId val="14293435"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1048,7 +1079,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26723876"/>
+        <c:crossAx val="63143477"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1241,7 +1272,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4DB4-4D93-A118-6369658E07C0}"/>
+              <c16:uniqueId val="{00000000-5DC4-4915-87E5-86465A05E8FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1332,7 +1363,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4DB4-4D93-A118-6369658E07C0}"/>
+              <c16:uniqueId val="{00000001-5DC4-4915-87E5-86465A05E8FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1423,7 +1454,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4DB4-4D93-A118-6369658E07C0}"/>
+              <c16:uniqueId val="{00000002-5DC4-4915-87E5-86465A05E8FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1514,7 +1545,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4DB4-4D93-A118-6369658E07C0}"/>
+              <c16:uniqueId val="{00000003-5DC4-4915-87E5-86465A05E8FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1605,7 +1636,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4DB4-4D93-A118-6369658E07C0}"/>
+              <c16:uniqueId val="{00000004-5DC4-4915-87E5-86465A05E8FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1696,7 +1727,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-4DB4-4D93-A118-6369658E07C0}"/>
+              <c16:uniqueId val="{00000005-5DC4-4915-87E5-86465A05E8FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1716,11 +1747,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="40623820"/>
-        <c:axId val="75075550"/>
+        <c:axId val="5519128"/>
+        <c:axId val="94725618"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40623820"/>
+        <c:axId val="5519128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1753,7 +1784,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75075550"/>
+        <c:crossAx val="94725618"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1761,7 +1792,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75075550"/>
+        <c:axId val="94725618"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1801,7 +1832,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40623820"/>
+        <c:crossAx val="5519128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1949,7 +1980,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-705A-4A96-A976-C930B20D9976}"/>
+              <c16:uniqueId val="{00000000-0EB2-4DB7-A24C-0CCBC3FA32D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2029,7 +2060,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-705A-4A96-A976-C930B20D9976}"/>
+              <c16:uniqueId val="{00000001-0EB2-4DB7-A24C-0CCBC3FA32D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2109,7 +2140,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-705A-4A96-A976-C930B20D9976}"/>
+              <c16:uniqueId val="{00000002-0EB2-4DB7-A24C-0CCBC3FA32D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2189,7 +2220,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-705A-4A96-A976-C930B20D9976}"/>
+              <c16:uniqueId val="{00000003-0EB2-4DB7-A24C-0CCBC3FA32D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2269,7 +2300,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-705A-4A96-A976-C930B20D9976}"/>
+              <c16:uniqueId val="{00000004-0EB2-4DB7-A24C-0CCBC3FA32D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2349,7 +2380,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-705A-4A96-A976-C930B20D9976}"/>
+              <c16:uniqueId val="{00000005-0EB2-4DB7-A24C-0CCBC3FA32D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2369,11 +2400,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="53483356"/>
-        <c:axId val="28312818"/>
+        <c:axId val="44562794"/>
+        <c:axId val="6767807"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="53483356"/>
+        <c:axId val="44562794"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2405,7 +2436,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28312818"/>
+        <c:crossAx val="6767807"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2413,7 +2444,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="28312818"/>
+        <c:axId val="6767807"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2454,7 +2485,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53483356"/>
+        <c:crossAx val="44562794"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2607,7 +2638,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7093-4C2A-943B-99D280921849}"/>
+              <c16:uniqueId val="{00000000-F76E-4DC5-A08B-5BD7F3C76A63}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2693,7 +2724,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7093-4C2A-943B-99D280921849}"/>
+              <c16:uniqueId val="{00000001-F76E-4DC5-A08B-5BD7F3C76A63}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2779,7 +2810,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7093-4C2A-943B-99D280921849}"/>
+              <c16:uniqueId val="{00000002-F76E-4DC5-A08B-5BD7F3C76A63}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2865,7 +2896,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7093-4C2A-943B-99D280921849}"/>
+              <c16:uniqueId val="{00000003-F76E-4DC5-A08B-5BD7F3C76A63}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2885,11 +2916,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="61881727"/>
-        <c:axId val="41118470"/>
+        <c:axId val="63215233"/>
+        <c:axId val="46508690"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61881727"/>
+        <c:axId val="63215233"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2921,7 +2952,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41118470"/>
+        <c:crossAx val="46508690"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2929,7 +2960,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41118470"/>
+        <c:axId val="46508690"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2970,7 +3001,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61881727"/>
+        <c:crossAx val="63215233"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3039,9 +3070,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>383400</xdr:colOff>
+      <xdr:colOff>383040</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3075,9 +3106,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>21960</xdr:colOff>
+      <xdr:colOff>21600</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
+      <xdr:rowOff>79560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3111,9 +3142,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>294120</xdr:colOff>
+      <xdr:colOff>293760</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
+      <xdr:rowOff>6120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3147,9 +3178,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>251280</xdr:colOff>
+      <xdr:colOff>250920</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3183,9 +3214,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>432360</xdr:colOff>
+      <xdr:colOff>432000</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:rowOff>152640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3205,7 +3236,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="17130240"/>
-          <a:ext cx="4072680" cy="739440"/>
+          <a:ext cx="4078080" cy="739080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3226,9 +3257,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>740925</xdr:colOff>
+      <xdr:colOff>740520</xdr:colOff>
       <xdr:row>113</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3248,7 +3279,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="685800" y="20193120"/>
-          <a:ext cx="5335920" cy="1494360"/>
+          <a:ext cx="5198400" cy="1494000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3439,10 +3470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U140"/>
+  <dimension ref="A1:AI165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O131" sqref="O131"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="J133" sqref="J133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3451,6 +3482,7 @@
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="6" max="6" width="10.140625" customWidth="1"/>
     <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
@@ -3980,28 +4012,28 @@
       <c r="F22" s="5"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -4375,28 +4407,28 @@
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="23"/>
+      <c r="M56" s="23"/>
+      <c r="N56" s="23"/>
+      <c r="O56" s="23"/>
+      <c r="P56" s="23"/>
+      <c r="Q56" s="23"/>
+      <c r="R56" s="23"/>
+      <c r="S56" s="23"/>
+      <c r="T56" s="23"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
@@ -4752,31 +4784,200 @@
         <v>160</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A89" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
-      <c r="R89" s="1"/>
-      <c r="S89" s="1"/>
-      <c r="T89" s="1"/>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B89" s="23"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="23"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="23"/>
+      <c r="L89" s="23"/>
+      <c r="M89" s="23"/>
+      <c r="N89" s="23"/>
+      <c r="O89" s="23"/>
+      <c r="P89" s="23"/>
+      <c r="Q89" s="23"/>
+      <c r="R89" s="23"/>
+      <c r="S89" s="23"/>
+      <c r="T89" s="23"/>
+    </row>
+    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="F90" t="s">
+        <v>83</v>
+      </c>
+      <c r="P90" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q90" s="9"/>
+      <c r="R90" s="9"/>
+      <c r="S90" s="9"/>
+      <c r="T90" s="9"/>
+      <c r="U90" s="9"/>
+      <c r="V90" s="9"/>
+      <c r="W90" s="9"/>
+      <c r="X90" s="9"/>
+      <c r="Y90" s="9"/>
+      <c r="Z90" s="9"/>
+      <c r="AA90" s="9"/>
+      <c r="AB90" s="9"/>
+      <c r="AC90" s="9"/>
+      <c r="AD90" s="9"/>
+      <c r="AE90" s="9"/>
+    </row>
+    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="P91" s="9"/>
+      <c r="Q91" s="9">
+        <f>-1/$F$101*J99-Q102*(K99-J99)+Q101*(J99-I99)</f>
+        <v>-1.5178265970931082</v>
+      </c>
+      <c r="R91" s="9">
+        <f t="shared" ref="R91:T91" si="4">-1/$F$101*K99-R102*(L99-K99)+R101*(K99-J99)</f>
+        <v>-3.7498629294028709</v>
+      </c>
+      <c r="S91" s="9">
+        <f t="shared" si="4"/>
+        <v>-7.4800323514084388</v>
+      </c>
+      <c r="T91" s="9">
+        <f t="shared" si="4"/>
+        <v>-12.708317295145044</v>
+      </c>
+      <c r="U91" s="9"/>
+      <c r="V91" s="9">
+        <f>-1/$F$101*J100-Q102*(K100-J100)+Q101*(J100-I100)</f>
+        <v>-1.9180074912387171</v>
+      </c>
+      <c r="W91" s="9">
+        <f t="shared" ref="W91:X91" si="5">-1/$F$101*K100-R102*(L100-K100)+R101*(K100-J100)</f>
+        <v>-4.2717845410901143</v>
+      </c>
+      <c r="X91" s="9">
+        <f t="shared" si="5"/>
+        <v>-7.9812353934836233</v>
+      </c>
+      <c r="Y91" s="9">
+        <f>-1/$F$101*M100-T102*(N100-M100)+T101*(M100-L100)</f>
+        <v>-13.07649816891254</v>
+      </c>
+      <c r="Z91" s="9"/>
+      <c r="AA91" s="9">
+        <f>-1/$F$101*J101-Q102*(K101-J101)+Q101*(J101-I101)</f>
+        <v>-2.2290888584457211</v>
+      </c>
+      <c r="AB91" s="9">
+        <f t="shared" ref="AB91:AC91" si="6">-1/$F$101*K101-R102*(L101-K101)+R101*(K101-J101)</f>
+        <v>-4.7345649047186384</v>
+      </c>
+      <c r="AC91" s="9">
+        <f t="shared" si="6"/>
+        <v>-8.4348734281076698</v>
+      </c>
+      <c r="AD91" s="9">
+        <f>-1/$F$101*M101-T102*(N101-M101)+T101*(M101-L101)</f>
+        <v>-13.376725295907514</v>
+      </c>
+      <c r="AE91" s="9"/>
+    </row>
+    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="P92" s="9"/>
+      <c r="Q92" s="9"/>
+      <c r="R92" s="9"/>
+      <c r="S92" s="9"/>
+      <c r="T92" s="9"/>
+      <c r="U92" s="9"/>
+      <c r="V92" s="9"/>
+      <c r="W92" s="9"/>
+      <c r="X92" s="9"/>
+      <c r="Y92" s="9"/>
+      <c r="Z92" s="9"/>
+      <c r="AA92" s="9"/>
+      <c r="AB92" s="9"/>
+      <c r="AC92" s="9"/>
+      <c r="AD92" s="9"/>
+      <c r="AE92" s="9"/>
+    </row>
+    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="P93" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q93" s="9">
+        <f>Q91*-1</f>
+        <v>1.5178265970931082</v>
+      </c>
+      <c r="R93" s="9">
+        <f>R91*-1</f>
+        <v>3.7498629294028709</v>
+      </c>
+      <c r="S93" s="9">
+        <f>S91*-1</f>
+        <v>7.4800323514084388</v>
+      </c>
+      <c r="T93" s="9">
+        <f>T91*-1</f>
+        <v>12.708317295145044</v>
+      </c>
+      <c r="U93" s="9"/>
+      <c r="V93" s="9">
+        <f>V91*-1</f>
+        <v>1.9180074912387171</v>
+      </c>
+      <c r="W93" s="9">
+        <f>W91*-1</f>
+        <v>4.2717845410901143</v>
+      </c>
+      <c r="X93" s="9">
+        <f>X91*-1</f>
+        <v>7.9812353934836233</v>
+      </c>
+      <c r="Y93" s="9">
+        <f>Y91*-1</f>
+        <v>13.07649816891254</v>
+      </c>
+      <c r="Z93" s="9"/>
+      <c r="AA93" s="9">
+        <f>AA91*-1</f>
+        <v>2.2290888584457211</v>
+      </c>
+      <c r="AB93" s="9">
+        <f>AB91*-1</f>
+        <v>4.7345649047186384</v>
+      </c>
+      <c r="AC93" s="9">
+        <f>AC91*-1</f>
+        <v>8.4348734281076698</v>
+      </c>
+      <c r="AD93" s="9">
+        <f>AD91*-1</f>
+        <v>13.376725295907514</v>
+      </c>
+      <c r="AE93" s="9"/>
+    </row>
+    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="P94" s="9"/>
+      <c r="Q94" s="9"/>
+      <c r="R94" s="9"/>
+      <c r="S94" s="9"/>
+      <c r="T94" s="9"/>
+      <c r="U94" s="9"/>
+      <c r="V94" s="9"/>
+      <c r="W94" s="9"/>
+      <c r="X94" s="9"/>
+      <c r="Y94" s="9"/>
+      <c r="Z94" s="9"/>
+      <c r="AA94" s="9"/>
+      <c r="AB94" s="9"/>
+      <c r="AC94" s="9"/>
+      <c r="AD94" s="9"/>
+      <c r="AE94" s="9"/>
+    </row>
+    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B96" s="14" t="s">
         <v>22</v>
       </c>
@@ -4784,13 +4985,13 @@
         <v>4</v>
       </c>
       <c r="E96" s="14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F96" s="15">
         <v>4</v>
       </c>
       <c r="P96" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" s="2"/>
@@ -4798,7 +4999,7 @@
       <c r="T96" s="2"/>
       <c r="U96" s="2"/>
     </row>
-    <row r="97" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B97" s="14" t="s">
         <v>24</v>
       </c>
@@ -4806,7 +5007,7 @@
         <v>1</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F97" s="16">
         <f>1/4</f>
@@ -4849,7 +5050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B98" s="14" t="s">
         <v>26</v>
       </c>
@@ -4857,28 +5058,28 @@
         <v>0.5</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F98" s="17">
         <f>C102/(C103*C101)</f>
         <v>2.4350480419022512E-2</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="18">
         <v>0</v>
       </c>
-      <c r="J98">
+      <c r="J98" s="19">
         <v>0.1</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="19">
         <v>0.2</v>
       </c>
-      <c r="L98">
+      <c r="L98" s="19">
         <v>0.3</v>
       </c>
-      <c r="M98">
+      <c r="M98" s="19">
         <v>0.4</v>
       </c>
-      <c r="N98">
+      <c r="N98" s="18">
         <v>0.5</v>
       </c>
       <c r="P98" s="2">
@@ -4900,7 +5101,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="99" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B99" s="14" t="s">
         <v>27</v>
       </c>
@@ -4908,7 +5109,7 @@
         <v>0.1</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F99" s="16">
         <f>1/4</f>
@@ -4920,66 +5121,85 @@
       <c r="H99">
         <v>0</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="18">
         <v>4</v>
       </c>
-      <c r="J99">
+      <c r="J99" s="19">
         <v>10.24</v>
       </c>
-      <c r="K99">
+      <c r="K99" s="19">
         <v>28.96</v>
       </c>
-      <c r="L99">
+      <c r="L99" s="19">
         <v>60.16</v>
       </c>
-      <c r="M99">
+      <c r="M99" s="19">
         <v>103.84</v>
       </c>
-      <c r="N99">
+      <c r="N99" s="18">
         <v>160</v>
       </c>
-      <c r="P99" s="18">
-        <f t="shared" ref="P99:U99" si="4">$F$98*EXP(-1*$F$97*P98)</f>
+      <c r="P99" s="20">
+        <f>$F$98*EXP(-$F$97*P98)</f>
         <v>2.4350480419022512E-2</v>
       </c>
-      <c r="Q99" s="18">
-        <f t="shared" si="4"/>
+      <c r="Q99" s="20">
+        <f t="shared" ref="Q99:T99" si="7">$F$98*EXP(-1*$F$97*Q98)</f>
         <v>2.3749264915324482E-2</v>
       </c>
-      <c r="R99" s="18">
-        <f t="shared" si="4"/>
+      <c r="R99" s="20">
+        <f t="shared" si="7"/>
         <v>2.316289347530269E-2</v>
       </c>
-      <c r="S99" s="18">
-        <f t="shared" si="4"/>
+      <c r="S99" s="20">
+        <f t="shared" si="7"/>
         <v>2.2590999597719107E-2</v>
       </c>
-      <c r="T99" s="18">
-        <f t="shared" si="4"/>
+      <c r="T99" s="20">
+        <f t="shared" si="7"/>
         <v>2.2033225830283519E-2</v>
       </c>
-      <c r="U99" s="18">
-        <f t="shared" si="4"/>
+      <c r="U99" s="20">
+        <f>$F$98*EXP(-1*$F$97*U98)</f>
         <v>2.1489223546234209E-2</v>
       </c>
     </row>
-    <row r="100" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B100" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C100" s="15">
         <v>3</v>
       </c>
+      <c r="E100" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F100">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
       <c r="G100">
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>44</v>
-      </c>
-      <c r="I100">
+        <v>46</v>
+      </c>
+      <c r="I100" s="18">
         <v>4</v>
       </c>
-      <c r="N100">
+      <c r="J100" s="19">
+        <v>14.315975368049266</v>
+      </c>
+      <c r="K100" s="19">
+        <v>33.423531127054098</v>
+      </c>
+      <c r="L100" s="19">
+        <v>64.421948937050246</v>
+      </c>
+      <c r="M100" s="19">
+        <v>107.4367311002399</v>
+      </c>
+      <c r="N100" s="18">
         <v>160</v>
       </c>
       <c r="P100" s="9"/>
@@ -4989,7 +5209,7 @@
       <c r="T100" s="9"/>
       <c r="U100" s="9"/>
     </row>
-    <row r="101" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B101" s="14" t="s">
         <v>30</v>
       </c>
@@ -4997,26 +5217,38 @@
         <v>11350</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F101">
-        <f>(1/2*F32)/C99^2</f>
-        <v>3.4222459639126304</v>
+        <f>(1/2*F100)/C99^2</f>
+        <v>8.3333333333333304</v>
       </c>
       <c r="G101">
         <v>2</v>
       </c>
       <c r="H101" t="s">
-        <v>46</v>
-      </c>
-      <c r="I101">
+        <v>48</v>
+      </c>
+      <c r="I101" s="18">
         <v>4</v>
       </c>
-      <c r="N101">
+      <c r="J101" s="19">
+        <v>17.279568123685152</v>
+      </c>
+      <c r="K101" s="19">
+        <v>37.526456024203128</v>
+      </c>
+      <c r="L101" s="19">
+        <v>68.400453423297037</v>
+      </c>
+      <c r="M101" s="19">
+        <v>110.22176443675019</v>
+      </c>
+      <c r="N101" s="18">
         <v>160</v>
       </c>
       <c r="P101" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q101" s="9">
         <f>1/2*(Q99+P99)</f>
@@ -5036,27 +5268,40 @@
       </c>
       <c r="U101" s="9"/>
     </row>
-    <row r="102" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B102" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C102" s="15">
         <v>35.1</v>
       </c>
+      <c r="E102" s="10"/>
       <c r="G102">
         <v>3</v>
       </c>
       <c r="H102" t="s">
-        <v>48</v>
-      </c>
-      <c r="I102">
+        <v>50</v>
+      </c>
+      <c r="I102" s="18">
         <v>4</v>
       </c>
-      <c r="N102">
+      <c r="J102" s="19">
+        <v>19.641470457932307</v>
+      </c>
+      <c r="K102" s="19">
+        <v>41.131122038214052</v>
+      </c>
+      <c r="L102" s="19">
+        <v>71.958344022944587</v>
+      </c>
+      <c r="M102" s="19">
+        <v>112.53543214832784</v>
+      </c>
+      <c r="N102" s="18">
         <v>160</v>
       </c>
       <c r="P102" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q102" s="9">
         <f>1/2*(R99+Q99)</f>
@@ -5076,7 +5321,7 @@
       </c>
       <c r="U102" s="9"/>
     </row>
-    <row r="103" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B103" s="14" t="s">
         <v>32</v>
       </c>
@@ -5084,27 +5329,27 @@
         <v>0.127</v>
       </c>
       <c r="P103" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q103" s="9">
         <f>Q101+Q102+1/$F$101</f>
-        <v>0.33971171689075724</v>
+        <v>0.16750595186248712</v>
       </c>
       <c r="R103" s="9">
         <f>R101+R102+1/$F$101</f>
-        <v>0.33853879076009463</v>
+        <v>0.16633302573182451</v>
       </c>
       <c r="S103" s="9">
         <f>S101+S102+1/$F$101</f>
-        <v>0.33739482427878237</v>
+        <v>0.16518905925051225</v>
       </c>
       <c r="T103" s="9">
         <f>T101+T102+1/$F$101</f>
-        <v>0.33627910243053033</v>
+        <v>0.16407333740226021</v>
       </c>
       <c r="U103" s="9"/>
     </row>
-    <row r="104" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B104" s="14" t="s">
         <v>4</v>
       </c>
@@ -5126,7 +5371,7 @@
       </c>
       <c r="U104" s="9"/>
     </row>
-    <row r="105" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B105" s="14" t="s">
         <v>6</v>
       </c>
@@ -5134,14 +5379,9 @@
         <f>40*4</f>
         <v>160</v>
       </c>
-      <c r="P105" s="9"/>
-      <c r="Q105" s="9"/>
-      <c r="R105" s="9"/>
-      <c r="S105" s="9"/>
-      <c r="T105" s="9"/>
       <c r="U105" s="9"/>
     </row>
-    <row r="106" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:35" x14ac:dyDescent="0.25">
       <c r="P106" s="9"/>
       <c r="Q106" s="9"/>
       <c r="R106" s="9"/>
@@ -5149,7 +5389,7 @@
       <c r="T106" s="9"/>
       <c r="U106" s="9"/>
     </row>
-    <row r="107" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:35" x14ac:dyDescent="0.25">
       <c r="P107" s="13" t="s">
         <v>35</v>
       </c>
@@ -5162,128 +5402,296 @@
       <c r="S107" s="13">
         <v>3</v>
       </c>
-      <c r="T107" s="19">
+      <c r="T107" s="13">
         <v>4</v>
       </c>
-      <c r="U107" s="19">
+      <c r="U107" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="108" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V107" s="19"/>
+      <c r="W107" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="X107" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y107" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z107" s="13">
+        <v>3</v>
+      </c>
+      <c r="AA107" s="13">
+        <v>4</v>
+      </c>
+      <c r="AB107" s="13">
+        <v>5</v>
+      </c>
+      <c r="AC107" s="19"/>
+      <c r="AD107" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE107" s="13">
+        <v>1</v>
+      </c>
+      <c r="AF107" s="13">
+        <v>2</v>
+      </c>
+      <c r="AG107" s="13">
+        <v>3</v>
+      </c>
+      <c r="AH107" s="13">
+        <v>4</v>
+      </c>
+      <c r="AI107" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="2:35" x14ac:dyDescent="0.25">
       <c r="P108" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Q108" s="12">
+      <c r="Q108" s="13">
         <v>0</v>
       </c>
-      <c r="R108" s="12">
+      <c r="R108" s="13">
         <f>Q102/(Q103-Q101*Q108)</f>
-        <v>6.9047012596437682E-2</v>
-      </c>
-      <c r="S108" s="12">
+        <v>0.14003131789949586</v>
+      </c>
+      <c r="S108" s="13">
         <f>R102/(R103-R101*R108)</f>
-        <v>6.7900390586166245E-2</v>
-      </c>
-      <c r="T108" s="12">
+        <v>0.14030766887181959</v>
+      </c>
+      <c r="T108" s="13">
         <f>S102/(S103-S101*S108)</f>
-        <v>6.6436442971900045E-2</v>
-      </c>
-      <c r="U108" s="12">
+        <v>0.13774673583450162</v>
+      </c>
+      <c r="U108" s="13">
         <f>T102/(T103-T101*T108)</f>
-        <v>6.4998312294111765E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="2:21" x14ac:dyDescent="0.25">
+        <v>0.13516295618929722</v>
+      </c>
+      <c r="V108" s="19"/>
+      <c r="W108" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="X108" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y108" s="13">
+        <v>0.14003131789949586</v>
+      </c>
+      <c r="Z108" s="13">
+        <v>0.14030766887181959</v>
+      </c>
+      <c r="AA108" s="13">
+        <v>0.13774673583450162</v>
+      </c>
+      <c r="AB108" s="13">
+        <v>0.13516295618929722</v>
+      </c>
+      <c r="AC108" s="19"/>
+      <c r="AD108" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE108" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF108" s="13">
+        <v>0.14003131789949586</v>
+      </c>
+      <c r="AG108" s="13">
+        <v>0.14030766887181959</v>
+      </c>
+      <c r="AH108" s="13">
+        <v>0.13774673583450162</v>
+      </c>
+      <c r="AI108" s="13">
+        <v>0.13516295618929722</v>
+      </c>
+    </row>
+    <row r="109" spans="2:35" x14ac:dyDescent="0.25">
       <c r="P109" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="Q109" s="12">
+      <c r="Q109" s="13">
         <f>I99</f>
         <v>4</v>
       </c>
-      <c r="R109" s="12">
-        <f>(Q101*Q109+J99)/(Q103-Q101*Q108)</f>
-        <v>30.42638501041916</v>
-      </c>
-      <c r="S109" s="12">
-        <f>(R101*R109+K99)/(R103-R101*R108)</f>
-        <v>88.073585777822487</v>
-      </c>
-      <c r="T109" s="12">
-        <f>(S101*S109+L99)/(S103-S101*S108)</f>
-        <v>185.13155801880444</v>
-      </c>
-      <c r="U109" s="12">
-        <f>(T101*T109+M99)/(T103-T101*T108)</f>
-        <v>322.4961751970576</v>
-      </c>
-    </row>
-    <row r="110" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="R109" s="13">
+        <f>(Q101*Q109+Q93)/(Q103-Q101*Q108)</f>
+        <v>9.6356342554730592</v>
+      </c>
+      <c r="S109" s="13">
+        <f>(R101*R109+R93)/(R103-R101*R108)</f>
+        <v>24.384637647517181</v>
+      </c>
+      <c r="T109" s="13">
+        <f>(S101*S109+S93)/(S103-S101*S108)</f>
+        <v>49.622889919263109</v>
+      </c>
+      <c r="U109" s="13">
+        <f>(T101*T109+T93)/(T103-T101*T108)</f>
+        <v>85.810658109952342</v>
+      </c>
+      <c r="V109" s="19"/>
+      <c r="W109" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="X109" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y109" s="13">
+        <f>(Q101*X109+V93)/(Q103-Q101*X108)</f>
+        <v>12.024689030518514</v>
+      </c>
+      <c r="Z109" s="13">
+        <f t="shared" ref="Z109:AB109" si="8">(R101*Y109+W93)/(R103-R101*Y108)</f>
+        <v>27.929347854604845</v>
+      </c>
+      <c r="AA109" s="13">
+        <f t="shared" si="8"/>
+        <v>53.217765154215343</v>
+      </c>
+      <c r="AB109" s="13">
+        <f>(T101*AA109+Y93)/(T103-T101*AA108)</f>
+        <v>88.595691446462638</v>
+      </c>
+      <c r="AC109" s="19"/>
+      <c r="AD109" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE109" s="13">
+        <v>4</v>
+      </c>
+      <c r="AF109" s="13">
+        <f>(Q101*AE109+AA93)/(Q103-Q101*AE108)</f>
+        <v>13.881825232236194</v>
+      </c>
+      <c r="AG109" s="13">
+        <f t="shared" ref="AG109:AI109" si="9">(R101*AF109+AB93)/(R103-R101*AF108)</f>
+        <v>31.034814532478265</v>
+      </c>
+      <c r="AH109" s="13">
+        <f t="shared" si="9"/>
+        <v>56.456955578787387</v>
+      </c>
+      <c r="AI109" s="13">
+        <f t="shared" si="9"/>
+        <v>90.909359158040289</v>
+      </c>
+    </row>
+    <row r="110" spans="2:35" x14ac:dyDescent="0.25">
       <c r="P110" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Q110">
+      <c r="Q110" s="19">
         <f>R108*R110+R109</f>
-        <v>37.47924765496326</v>
-      </c>
-      <c r="R110">
+        <v>14.315975368049266</v>
+      </c>
+      <c r="R110" s="19">
         <f>S108*S110+S109</f>
-        <v>102.14580442120354</v>
-      </c>
-      <c r="S110">
+        <v>33.423531127054098</v>
+      </c>
+      <c r="S110" s="19">
         <f>T108*T110+T109</f>
-        <v>207.24797783781923</v>
-      </c>
-      <c r="T110">
+        <v>64.421948937050246</v>
+      </c>
+      <c r="T110" s="19">
         <f>U108*U110+U109</f>
-        <v>332.8959051641155</v>
-      </c>
-      <c r="U110">
+        <v>107.4367311002399</v>
+      </c>
+      <c r="U110" s="19">
         <v>160</v>
       </c>
-    </row>
-    <row r="111" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V110" s="19"/>
+      <c r="W110" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="X110" s="19">
+        <f>Y108*Y110+Y109</f>
+        <v>17.279568123685152</v>
+      </c>
+      <c r="Y110" s="19">
+        <f>Z108*Z110+Z109</f>
+        <v>37.526456024203128</v>
+      </c>
+      <c r="Z110" s="19">
+        <f>AA108*AA110+AA109</f>
+        <v>68.400453423297037</v>
+      </c>
+      <c r="AA110" s="19">
+        <f>AB108*AB110+AB109</f>
+        <v>110.22176443675019</v>
+      </c>
+      <c r="AB110" s="19">
+        <v>160</v>
+      </c>
+      <c r="AC110" s="19"/>
+      <c r="AD110" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE110" s="19">
+        <f>AF108*AF110+AF109</f>
+        <v>19.641470457932307</v>
+      </c>
+      <c r="AF110" s="19">
+        <f>AG108*AG110+AG109</f>
+        <v>41.131122038214052</v>
+      </c>
+      <c r="AG110" s="19">
+        <f>AH108*AH110+AH109</f>
+        <v>71.958344022944587</v>
+      </c>
+      <c r="AH110" s="19">
+        <f>AI108*AI110+AI109</f>
+        <v>112.53543214832784</v>
+      </c>
+      <c r="AI110" s="19">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="111" spans="2:35" x14ac:dyDescent="0.25">
       <c r="P111" s="12"/>
       <c r="Q111" s="13"/>
       <c r="R111" s="13"/>
       <c r="S111" s="13"/>
     </row>
-    <row r="112" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:35" x14ac:dyDescent="0.25">
       <c r="P112" s="12"/>
       <c r="Q112" s="13"/>
       <c r="R112" s="13"/>
       <c r="S112" s="13"/>
     </row>
     <row r="118" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-      <c r="J118" s="1"/>
-      <c r="K118" s="1"/>
-      <c r="L118" s="1"/>
-      <c r="M118" s="1"/>
-      <c r="N118" s="1"/>
-      <c r="O118" s="1"/>
-      <c r="P118" s="1"/>
-      <c r="Q118" s="1"/>
-      <c r="R118" s="1"/>
-      <c r="S118" s="1"/>
-      <c r="T118" s="1"/>
-      <c r="U118" s="1"/>
+      <c r="C118" s="23"/>
+      <c r="D118" s="23"/>
+      <c r="E118" s="23"/>
+      <c r="F118" s="23"/>
+      <c r="G118" s="23"/>
+      <c r="H118" s="23"/>
+      <c r="I118" s="23"/>
+      <c r="J118" s="23"/>
+      <c r="K118" s="23"/>
+      <c r="L118" s="23"/>
+      <c r="M118" s="23"/>
+      <c r="N118" s="23"/>
+      <c r="O118" s="23"/>
+      <c r="P118" s="23"/>
+      <c r="Q118" s="23"/>
+      <c r="R118" s="23"/>
+      <c r="S118" s="23"/>
+      <c r="T118" s="23"/>
+      <c r="U118" s="23"/>
     </row>
     <row r="120" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M120" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O120">
         <v>0</v>
@@ -5305,334 +5713,334 @@
       </c>
     </row>
     <row r="121" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="E121" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F121" s="21">
+      <c r="E121" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F121" s="19">
         <v>10</v>
       </c>
       <c r="O121" s="9">
-        <f t="shared" ref="O121:T121" si="5">1/(1+1/2*0.2*ABS(4*COS(3.14*O120)))</f>
+        <f t="shared" ref="O121:T121" si="10">1/(1+1/2*0.2*ABS(4*COS(3.14*O120)))</f>
         <v>0.7142857142857143</v>
       </c>
       <c r="P121" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.75546864541116732</v>
       </c>
       <c r="Q121" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.88979915324643266</v>
       </c>
       <c r="R121" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.89027913889133048</v>
       </c>
       <c r="S121" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.75568256042212845</v>
       </c>
       <c r="T121" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.71428597311692243</v>
       </c>
     </row>
     <row r="122" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C122" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F122" s="9"/>
       <c r="M122" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O122" s="9">
-        <f t="shared" ref="O122:T122" si="6">(((4*COS(3.14*O120))+ABS(4*COS(3.14*O120))))/2</f>
+        <f t="shared" ref="O122:T122" si="11">(((4*COS(3.14*O120))+ABS(4*COS(3.14*O120))))/2</f>
         <v>4</v>
       </c>
       <c r="P122" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3.236816723952129</v>
       </c>
       <c r="Q122" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.238491252228096</v>
       </c>
       <c r="R122" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S122" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T122" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C123" t="s">
-        <v>58</v>
-      </c>
-      <c r="E123" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F123" s="21">
+        <v>60</v>
+      </c>
+      <c r="E123" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F123" s="19">
         <f>10*EXP(-4)</f>
         <v>0.18315638888734179</v>
       </c>
       <c r="M123" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O123" s="9">
-        <f>(((4*COS(3.14*O120))-ABS(4*COS(3.14*O120))))/2</f>
+        <f t="shared" ref="O123:T123" si="12">(((4*COS(3.14*O120))-ABS(4*COS(3.14*O120))))/2</f>
         <v>0</v>
       </c>
       <c r="P123" s="9">
-        <f t="shared" ref="O123:T123" si="7">(((4*COS(3.14*P120))-ABS(4*COS(3.14*P120))))/2</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q123" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R123" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-1.2324321251119694</v>
       </c>
       <c r="S123" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-3.2330697090772413</v>
       </c>
       <c r="T123" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-3.999994926910158</v>
       </c>
     </row>
     <row r="124" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C124" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="125" spans="2:21" x14ac:dyDescent="0.25">
       <c r="M125" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O125" s="9">
-        <f>(O121/0.2^2-O123/0.2)</f>
+        <f t="shared" ref="O125:T125" si="13">(O121/0.2^2-O123/0.2)</f>
         <v>17.857142857142854</v>
       </c>
       <c r="P125" s="9">
-        <f>(P121/0.2^2-P123/0.2)</f>
+        <f t="shared" si="13"/>
         <v>18.88671613527918</v>
       </c>
       <c r="Q125" s="9">
-        <f t="shared" ref="O125:T125" si="8">(Q121/0.2^2-Q123/0.2)</f>
+        <f t="shared" si="13"/>
         <v>22.244978831160811</v>
       </c>
       <c r="R125" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>28.419139097843104</v>
       </c>
       <c r="S125" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>35.057412555939408</v>
       </c>
       <c r="T125" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>37.85712396247385</v>
       </c>
     </row>
     <row r="126" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C126">
         <v>4</v>
       </c>
-      <c r="E126" s="20"/>
-      <c r="F126" s="20">
+      <c r="E126" s="18"/>
+      <c r="F126" s="18">
         <v>0</v>
       </c>
-      <c r="G126" s="20">
+      <c r="G126" s="18">
         <v>0.2</v>
       </c>
-      <c r="H126" s="20">
+      <c r="H126" s="18">
         <v>0.4</v>
       </c>
-      <c r="I126" s="20">
+      <c r="I126" s="18">
         <v>0.6</v>
       </c>
-      <c r="J126" s="20">
+      <c r="J126" s="18">
         <v>0.8</v>
       </c>
-      <c r="K126" s="20">
+      <c r="K126" s="18">
         <v>1</v>
       </c>
       <c r="M126" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O126" s="9">
-        <f>(O121/0.2^2+O122/0.2)</f>
+        <f t="shared" ref="O126:T126" si="14">(O121/0.2^2+O122/0.2)</f>
         <v>37.857142857142854</v>
       </c>
       <c r="P126" s="9">
-        <f t="shared" ref="O126:T126" si="9">(P121/0.2^2+P122/0.2)</f>
+        <f t="shared" si="14"/>
         <v>35.070799755039829</v>
       </c>
       <c r="Q126" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>28.437435092301293</v>
       </c>
       <c r="R126" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>22.256978472283258</v>
       </c>
       <c r="S126" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>18.892064010553206</v>
       </c>
       <c r="T126" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>17.857149327923057</v>
       </c>
     </row>
     <row r="127" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C127" t="s">
-        <v>65</v>
-      </c>
-      <c r="E127" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F127" s="21">
-        <f t="shared" ref="F127:K127" si="10">10*EXP(-4*F126)</f>
+        <v>67</v>
+      </c>
+      <c r="E127" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F127" s="19">
+        <f t="shared" ref="F127:K127" si="15">10*EXP(-4*F126)</f>
         <v>10</v>
       </c>
-      <c r="G127" s="21">
-        <f>10*EXP(-4*G126)</f>
+      <c r="G127" s="19">
+        <f t="shared" si="15"/>
         <v>4.4932896411722156</v>
       </c>
-      <c r="H127" s="21">
-        <f t="shared" si="10"/>
+      <c r="H127" s="19">
+        <f t="shared" si="15"/>
         <v>2.0189651799465538</v>
       </c>
-      <c r="I127" s="21">
-        <f t="shared" si="10"/>
+      <c r="I127" s="19">
+        <f t="shared" si="15"/>
         <v>0.90717953289412512</v>
       </c>
-      <c r="J127" s="21">
-        <f t="shared" si="10"/>
+      <c r="J127" s="19">
+        <f t="shared" si="15"/>
         <v>0.40762203978366213</v>
       </c>
-      <c r="K127" s="21">
-        <f t="shared" si="10"/>
+      <c r="K127" s="19">
+        <f t="shared" si="15"/>
         <v>0.18315638888734179</v>
       </c>
       <c r="M127" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O127" s="9">
-        <f>((2*O121)/0.2^2+1+O122/0.2-O123/0.2)</f>
+        <f t="shared" ref="O127:T127" si="16">((2*O121)/0.2^2+1+O122/0.2-O123/0.2)</f>
         <v>56.714285714285708</v>
       </c>
       <c r="P127" s="9">
-        <f t="shared" ref="O127:T127" si="11">((2*P121)/0.2^2+1+P122/0.2-P123/0.2)</f>
+        <f t="shared" si="16"/>
         <v>54.957515890319002</v>
       </c>
       <c r="Q127" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>51.6824139234621</v>
       </c>
       <c r="R127" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>51.676117570126365</v>
       </c>
       <c r="S127" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>54.949476566492621</v>
       </c>
       <c r="T127" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>56.714273290396903</v>
       </c>
     </row>
     <row r="128" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>67</v>
-      </c>
-      <c r="F128" s="21">
+        <v>69</v>
+      </c>
+      <c r="F128" s="19">
         <v>10</v>
       </c>
-      <c r="G128" s="21">
-        <v>4.3658657622146197</v>
-      </c>
-      <c r="H128" s="21">
-        <v>3.3533945098437301</v>
-      </c>
-      <c r="I128" s="21">
-        <v>2.6083212577209198</v>
-      </c>
-      <c r="J128" s="21">
-        <v>1.7333957286521999</v>
-      </c>
-      <c r="K128" s="21">
+      <c r="G128" s="19">
+        <v>5.6423727140453996</v>
+      </c>
+      <c r="H128" s="19">
+        <v>3.47178100934349</v>
+      </c>
+      <c r="I128" s="19">
+        <v>2.2737228442145998</v>
+      </c>
+      <c r="J128" s="19">
+        <v>1.3455090031333701</v>
+      </c>
+      <c r="K128" s="19">
         <v>0.18</v>
       </c>
     </row>
-    <row r="129" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>68</v>
-      </c>
-      <c r="F129" s="21">
+        <v>70</v>
+      </c>
+      <c r="F129" s="19">
         <v>10</v>
       </c>
-      <c r="G129" s="21">
-        <v>4.4689217675698396</v>
-      </c>
-      <c r="H129" s="21">
-        <v>3.4814753834286201</v>
-      </c>
-      <c r="I129" s="21">
-        <v>2.7112029071208199</v>
-      </c>
-      <c r="J129" s="21">
-        <v>1.78351945493744</v>
-      </c>
-      <c r="K129" s="21">
+      <c r="G129" s="19">
+        <v>5.7082172738098</v>
+      </c>
+      <c r="H129" s="19">
+        <v>3.5704236139716601</v>
+      </c>
+      <c r="I129" s="19">
+        <v>2.3600762193948799</v>
+      </c>
+      <c r="J129" s="19">
+        <v>1.3954220263957999</v>
+      </c>
+      <c r="K129" s="19">
         <v>0.18</v>
       </c>
     </row>
-    <row r="130" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>69</v>
-      </c>
-      <c r="F130" s="21">
+        <v>71</v>
+      </c>
+      <c r="F130" s="19">
         <v>10</v>
       </c>
-      <c r="G130" s="21">
-        <v>4.4782952737384898</v>
-      </c>
-      <c r="H130" s="21">
-        <v>3.4898560533968799</v>
-      </c>
-      <c r="I130" s="21">
-        <v>2.7165012051013702</v>
-      </c>
-      <c r="J130" s="21">
-        <v>1.7854144902347999</v>
-      </c>
-      <c r="K130" s="21">
+      <c r="G130" s="19">
+        <v>5.7123850355954504</v>
+      </c>
+      <c r="H130" s="19">
+        <v>3.5766673929486501</v>
+      </c>
+      <c r="I130" s="19">
+        <v>2.3657385564445499</v>
+      </c>
+      <c r="J130" s="19">
+        <v>1.39857608524521</v>
+      </c>
+      <c r="K130" s="19">
         <v>0.18</v>
       </c>
       <c r="M130" t="s">
@@ -5657,14 +6065,11 @@
         <f>R126/(R127-Q130*R125)</f>
         <v>0.81293660803563106</v>
       </c>
-      <c r="S130" s="9">
-        <f>S126/(S127-R130*S125)</f>
-        <v>0.71425512014521808</v>
-      </c>
-    </row>
-    <row r="131" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="S130" s="9"/>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M131" t="s">
         <v>37</v>
@@ -5688,46 +6093,43 @@
         <f>(R125*Q131+I127)/(R127-R125*Q130)</f>
         <v>1.1991804136869531</v>
       </c>
-      <c r="S131" s="9">
-        <f>(S125*R131+J127)/(S127-S125*R130)</f>
-        <v>1.6048298070260587</v>
-      </c>
-    </row>
-    <row r="132" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="S131" s="9"/>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M132" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="N132">
+        <f>O130*O132+O131</f>
+        <v>5.6423727140454005</v>
       </c>
       <c r="O132">
         <f>P130*P132+P131</f>
-        <v>4.3658657622146242</v>
+        <v>3.4717810093434873</v>
       </c>
       <c r="P132">
         <f>Q130*Q132+Q131</f>
-        <v>3.3533945098437314</v>
+        <v>2.2737228442146034</v>
       </c>
       <c r="Q132">
         <f>R130*R132+R131</f>
-        <v>2.608321257720922</v>
+        <v>1.3455090031333667</v>
       </c>
       <c r="R132">
-        <f>S130*S132+S131</f>
-        <v>1.7333957286521979</v>
-      </c>
-      <c r="S132">
         <v>0.18</v>
       </c>
     </row>
-    <row r="133" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="134" spans="2:19" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M134" t="s">
         <v>36</v>
@@ -5747,11 +6149,9 @@
       <c r="R134" s="9">
         <v>0.81293660803563095</v>
       </c>
-      <c r="S134" s="9">
-        <v>0.71425512014521797</v>
-      </c>
-    </row>
-    <row r="135" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="S134" s="9"/>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="M135" t="s">
         <v>37</v>
       </c>
@@ -5764,46 +6164,43 @@
       </c>
       <c r="P135" s="9">
         <f>(P125*O131+G128)/(P127-P125*O130)</f>
-        <v>1.585884121114679</v>
+        <v>1.6160255959916698</v>
       </c>
       <c r="Q135" s="9">
         <f>(Q125*P131+H128)/(Q127-Q125*P130)</f>
-        <v>1.1634673438679659</v>
+        <v>1.1670266445106068</v>
       </c>
       <c r="R135" s="9">
         <f>(R125*Q131+I128)/(R127-R125*Q130)</f>
-        <v>1.2613146510584246</v>
-      </c>
-      <c r="S135" s="9">
-        <f>(S125*R131+J128)/(S127-S125*R130)</f>
-        <v>1.6549535333112968</v>
-      </c>
-    </row>
-    <row r="136" spans="2:19" x14ac:dyDescent="0.25">
+        <v>1.2490934369493907</v>
+      </c>
+      <c r="S135" s="9"/>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="M136" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="N136">
+        <f>O134*O136+O135</f>
+        <v>5.7082172738097947</v>
       </c>
       <c r="O136">
         <f>P134*P136+P135</f>
-        <v>4.4689217675698423</v>
+        <v>3.5704236139716552</v>
       </c>
       <c r="P136">
         <f>Q134*Q136+Q135</f>
-        <v>3.4814753834286205</v>
+        <v>2.3600762193948772</v>
       </c>
       <c r="Q136">
         <f>R134*R136+R135</f>
-        <v>2.7112029071208212</v>
+        <v>1.3954220263958041</v>
       </c>
       <c r="R136">
-        <f>S134*S136+S135</f>
-        <v>1.783519454937436</v>
-      </c>
-      <c r="S136">
         <v>0.18</v>
       </c>
     </row>
-    <row r="138" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="M138" t="s">
         <v>36</v>
       </c>
@@ -5822,11 +6219,9 @@
       <c r="R138" s="9">
         <v>0.81293660803563095</v>
       </c>
-      <c r="S138" s="9">
-        <v>0.71425512014521797</v>
-      </c>
-    </row>
-    <row r="139" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="S138" s="9"/>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="M139" t="s">
         <v>37</v>
       </c>
@@ -5839,51 +6234,651 @@
       </c>
       <c r="P139" s="9">
         <f>(P125*O131+G129)/(P127-P125*O130)</f>
-        <v>1.58831752736592</v>
+        <v>1.6175803483109414</v>
       </c>
       <c r="Q139" s="9">
         <f>(Q125*P131+H129)/(Q127-Q125*P130)</f>
-        <v>1.1673181067301759</v>
+        <v>1.1699923431969299</v>
       </c>
       <c r="R139" s="9">
         <f>(R125*Q131+I129)/(R127-R125*Q130)</f>
-        <v>1.2650724054722331</v>
-      </c>
-      <c r="S139" s="9">
-        <f>(S125*R131+J129)/(S127-S125*R130)</f>
-        <v>1.6568485686086574</v>
-      </c>
-    </row>
-    <row r="140" spans="2:19" x14ac:dyDescent="0.25">
+        <v>1.2522474957987939</v>
+      </c>
+      <c r="S139" s="9"/>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="M140" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="N140">
+        <f>O138*O140+O139</f>
+        <v>5.7123850355954495</v>
       </c>
       <c r="O140">
         <f>P138*P140+P139</f>
-        <v>4.478295273738496</v>
+        <v>3.576667392948655</v>
       </c>
       <c r="P140">
         <f>Q138*Q140+Q139</f>
-        <v>3.4898560533968803</v>
+        <v>2.365738556444549</v>
       </c>
       <c r="Q140">
         <f>R138*R140+R139</f>
-        <v>2.7165012051013737</v>
+        <v>1.3985760852452074</v>
       </c>
       <c r="R140">
-        <f>S138*S140+S139</f>
-        <v>1.7854144902347966</v>
-      </c>
-      <c r="S140">
         <v>0.18</v>
       </c>
     </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A142" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B142" s="23"/>
+      <c r="C142" s="23"/>
+      <c r="D142" s="23"/>
+      <c r="E142" s="23"/>
+      <c r="F142" s="23"/>
+      <c r="G142" s="23"/>
+      <c r="H142" s="23"/>
+      <c r="I142" s="23"/>
+      <c r="J142" s="23"/>
+      <c r="K142" s="23"/>
+      <c r="L142" s="23"/>
+      <c r="M142" s="23"/>
+      <c r="N142" s="23"/>
+      <c r="O142" s="23"/>
+      <c r="P142" s="23"/>
+      <c r="Q142" s="23"/>
+      <c r="R142" s="23"/>
+      <c r="S142" s="23"/>
+      <c r="T142" s="23"/>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O144" t="s">
+        <v>77</v>
+      </c>
+      <c r="P144" s="1"/>
+      <c r="Q144" s="22">
+        <v>2</v>
+      </c>
+      <c r="R144" s="22"/>
+      <c r="S144" s="22">
+        <v>4</v>
+      </c>
+      <c r="T144" s="22"/>
+    </row>
+    <row r="145" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>78</v>
+      </c>
+      <c r="C145" t="s">
+        <v>79</v>
+      </c>
+      <c r="G145" s="18">
+        <v>0</v>
+      </c>
+      <c r="H145" s="18">
+        <v>1</v>
+      </c>
+      <c r="I145" s="18">
+        <v>2</v>
+      </c>
+      <c r="J145" s="18">
+        <v>3</v>
+      </c>
+      <c r="K145" s="18">
+        <v>4</v>
+      </c>
+      <c r="L145" s="18">
+        <v>5</v>
+      </c>
+      <c r="O145" s="9"/>
+      <c r="P145" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="Q145" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="R145" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="S145" s="13">
+        <v>0.35</v>
+      </c>
+      <c r="T145" s="13">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="146" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>80</v>
+      </c>
+      <c r="C146" s="16">
+        <f>1/4</f>
+        <v>0.25</v>
+      </c>
+      <c r="G146" s="18">
+        <v>0</v>
+      </c>
+      <c r="H146" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="I146" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="J146" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="K146" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="L146" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="O146" s="9"/>
+      <c r="P146" s="12">
+        <f>$C$147*EXP(-$C$146*P145)</f>
+        <v>2.404799389318758E-2</v>
+      </c>
+      <c r="Q146" s="12">
+        <f>$C$147*EXP(-$C$146*Q145)</f>
+        <v>2.345424680842266E-2</v>
+      </c>
+      <c r="R146" s="12">
+        <f>$C$147*EXP(-$C$146*R145)</f>
+        <v>2.2875159391413508E-2</v>
+      </c>
+      <c r="S146" s="12">
+        <f>$C$147*EXP(-$C$146*S145)</f>
+        <v>2.2310369693673598E-2</v>
+      </c>
+      <c r="T146" s="12">
+        <f>$C$147*EXP(-$C$146*T145)</f>
+        <v>2.1759524703256376E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>81</v>
+      </c>
+      <c r="C147" s="17">
+        <f>C156/(C155*C157)</f>
+        <v>2.4350480419022512E-2</v>
+      </c>
+      <c r="G147" s="18">
+        <v>4</v>
+      </c>
+      <c r="H147" s="18">
+        <v>10.24</v>
+      </c>
+      <c r="I147" s="18">
+        <v>28.96</v>
+      </c>
+      <c r="J147" s="18">
+        <v>60.16</v>
+      </c>
+      <c r="K147" s="18">
+        <v>103.84</v>
+      </c>
+      <c r="L147" s="18">
+        <v>160</v>
+      </c>
+      <c r="O147" s="9"/>
+      <c r="P147" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q147" s="22"/>
+      <c r="R147" s="22">
+        <v>3</v>
+      </c>
+      <c r="S147" s="22"/>
+      <c r="T147" s="1"/>
+    </row>
+    <row r="148" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C148" s="16"/>
+      <c r="G148" s="18">
+        <v>4</v>
+      </c>
+      <c r="H148" s="18">
+        <v>13.858328661134951</v>
+      </c>
+      <c r="I148" s="18">
+        <v>33.222529559072484</v>
+      </c>
+      <c r="J148" s="18">
+        <v>64.257265033699795</v>
+      </c>
+      <c r="K148" s="18">
+        <v>107.09655617038865</v>
+      </c>
+      <c r="L148" s="18">
+        <v>160</v>
+      </c>
+      <c r="O148" s="9"/>
+    </row>
+    <row r="149" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="G149" s="18">
+        <v>4</v>
+      </c>
+      <c r="H149" s="18">
+        <v>11.98695966293122</v>
+      </c>
+      <c r="I149" s="18">
+        <v>27.714358069514777</v>
+      </c>
+      <c r="J149" s="18">
+        <v>53.771644541344351</v>
+      </c>
+      <c r="K149" s="18">
+        <v>92.499418790558792</v>
+      </c>
+      <c r="L149" s="18">
+        <v>160</v>
+      </c>
+      <c r="O149" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="P149">
+        <f>($C$160/($C$153^2))*P146</f>
+        <v>0.40079989821979284</v>
+      </c>
+      <c r="Q149">
+        <f>($C$160/$C$153^2)*Q146</f>
+        <v>0.39090411347371085</v>
+      </c>
+      <c r="R149">
+        <f>($C$160/$C$153^2)*R146</f>
+        <v>0.38125265652355833</v>
+      </c>
+      <c r="S149">
+        <f>($C$160/$C$153^2)*S146</f>
+        <v>0.37183949489455981</v>
+      </c>
+    </row>
+    <row r="150" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B150" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C150" s="15">
+        <v>4</v>
+      </c>
+      <c r="G150" s="18">
+        <v>4</v>
+      </c>
+      <c r="H150" s="18">
+        <v>10.439686775674813</v>
+      </c>
+      <c r="I150" s="18">
+        <v>23.56387213688491</v>
+      </c>
+      <c r="J150" s="18">
+        <v>46.435309178434466</v>
+      </c>
+      <c r="K150" s="18">
+        <v>83.660984012201453</v>
+      </c>
+      <c r="L150" s="18">
+        <v>160</v>
+      </c>
+      <c r="O150" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P150" s="21">
+        <f>($C$160/$C$153^2)*Q146</f>
+        <v>0.39090411347371085</v>
+      </c>
+      <c r="Q150" s="21">
+        <f>($C$160/$C$153^2)*R146</f>
+        <v>0.38125265652355833</v>
+      </c>
+      <c r="R150" s="21">
+        <f>($C$160/$C$153^2)*S146</f>
+        <v>0.37183949489455981</v>
+      </c>
+      <c r="S150" s="21">
+        <f>($C$160/$C$153^2)*T146</f>
+        <v>0.36265874505427281</v>
+      </c>
+    </row>
+    <row r="151" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B151" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C151" s="15">
+        <v>1</v>
+      </c>
+      <c r="O151" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P151">
+        <f>($C$160/$C$153^2)*P146+($C$160/$C$153^2)*Q146+1</f>
+        <v>1.7917040116935037</v>
+      </c>
+      <c r="Q151">
+        <f>($C$160/$C$153^2)*Q146+($C$160/$C$153^2)*R146+1</f>
+        <v>1.7721567699972691</v>
+      </c>
+      <c r="R151">
+        <f>($C$160/$C$153^2)*R146+($C$160/$C$153^2)*S146+1</f>
+        <v>1.7530921514181181</v>
+      </c>
+      <c r="S151">
+        <f>($C$160/$C$153^2)*S146+($C$160/$C$153^2)*T146+1</f>
+        <v>1.7344982399488327</v>
+      </c>
+    </row>
+    <row r="152" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B152" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C152" s="15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="153" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B153" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C153" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="O153" t="s">
+        <v>36</v>
+      </c>
+      <c r="P153">
+        <v>0</v>
+      </c>
+      <c r="Q153">
+        <f>P150/(P151-P149*P153)</f>
+        <v>0.21817449250684634</v>
+      </c>
+      <c r="R153">
+        <f>Q150/(Q151-Q149*Q153)</f>
+        <v>0.22601168185648465</v>
+      </c>
+      <c r="S153">
+        <f>R150/(R151-R149*R153)</f>
+        <v>0.22306917511190164</v>
+      </c>
+      <c r="T153">
+        <f>S150/(S151-S149*S153)</f>
+        <v>0.21958659301187419</v>
+      </c>
+    </row>
+    <row r="154" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B154" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C154" s="15">
+        <v>3</v>
+      </c>
+      <c r="O154" t="s">
+        <v>37</v>
+      </c>
+      <c r="P154">
+        <v>4</v>
+      </c>
+      <c r="Q154">
+        <f>(P149*P154+H147)/(P151-P149*P153)</f>
+        <v>6.6100201347906111</v>
+      </c>
+      <c r="R154">
+        <f>(Q149*Q154+I147)/(Q151-Q149*Q153)</f>
+        <v>18.699637017308106</v>
+      </c>
+      <c r="S154">
+        <f>(R149*R154+J147)/(R151-R149*R153)</f>
+        <v>40.367324591445758</v>
+      </c>
+      <c r="T154">
+        <f>(S149*S154+K147)/(S151-S149*S153)</f>
+        <v>71.962701288488788</v>
+      </c>
+    </row>
+    <row r="155" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B155" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C155" s="15">
+        <v>11350</v>
+      </c>
+      <c r="O155" t="s">
+        <v>74</v>
+      </c>
+      <c r="P155">
+        <f>Q153*Q155+Q154</f>
+        <v>13.858328661134951</v>
+      </c>
+      <c r="Q155">
+        <f>R153*R155+R154</f>
+        <v>33.222529559072484</v>
+      </c>
+      <c r="R155">
+        <f>S153*S155+S154</f>
+        <v>64.257265033699795</v>
+      </c>
+      <c r="S155">
+        <f>T153*T155+T154</f>
+        <v>107.09655617038865</v>
+      </c>
+      <c r="T155">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="156" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B156" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C156" s="15">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="157" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B157" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C157" s="15">
+        <v>0.127</v>
+      </c>
+      <c r="O157" t="s">
+        <v>36</v>
+      </c>
+      <c r="P157">
+        <v>0</v>
+      </c>
+      <c r="Q157">
+        <v>0.12114476321107601</v>
+      </c>
+      <c r="R157">
+        <v>0.12065534699971001</v>
+      </c>
+      <c r="S157">
+        <v>0.118339568676228</v>
+      </c>
+      <c r="T157">
+        <v>0.11603063855215701</v>
+      </c>
+    </row>
+    <row r="158" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B158" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158" s="15">
+        <v>4</v>
+      </c>
+      <c r="O158" t="s">
+        <v>37</v>
+      </c>
+      <c r="P158">
+        <v>4</v>
+      </c>
+      <c r="Q158">
+        <f>(P149*P154+H148)/(P151-P149*P153)</f>
+        <v>8.6295103170528797</v>
+      </c>
+      <c r="R158">
+        <f>(Q149*Q154+I148)/(Q151-Q149*Q153)</f>
+        <v>21.226521638633812</v>
+      </c>
+      <c r="S158">
+        <f>(R149*R154+J148)/(R151-R149*R153)</f>
+        <v>42.825303218867845</v>
+      </c>
+      <c r="T158">
+        <f>(S149*S154+K148)/(S151-S149*S153)</f>
+        <v>73.934516622213678</v>
+      </c>
+    </row>
+    <row r="159" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B159" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159" s="15">
+        <f>40*4</f>
+        <v>160</v>
+      </c>
+      <c r="O159" t="s">
+        <v>74</v>
+      </c>
+      <c r="P159">
+        <f>Q157*Q159+Q158</f>
+        <v>11.98695966293122</v>
+      </c>
+      <c r="Q159">
+        <f>R157*R159+R158</f>
+        <v>27.714358069514777</v>
+      </c>
+      <c r="R159">
+        <f>S157*S159+S158</f>
+        <v>53.771644541344351</v>
+      </c>
+      <c r="S159">
+        <f>T157*T159+T158</f>
+        <v>92.499418790558792</v>
+      </c>
+      <c r="T159">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="160" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>72</v>
+      </c>
+      <c r="C160">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O161" t="s">
+        <v>36</v>
+      </c>
+      <c r="P161">
+        <v>0</v>
+      </c>
+      <c r="Q161">
+        <v>0.12114476321107601</v>
+      </c>
+      <c r="R161">
+        <v>0.12065534699971001</v>
+      </c>
+      <c r="S161">
+        <v>0.118339568676228</v>
+      </c>
+      <c r="T161">
+        <v>0.11603063855215701</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O162" t="s">
+        <v>37</v>
+      </c>
+      <c r="P162">
+        <v>4</v>
+      </c>
+      <c r="Q162">
+        <f>(P149*P154+H149)/(P151-P149*P153)</f>
+        <v>7.5850470653158197</v>
+      </c>
+      <c r="R162">
+        <f>(Q149*Q154+I149)/(Q151-Q149*Q153)</f>
+        <v>17.961203794922081</v>
+      </c>
+      <c r="S162">
+        <f>(R149*R154+J149)/(R151-R149*R153)</f>
+        <v>36.534904415401741</v>
+      </c>
+      <c r="T162">
+        <f>(S149*S154+K149)/(S151-S149*S153)</f>
+        <v>65.096081843856339</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O163" t="s">
+        <v>74</v>
+      </c>
+      <c r="P163">
+        <f>Q161*Q163+Q162</f>
+        <v>10.439686775674813</v>
+      </c>
+      <c r="Q163">
+        <f>R161*R163+R162</f>
+        <v>23.56387213688491</v>
+      </c>
+      <c r="R163">
+        <f>S161*S163+S162</f>
+        <v>46.435309178434466</v>
+      </c>
+      <c r="S163">
+        <f>T161*T163+T162</f>
+        <v>83.660984012201453</v>
+      </c>
+      <c r="T163">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A165" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B165" s="23"/>
+      <c r="C165" s="23"/>
+      <c r="D165" s="23"/>
+      <c r="E165" s="23"/>
+      <c r="F165" s="23"/>
+      <c r="G165" s="23"/>
+      <c r="H165" s="23"/>
+      <c r="I165" s="23"/>
+      <c r="J165" s="23"/>
+      <c r="K165" s="23"/>
+      <c r="L165" s="23"/>
+      <c r="M165" s="23"/>
+      <c r="N165" s="23"/>
+      <c r="O165" s="23"/>
+      <c r="P165" s="23"/>
+      <c r="Q165" s="23"/>
+      <c r="R165" s="23"/>
+      <c r="S165" s="23"/>
+      <c r="T165" s="23"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="10">
     <mergeCell ref="A24:T24"/>
     <mergeCell ref="A56:T56"/>
     <mergeCell ref="A89:T89"/>
     <mergeCell ref="B118:U118"/>
+    <mergeCell ref="A142:T142"/>
+    <mergeCell ref="Q144:R144"/>
+    <mergeCell ref="S144:T144"/>
+    <mergeCell ref="P147:Q147"/>
+    <mergeCell ref="R147:S147"/>
+    <mergeCell ref="A165:T165"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/mathematical physics/Book 1.xlsx
+++ b/mathematical physics/Book 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\university-labs\mathematical physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DF50C85-3127-4FFB-A006-C7F9B99E443E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFD2CD1-61DF-4421-8DEF-E39479D8B416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="87">
   <si>
     <t>a=</t>
   </si>
@@ -291,6 +291,12 @@
   </si>
   <si>
     <t>tau</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>gamma</t>
   </si>
 </sst>
 </file>
@@ -423,7 +429,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -464,12 +470,13 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Excel Built-in Bad" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
@@ -3070,7 +3077,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>383040</xdr:colOff>
+      <xdr:colOff>275366</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>86040</xdr:rowOff>
     </xdr:to>
@@ -3214,7 +3221,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>432000</xdr:colOff>
+      <xdr:colOff>324326</xdr:colOff>
       <xdr:row>93</xdr:row>
       <xdr:rowOff>152640</xdr:rowOff>
     </xdr:to>
@@ -3257,7 +3264,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>740520</xdr:colOff>
+      <xdr:colOff>638262</xdr:colOff>
       <xdr:row>113</xdr:row>
       <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
@@ -3287,6 +3294,138 @@
         <a:ln w="0">
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>768626</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>169582</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D19FA238-C615-225A-3776-79F0919CADA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="31661100"/>
+          <a:ext cx="2019300" cy="1464982"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>72160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>475032</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>52240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{980B4314-42B1-7CFF-4CAA-8F3401CCE6CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="34362160"/>
+          <a:ext cx="4863353" cy="742080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>175414</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>144850</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>185963</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F138511A-5AA3-341E-62DE-6D8259606C3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="175414" y="36105352"/>
+          <a:ext cx="4357757" cy="656611"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3470,14 +3609,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI165"/>
+  <dimension ref="A1:AI189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="J133" sqref="J133"/>
+    <sheetView tabSelected="1" topLeftCell="J165" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="H178" sqref="H178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="6" max="6" width="10.140625" customWidth="1"/>
@@ -4012,28 +4152,28 @@
       <c r="F22" s="5"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -4407,28 +4547,28 @@
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="23"/>
-      <c r="M56" s="23"/>
-      <c r="N56" s="23"/>
-      <c r="O56" s="23"/>
-      <c r="P56" s="23"/>
-      <c r="Q56" s="23"/>
-      <c r="R56" s="23"/>
-      <c r="S56" s="23"/>
-      <c r="T56" s="23"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="22"/>
+      <c r="T56" s="22"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
@@ -4785,28 +4925,28 @@
       </c>
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A89" s="23" t="s">
+      <c r="A89" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B89" s="23"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="23"/>
-      <c r="J89" s="23"/>
-      <c r="K89" s="23"/>
-      <c r="L89" s="23"/>
-      <c r="M89" s="23"/>
-      <c r="N89" s="23"/>
-      <c r="O89" s="23"/>
-      <c r="P89" s="23"/>
-      <c r="Q89" s="23"/>
-      <c r="R89" s="23"/>
-      <c r="S89" s="23"/>
-      <c r="T89" s="23"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="22"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="22"/>
+      <c r="M89" s="22"/>
+      <c r="N89" s="22"/>
+      <c r="O89" s="22"/>
+      <c r="P89" s="22"/>
+      <c r="Q89" s="22"/>
+      <c r="R89" s="22"/>
+      <c r="S89" s="22"/>
+      <c r="T89" s="22"/>
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.25">
       <c r="F90" t="s">
@@ -5545,7 +5685,7 @@
         <v>12.024689030518514</v>
       </c>
       <c r="Z109" s="13">
-        <f t="shared" ref="Z109:AB109" si="8">(R101*Y109+W93)/(R103-R101*Y108)</f>
+        <f t="shared" ref="Z109:AA109" si="8">(R101*Y109+W93)/(R103-R101*Y108)</f>
         <v>27.929347854604845</v>
       </c>
       <c r="AA109" s="13">
@@ -5663,28 +5803,28 @@
       <c r="S112" s="13"/>
     </row>
     <row r="118" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B118" s="23" t="s">
+      <c r="B118" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C118" s="23"/>
-      <c r="D118" s="23"/>
-      <c r="E118" s="23"/>
-      <c r="F118" s="23"/>
-      <c r="G118" s="23"/>
-      <c r="H118" s="23"/>
-      <c r="I118" s="23"/>
-      <c r="J118" s="23"/>
-      <c r="K118" s="23"/>
-      <c r="L118" s="23"/>
-      <c r="M118" s="23"/>
-      <c r="N118" s="23"/>
-      <c r="O118" s="23"/>
-      <c r="P118" s="23"/>
-      <c r="Q118" s="23"/>
-      <c r="R118" s="23"/>
-      <c r="S118" s="23"/>
-      <c r="T118" s="23"/>
-      <c r="U118" s="23"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="22"/>
+      <c r="E118" s="22"/>
+      <c r="F118" s="22"/>
+      <c r="G118" s="22"/>
+      <c r="H118" s="22"/>
+      <c r="I118" s="22"/>
+      <c r="J118" s="22"/>
+      <c r="K118" s="22"/>
+      <c r="L118" s="22"/>
+      <c r="M118" s="22"/>
+      <c r="N118" s="22"/>
+      <c r="O118" s="22"/>
+      <c r="P118" s="22"/>
+      <c r="Q118" s="22"/>
+      <c r="R118" s="22"/>
+      <c r="S118" s="22"/>
+      <c r="T118" s="22"/>
+      <c r="U118" s="22"/>
     </row>
     <row r="120" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
@@ -6271,28 +6411,28 @@
       </c>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A142" s="23" t="s">
+      <c r="A142" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B142" s="23"/>
-      <c r="C142" s="23"/>
-      <c r="D142" s="23"/>
-      <c r="E142" s="23"/>
-      <c r="F142" s="23"/>
-      <c r="G142" s="23"/>
-      <c r="H142" s="23"/>
-      <c r="I142" s="23"/>
-      <c r="J142" s="23"/>
-      <c r="K142" s="23"/>
-      <c r="L142" s="23"/>
-      <c r="M142" s="23"/>
-      <c r="N142" s="23"/>
-      <c r="O142" s="23"/>
-      <c r="P142" s="23"/>
-      <c r="Q142" s="23"/>
-      <c r="R142" s="23"/>
-      <c r="S142" s="23"/>
-      <c r="T142" s="23"/>
+      <c r="B142" s="22"/>
+      <c r="C142" s="22"/>
+      <c r="D142" s="22"/>
+      <c r="E142" s="22"/>
+      <c r="F142" s="22"/>
+      <c r="G142" s="22"/>
+      <c r="H142" s="22"/>
+      <c r="I142" s="22"/>
+      <c r="J142" s="22"/>
+      <c r="K142" s="22"/>
+      <c r="L142" s="22"/>
+      <c r="M142" s="22"/>
+      <c r="N142" s="22"/>
+      <c r="O142" s="22"/>
+      <c r="P142" s="22"/>
+      <c r="Q142" s="22"/>
+      <c r="R142" s="22"/>
+      <c r="S142" s="22"/>
+      <c r="T142" s="22"/>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
@@ -6304,14 +6444,14 @@
         <v>77</v>
       </c>
       <c r="P144" s="1"/>
-      <c r="Q144" s="22">
+      <c r="Q144" s="23">
         <v>2</v>
       </c>
-      <c r="R144" s="22"/>
-      <c r="S144" s="22">
+      <c r="R144" s="23"/>
+      <c r="S144" s="23">
         <v>4</v>
       </c>
-      <c r="T144" s="22"/>
+      <c r="T144" s="23"/>
     </row>
     <row r="145" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
@@ -6430,14 +6570,14 @@
         <v>160</v>
       </c>
       <c r="O147" s="9"/>
-      <c r="P147" s="22">
+      <c r="P147" s="23">
         <v>1</v>
       </c>
-      <c r="Q147" s="22"/>
-      <c r="R147" s="22">
+      <c r="Q147" s="23"/>
+      <c r="R147" s="23">
         <v>3</v>
       </c>
-      <c r="S147" s="22"/>
+      <c r="S147" s="23"/>
       <c r="T147" s="1"/>
     </row>
     <row r="148" spans="2:20" x14ac:dyDescent="0.25">
@@ -6844,41 +6984,686 @@
       </c>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A165" s="23" t="s">
+      <c r="A165" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B165" s="23"/>
-      <c r="C165" s="23"/>
-      <c r="D165" s="23"/>
-      <c r="E165" s="23"/>
-      <c r="F165" s="23"/>
-      <c r="G165" s="23"/>
-      <c r="H165" s="23"/>
-      <c r="I165" s="23"/>
-      <c r="J165" s="23"/>
-      <c r="K165" s="23"/>
-      <c r="L165" s="23"/>
-      <c r="M165" s="23"/>
-      <c r="N165" s="23"/>
-      <c r="O165" s="23"/>
-      <c r="P165" s="23"/>
-      <c r="Q165" s="23"/>
-      <c r="R165" s="23"/>
-      <c r="S165" s="23"/>
-      <c r="T165" s="23"/>
+      <c r="B165" s="22"/>
+      <c r="C165" s="22"/>
+      <c r="D165" s="22"/>
+      <c r="E165" s="22"/>
+      <c r="F165" s="22"/>
+      <c r="G165" s="22"/>
+      <c r="H165" s="22"/>
+      <c r="I165" s="22"/>
+      <c r="J165" s="22"/>
+      <c r="K165" s="22"/>
+      <c r="L165" s="22"/>
+      <c r="M165" s="22"/>
+      <c r="N165" s="22"/>
+      <c r="O165" s="22"/>
+      <c r="P165" s="22"/>
+      <c r="Q165" s="22"/>
+      <c r="R165" s="22"/>
+      <c r="S165" s="22"/>
+      <c r="T165" s="22"/>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F166" t="s">
+        <v>85</v>
+      </c>
+      <c r="G166">
+        <f>SIN(G167+0.2)</f>
+        <v>0.2955202066613396</v>
+      </c>
+      <c r="H166">
+        <f t="shared" ref="H166:O166" si="17">SIN(H167+0.2)</f>
+        <v>0.38941834230865052</v>
+      </c>
+      <c r="I166">
+        <f t="shared" si="17"/>
+        <v>0.47942553860420301</v>
+      </c>
+      <c r="J166">
+        <f t="shared" si="17"/>
+        <v>0.56464247339503548</v>
+      </c>
+      <c r="K166">
+        <f t="shared" si="17"/>
+        <v>0.64421768723769102</v>
+      </c>
+      <c r="L166">
+        <f t="shared" si="17"/>
+        <v>0.71735609089952279</v>
+      </c>
+      <c r="M166">
+        <f t="shared" si="17"/>
+        <v>0.7833269096274833</v>
+      </c>
+      <c r="N166">
+        <f t="shared" si="17"/>
+        <v>0.8414709848078965</v>
+      </c>
+      <c r="O166">
+        <f t="shared" si="17"/>
+        <v>0.89120736006143542</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E167" s="18"/>
+      <c r="F167" s="18">
+        <v>0</v>
+      </c>
+      <c r="G167" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="H167" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="I167" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="J167" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="K167" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="L167" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="M167" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="N167" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="O167" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="P167" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E168" s="18">
+        <v>0</v>
+      </c>
+      <c r="F168" s="24">
+        <f>E168-0.5</f>
+        <v>-0.5</v>
+      </c>
+      <c r="G168" s="24">
+        <f>(G167+0.5)*(G167-1)</f>
+        <v>-0.54</v>
+      </c>
+      <c r="H168" s="24">
+        <f t="shared" ref="H168:O168" si="18">(H167+0.5)*(H167-1)</f>
+        <v>-0.55999999999999994</v>
+      </c>
+      <c r="I168" s="24">
+        <f t="shared" si="18"/>
+        <v>-0.55999999999999994</v>
+      </c>
+      <c r="J168" s="24">
+        <f t="shared" si="18"/>
+        <v>-0.54</v>
+      </c>
+      <c r="K168" s="24">
+        <f t="shared" si="18"/>
+        <v>-0.5</v>
+      </c>
+      <c r="L168" s="24">
+        <f t="shared" si="18"/>
+        <v>-0.44000000000000006</v>
+      </c>
+      <c r="M168" s="24">
+        <f t="shared" si="18"/>
+        <v>-0.36000000000000004</v>
+      </c>
+      <c r="N168" s="24">
+        <f t="shared" si="18"/>
+        <v>-0.25999999999999995</v>
+      </c>
+      <c r="O168" s="24">
+        <f t="shared" si="18"/>
+        <v>-0.13999999999999996</v>
+      </c>
+      <c r="P168" s="24">
+        <f>3*E168</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E169" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="F169" s="24">
+        <f t="shared" ref="F169:F178" si="19">E169-0.5</f>
+        <v>-0.45</v>
+      </c>
+      <c r="G169" s="24">
+        <f>G168+$B$177*G166+($B$177^2/2)*(H168-2*G168+F168)/$B$176^2</f>
+        <v>-0.52272398966693301</v>
+      </c>
+      <c r="H169" s="24">
+        <f t="shared" ref="H169:O169" si="20">H168+$B$177*H166+($B$177^2/2)*(I168-2*H168+G168)/$B$176^2</f>
+        <v>-0.53802908288456752</v>
+      </c>
+      <c r="I169" s="24">
+        <f t="shared" si="20"/>
+        <v>-0.53352872306978982</v>
+      </c>
+      <c r="J169" s="24">
+        <f t="shared" si="20"/>
+        <v>-0.50926787633024817</v>
+      </c>
+      <c r="K169" s="24">
+        <f t="shared" si="20"/>
+        <v>-0.46528911563811542</v>
+      </c>
+      <c r="L169" s="24">
+        <f t="shared" si="20"/>
+        <v>-0.40163219545502393</v>
+      </c>
+      <c r="M169" s="24">
+        <f t="shared" si="20"/>
+        <v>-0.31833365451862589</v>
+      </c>
+      <c r="N169" s="24">
+        <f t="shared" si="20"/>
+        <v>-0.21542645075960515</v>
+      </c>
+      <c r="O169" s="24">
+        <f>O168+$B$177*O166+($B$177^2/2)*(P168-2*O168+N168)/$B$176^2</f>
+        <v>-9.2939631996928174E-2</v>
+      </c>
+      <c r="P169" s="24">
+        <f>3*E169</f>
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E170" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F170" s="24">
+        <f t="shared" si="19"/>
+        <v>-0.4</v>
+      </c>
+      <c r="G170" s="24">
+        <f>2*G169-G168+$B$178*(H169-2*G169+F169)</f>
+        <v>-0.49109325522154135</v>
+      </c>
+      <c r="H170" s="24">
+        <f>2*H169-H168+$B$178*(I169-2*H169+G169)</f>
+        <v>-0.51110680251103202</v>
+      </c>
+      <c r="I170" s="24">
+        <f t="shared" ref="H170:O170" si="21">2*I169-I168+$B$178*(J169-2*I169+H169)</f>
+        <v>-0.50211732440838874</v>
+      </c>
+      <c r="J170" s="24">
+        <f t="shared" si="21"/>
+        <v>-0.47360627417234852</v>
+      </c>
+      <c r="K170" s="24">
+        <f t="shared" si="21"/>
+        <v>-0.42565869140349116</v>
+      </c>
+      <c r="L170" s="24">
+        <f t="shared" si="21"/>
+        <v>-0.35835398572172117</v>
+      </c>
+      <c r="M170" s="24">
+        <f t="shared" si="21"/>
+        <v>-0.27176514333159607</v>
+      </c>
+      <c r="N170" s="24">
+        <f t="shared" si="21"/>
+        <v>-0.16595799776829628</v>
+      </c>
+      <c r="O170" s="24">
+        <f t="shared" si="21"/>
+        <v>-1.5766060685293584E-2</v>
+      </c>
+      <c r="P170" s="24">
+        <f t="shared" ref="P169:P178" si="22">3*E170</f>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E171" s="18">
+        <v>0.15</v>
+      </c>
+      <c r="F171" s="24">
+        <f t="shared" si="19"/>
+        <v>-0.35</v>
+      </c>
+      <c r="G171" s="24">
+        <f>2*G170-G169+$B$178*(H170-2*G170+F170)</f>
+        <v>-0.44169259379313702</v>
+      </c>
+      <c r="H171" s="24">
+        <f t="shared" ref="H171:H178" si="23">2*H170-H169+$B$178*(I170-2*H170+G170)</f>
+        <v>-0.476933765789463</v>
+      </c>
+      <c r="I171" s="24">
+        <f t="shared" ref="I171:I178" si="24">2*I170-I169+$B$178*(J170-2*I170+H170)</f>
+        <v>-0.46582553271363847</v>
+      </c>
+      <c r="J171" s="24">
+        <f t="shared" ref="J171:J178" si="25">2*J170-J169+$B$178*(K170-2*J170+I170)</f>
+        <v>-0.43308553888124457</v>
+      </c>
+      <c r="K171" s="24">
+        <f t="shared" ref="K171:K178" si="26">2*K170-K169+$B$178*(L170-2*K170+J170)</f>
+        <v>-0.38118898644063876</v>
+      </c>
+      <c r="L171" s="24">
+        <f t="shared" ref="L171:L178" si="27">2*L170-L169+$B$178*(M170-2*L170+K170)</f>
+        <v>-0.31025474181132962</v>
+      </c>
+      <c r="M171" s="24">
+        <f t="shared" ref="M171:M178" si="28">2*M170-M169+$B$178*(N170-2*M170+L170)</f>
+        <v>-0.22039205635127257</v>
+      </c>
+      <c r="N171" s="24">
+        <f t="shared" ref="N171:N178" si="29">2*N170-N169+$B$178*(O170-2*N170+M170)</f>
+        <v>-0.10539334689706169</v>
+      </c>
+      <c r="O171" s="24">
+        <f t="shared" ref="O171:O178" si="30">2*O170-O169+$B$178*(P170-2*O170+N170)</f>
+        <v>0.10280104152691373</v>
+      </c>
+      <c r="P171" s="24">
+        <f t="shared" si="22"/>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E172" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="F172" s="24">
+        <f t="shared" si="19"/>
+        <v>-0.3</v>
+      </c>
+      <c r="G172" s="24">
+        <f t="shared" ref="G171:G178" si="31">2*G171-G170+$B$178*(H171-2*G171+F171)</f>
+        <v>-0.37817907691552993</v>
+      </c>
+      <c r="H172" s="24">
+        <f t="shared" si="23"/>
+        <v>-0.43117337779985637</v>
+      </c>
+      <c r="I172" s="24">
+        <f t="shared" si="24"/>
+        <v>-0.42412580082974582</v>
+      </c>
+      <c r="J172" s="24">
+        <f t="shared" si="25"/>
+        <v>-0.38777566393808766</v>
+      </c>
+      <c r="K172" s="24">
+        <f t="shared" si="26"/>
+        <v>-0.33195985843061049</v>
+      </c>
+      <c r="L172" s="24">
+        <f t="shared" si="27"/>
+        <v>-0.25742338769325107</v>
+      </c>
+      <c r="M172" s="24">
+        <f t="shared" si="28"/>
+        <v>-0.16273496337241061</v>
+      </c>
+      <c r="N172" s="24">
+        <f t="shared" si="29"/>
+        <v>-2.1529776283385954E-2</v>
+      </c>
+      <c r="O172" s="24">
+        <f t="shared" si="30"/>
+        <v>0.25611928625139879</v>
+      </c>
+      <c r="P172" s="24">
+        <f t="shared" si="22"/>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E173" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="F173" s="24">
+        <f t="shared" si="19"/>
+        <v>-0.25</v>
+      </c>
+      <c r="G173" s="24">
+        <f t="shared" si="31"/>
+        <v>-0.30836936603012199</v>
+      </c>
+      <c r="H173" s="24">
+        <f t="shared" si="23"/>
+        <v>-0.37040252034664051</v>
+      </c>
+      <c r="I173" s="24">
+        <f>2*I172-I171+$B$178*(J172-2*I172+H172)</f>
+        <v>-0.37510042896546625</v>
+      </c>
+      <c r="J173" s="24">
+        <f t="shared" si="25"/>
+        <v>-0.33759937184097599</v>
+      </c>
+      <c r="K173" s="24">
+        <f t="shared" si="26"/>
+        <v>-0.27805056411311169</v>
+      </c>
+      <c r="L173" s="24">
+        <f t="shared" si="27"/>
+        <v>-0.19955404517930225</v>
+      </c>
+      <c r="M173" s="24">
+        <f t="shared" si="28"/>
+        <v>-9.3448679701502599E-2</v>
+      </c>
+      <c r="N173" s="24">
+        <f t="shared" si="29"/>
+        <v>9.6444763191729801E-2</v>
+      </c>
+      <c r="O173" s="24">
+        <f t="shared" si="30"/>
+        <v>0.42599544377933801</v>
+      </c>
+      <c r="P173" s="24">
+        <f t="shared" si="22"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E174" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="F174" s="24">
+        <f t="shared" si="19"/>
+        <v>-0.2</v>
+      </c>
+      <c r="G174" s="24">
+        <f t="shared" si="31"/>
+        <v>-0.2394756022163132</v>
+      </c>
+      <c r="H174" s="24">
+        <f t="shared" si="23"/>
+        <v>-0.29529785146900145</v>
+      </c>
+      <c r="I174" s="24">
+        <f t="shared" si="24"/>
+        <v>-0.31552531566535769</v>
+      </c>
+      <c r="J174" s="24">
+        <f t="shared" si="25"/>
+        <v>-0.28191114209302082</v>
+      </c>
+      <c r="K174" s="24">
+        <f t="shared" si="26"/>
+        <v>-0.21940434199412662</v>
+      </c>
+      <c r="L174" s="24">
+        <f t="shared" si="27"/>
+        <v>-0.13478249102935588</v>
+      </c>
+      <c r="M174" s="24">
+        <f t="shared" si="28"/>
+        <v>-3.215376676736395E-3</v>
+      </c>
+      <c r="N174" s="24">
+        <f t="shared" si="29"/>
+        <v>0.24933361209043953</v>
+      </c>
+      <c r="O174" s="24">
+        <f t="shared" si="30"/>
+        <v>0.59448507021554065</v>
+      </c>
+      <c r="P174" s="24">
+        <f t="shared" si="22"/>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E175" s="18">
+        <v>0.35</v>
+      </c>
+      <c r="F175" s="24">
+        <f t="shared" si="19"/>
+        <v>-0.15000000000000002</v>
+      </c>
+      <c r="G175" s="24">
+        <f t="shared" si="31"/>
+        <v>-0.17466850016159818</v>
+      </c>
+      <c r="H175" s="24">
+        <f t="shared" si="23"/>
+        <v>-0.21129448632727937</v>
+      </c>
+      <c r="I175" s="24">
+        <f t="shared" si="24"/>
+        <v>-0.24248979292307585</v>
+      </c>
+      <c r="J175" s="24">
+        <f t="shared" si="25"/>
+        <v>-0.21899975571342631</v>
+      </c>
+      <c r="K175" s="24">
+        <f t="shared" si="26"/>
+        <v>-0.15522935715867242</v>
+      </c>
+      <c r="L175" s="24">
+        <f t="shared" si="27"/>
+        <v>-5.8274621032447321E-2</v>
+      </c>
+      <c r="M175" s="24">
+        <f t="shared" si="28"/>
+        <v>0.11726339495166893</v>
+      </c>
+      <c r="N175" s="24">
+        <f t="shared" si="29"/>
+        <v>0.42537307832863058</v>
+      </c>
+      <c r="O175" s="24">
+        <f t="shared" si="30"/>
+        <v>0.7530655645665828</v>
+      </c>
+      <c r="P175" s="24">
+        <f t="shared" si="22"/>
+        <v>1.0499999999999998</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>2</v>
+      </c>
+      <c r="B176">
+        <v>0.1</v>
+      </c>
+      <c r="E176" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="F176" s="24">
+        <f t="shared" si="19"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="G176" s="24">
+        <f t="shared" si="31"/>
+        <v>-0.11285076960790393</v>
+      </c>
+      <c r="H176" s="24">
+        <f t="shared" si="23"/>
+        <v>-0.12593345129308611</v>
+      </c>
+      <c r="I176" s="24">
+        <f t="shared" si="24"/>
+        <v>-0.15578293422943251</v>
+      </c>
+      <c r="J176" s="24">
+        <f t="shared" si="25"/>
+        <v>-0.14601827899755571</v>
+      </c>
+      <c r="K176" s="24">
+        <f t="shared" si="26"/>
+        <v>-8.2758287930350422E-2</v>
+      </c>
+      <c r="L176" s="24">
+        <f t="shared" si="27"/>
+        <v>3.7879068928934029E-2</v>
+      </c>
+      <c r="M176" s="24">
+        <f t="shared" si="28"/>
+        <v>0.2708850834282856</v>
+      </c>
+      <c r="N176" s="24">
+        <f t="shared" si="29"/>
+        <v>0.60630824528206939</v>
+      </c>
+      <c r="O176" s="24">
+        <f t="shared" si="30"/>
+        <v>0.90395654621649113</v>
+      </c>
+      <c r="P176" s="24">
+        <f t="shared" si="22"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>28</v>
+      </c>
+      <c r="B177">
+        <v>0.05</v>
+      </c>
+      <c r="E177" s="18">
+        <v>0.45</v>
+      </c>
+      <c r="F177" s="24">
+        <f t="shared" si="19"/>
+        <v>-4.9999999999999989E-2</v>
+      </c>
+      <c r="G177" s="24">
+        <f t="shared" si="31"/>
+        <v>-5.1091017073529227E-2</v>
+      </c>
+      <c r="H177" s="24">
+        <f t="shared" si="23"/>
+        <v>-4.4764116571683901E-2</v>
+      </c>
+      <c r="I177" s="24">
+        <f t="shared" si="24"/>
+        <v>-5.9172540993733376E-2</v>
+      </c>
+      <c r="J177" s="24">
+        <f t="shared" si="25"/>
+        <v>-5.9662968322852984E-2</v>
+      </c>
+      <c r="K177" s="24">
+        <f t="shared" si="26"/>
+        <v>4.0571227459913692E-3</v>
+      </c>
+      <c r="L177" s="24">
+        <f t="shared" si="27"/>
+        <v>0.16212492330033215</v>
+      </c>
+      <c r="M177" s="24">
+        <f t="shared" si="28"/>
+        <v>0.45011105874351032</v>
+      </c>
+      <c r="N177" s="24">
+        <f t="shared" si="29"/>
+        <v>0.77779969700566765</v>
+      </c>
+      <c r="O177" s="24">
+        <f t="shared" si="30"/>
+        <v>1.0544463160786715</v>
+      </c>
+      <c r="P177" s="24">
+        <f t="shared" si="22"/>
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>86</v>
+      </c>
+      <c r="B178">
+        <f>B177^2/B176^2</f>
+        <v>0.25</v>
+      </c>
+      <c r="E178" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="F178" s="24">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G178" s="24">
+        <f t="shared" si="31"/>
+        <v>1.2523214854689112E-2</v>
+      </c>
+      <c r="H178" s="24">
+        <f t="shared" si="23"/>
+        <v>3.1221386918744612E-2</v>
+      </c>
+      <c r="I178" s="24">
+        <f t="shared" si="24"/>
+        <v>4.0917351515198229E-2</v>
+      </c>
+      <c r="J178" s="24">
+        <f t="shared" si="25"/>
+        <v>4.2744971951340728E-2</v>
+      </c>
+      <c r="K178" s="24">
+        <f t="shared" si="26"/>
+        <v>0.11445946079370728</v>
+      </c>
+      <c r="L178" s="24">
+        <f t="shared" si="27"/>
+        <v>0.31885036139393957</v>
+      </c>
+      <c r="M178" s="24">
+        <f t="shared" si="28"/>
+        <v>0.63926265976347973</v>
+      </c>
+      <c r="N178" s="24">
+        <f t="shared" si="29"/>
+        <v>0.93653064393197749</v>
+      </c>
+      <c r="O178" s="24">
+        <f t="shared" si="30"/>
+        <v>1.2096628521529329</v>
+      </c>
+      <c r="P178" s="24">
+        <f t="shared" si="22"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C180">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C189">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="Q144:R144"/>
+    <mergeCell ref="S144:T144"/>
+    <mergeCell ref="P147:Q147"/>
+    <mergeCell ref="R147:S147"/>
+    <mergeCell ref="A165:T165"/>
     <mergeCell ref="A24:T24"/>
     <mergeCell ref="A56:T56"/>
     <mergeCell ref="A89:T89"/>
     <mergeCell ref="B118:U118"/>
     <mergeCell ref="A142:T142"/>
-    <mergeCell ref="Q144:R144"/>
-    <mergeCell ref="S144:T144"/>
-    <mergeCell ref="P147:Q147"/>
-    <mergeCell ref="R147:S147"/>
-    <mergeCell ref="A165:T165"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/mathematical physics/Book 1.xlsx
+++ b/mathematical physics/Book 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\university-labs\mathematical physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFD2CD1-61DF-4421-8DEF-E39479D8B416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC11E3B1-0038-426C-90E2-CE9BDD907768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -470,13 +470,13 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Excel Built-in Bad" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
@@ -3611,8 +3611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J165" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="H178" sqref="H178"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W156" sqref="W156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4152,28 +4152,28 @@
       <c r="F22" s="5"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -4547,28 +4547,28 @@
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="22"/>
-      <c r="T56" s="22"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="24"/>
+      <c r="S56" s="24"/>
+      <c r="T56" s="24"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
@@ -4925,28 +4925,28 @@
       </c>
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A89" s="22" t="s">
+      <c r="A89" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B89" s="22"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="22"/>
-      <c r="I89" s="22"/>
-      <c r="J89" s="22"/>
-      <c r="K89" s="22"/>
-      <c r="L89" s="22"/>
-      <c r="M89" s="22"/>
-      <c r="N89" s="22"/>
-      <c r="O89" s="22"/>
-      <c r="P89" s="22"/>
-      <c r="Q89" s="22"/>
-      <c r="R89" s="22"/>
-      <c r="S89" s="22"/>
-      <c r="T89" s="22"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="24"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="24"/>
+      <c r="O89" s="24"/>
+      <c r="P89" s="24"/>
+      <c r="Q89" s="24"/>
+      <c r="R89" s="24"/>
+      <c r="S89" s="24"/>
+      <c r="T89" s="24"/>
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.25">
       <c r="F90" t="s">
@@ -5803,28 +5803,28 @@
       <c r="S112" s="13"/>
     </row>
     <row r="118" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B118" s="22" t="s">
+      <c r="B118" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C118" s="22"/>
-      <c r="D118" s="22"/>
-      <c r="E118" s="22"/>
-      <c r="F118" s="22"/>
-      <c r="G118" s="22"/>
-      <c r="H118" s="22"/>
-      <c r="I118" s="22"/>
-      <c r="J118" s="22"/>
-      <c r="K118" s="22"/>
-      <c r="L118" s="22"/>
-      <c r="M118" s="22"/>
-      <c r="N118" s="22"/>
-      <c r="O118" s="22"/>
-      <c r="P118" s="22"/>
-      <c r="Q118" s="22"/>
-      <c r="R118" s="22"/>
-      <c r="S118" s="22"/>
-      <c r="T118" s="22"/>
-      <c r="U118" s="22"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="24"/>
+      <c r="H118" s="24"/>
+      <c r="I118" s="24"/>
+      <c r="J118" s="24"/>
+      <c r="K118" s="24"/>
+      <c r="L118" s="24"/>
+      <c r="M118" s="24"/>
+      <c r="N118" s="24"/>
+      <c r="O118" s="24"/>
+      <c r="P118" s="24"/>
+      <c r="Q118" s="24"/>
+      <c r="R118" s="24"/>
+      <c r="S118" s="24"/>
+      <c r="T118" s="24"/>
+      <c r="U118" s="24"/>
     </row>
     <row r="120" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
@@ -6411,28 +6411,28 @@
       </c>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A142" s="22" t="s">
+      <c r="A142" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B142" s="22"/>
-      <c r="C142" s="22"/>
-      <c r="D142" s="22"/>
-      <c r="E142" s="22"/>
-      <c r="F142" s="22"/>
-      <c r="G142" s="22"/>
-      <c r="H142" s="22"/>
-      <c r="I142" s="22"/>
-      <c r="J142" s="22"/>
-      <c r="K142" s="22"/>
-      <c r="L142" s="22"/>
-      <c r="M142" s="22"/>
-      <c r="N142" s="22"/>
-      <c r="O142" s="22"/>
-      <c r="P142" s="22"/>
-      <c r="Q142" s="22"/>
-      <c r="R142" s="22"/>
-      <c r="S142" s="22"/>
-      <c r="T142" s="22"/>
+      <c r="B142" s="24"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="24"/>
+      <c r="E142" s="24"/>
+      <c r="F142" s="24"/>
+      <c r="G142" s="24"/>
+      <c r="H142" s="24"/>
+      <c r="I142" s="24"/>
+      <c r="J142" s="24"/>
+      <c r="K142" s="24"/>
+      <c r="L142" s="24"/>
+      <c r="M142" s="24"/>
+      <c r="N142" s="24"/>
+      <c r="O142" s="24"/>
+      <c r="P142" s="24"/>
+      <c r="Q142" s="24"/>
+      <c r="R142" s="24"/>
+      <c r="S142" s="24"/>
+      <c r="T142" s="24"/>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
@@ -6607,16 +6607,16 @@
         <v>4</v>
       </c>
       <c r="H149" s="18">
-        <v>11.98695966293122</v>
+        <v>16.715674094167856</v>
       </c>
       <c r="I149" s="18">
-        <v>27.714358069514777</v>
+        <v>37.0628284003513</v>
       </c>
       <c r="J149" s="18">
-        <v>53.771644541344351</v>
+        <v>67.9979181767591</v>
       </c>
       <c r="K149" s="18">
-        <v>92.499418790558792</v>
+        <v>109.77599316181315</v>
       </c>
       <c r="L149" s="18">
         <v>160</v>
@@ -6652,16 +6652,16 @@
         <v>4</v>
       </c>
       <c r="H150" s="18">
-        <v>10.439686775674813</v>
+        <v>19.053157150612662</v>
       </c>
       <c r="I150" s="18">
-        <v>23.56387213688491</v>
+        <v>40.467070746740276</v>
       </c>
       <c r="J150" s="18">
-        <v>46.435309178434466</v>
+        <v>71.352178181941255</v>
       </c>
       <c r="K150" s="18">
-        <v>83.660984012201453</v>
+        <v>112.03986593323339</v>
       </c>
       <c r="L150" s="18">
         <v>160</v>
@@ -6833,16 +6833,16 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>0.12114476321107601</v>
+        <v>0.21817449250684634</v>
       </c>
       <c r="R157">
-        <v>0.12065534699971001</v>
+        <v>0.22601168185648465</v>
       </c>
       <c r="S157">
-        <v>0.118339568676228</v>
+        <v>0.22306917511190164</v>
       </c>
       <c r="T157">
-        <v>0.11603063855215701</v>
+        <v>0.21958659301187419</v>
       </c>
     </row>
     <row r="158" spans="2:20" x14ac:dyDescent="0.25">
@@ -6859,20 +6859,20 @@
         <v>4</v>
       </c>
       <c r="Q158">
-        <f>(P149*P154+H148)/(P151-P149*P153)</f>
+        <f>(P149*P158+H148)/(P151-P149*P153)</f>
         <v>8.6295103170528797</v>
       </c>
       <c r="R158">
-        <f>(Q149*Q154+I148)/(Q151-Q149*Q153)</f>
-        <v>21.226521638633812</v>
+        <f t="shared" ref="R158:T158" si="17">(Q149*Q158+I148)/(Q151-Q149*Q153)</f>
+        <v>21.694504550482346</v>
       </c>
       <c r="S158">
-        <f>(R149*R154+J148)/(R151-R149*R153)</f>
-        <v>42.825303218867845</v>
+        <f t="shared" si="17"/>
+        <v>43.510277935063691</v>
       </c>
       <c r="T158">
-        <f>(S149*S154+K148)/(S151-S149*S153)</f>
-        <v>73.934516622213678</v>
+        <f t="shared" si="17"/>
+        <v>74.642138279913283</v>
       </c>
     </row>
     <row r="159" spans="2:20" x14ac:dyDescent="0.25">
@@ -6888,19 +6888,19 @@
       </c>
       <c r="P159">
         <f>Q157*Q159+Q158</f>
-        <v>11.98695966293122</v>
+        <v>16.715674094167856</v>
       </c>
       <c r="Q159">
         <f>R157*R159+R158</f>
-        <v>27.714358069514777</v>
+        <v>37.0628284003513</v>
       </c>
       <c r="R159">
         <f>S157*S159+S158</f>
-        <v>53.771644541344351</v>
+        <v>67.9979181767591</v>
       </c>
       <c r="S159">
         <f>T157*T159+T158</f>
-        <v>92.499418790558792</v>
+        <v>109.77599316181315</v>
       </c>
       <c r="T159">
         <v>160</v>
@@ -6923,16 +6923,16 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>0.12114476321107601</v>
+        <v>0.21817449250684634</v>
       </c>
       <c r="R161">
-        <v>0.12065534699971001</v>
+        <v>0.22601168185648465</v>
       </c>
       <c r="S161">
-        <v>0.118339568676228</v>
+        <v>0.22306917511190164</v>
       </c>
       <c r="T161">
-        <v>0.11603063855215701</v>
+        <v>0.21958659301187419</v>
       </c>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.25">
@@ -6943,20 +6943,20 @@
         <v>4</v>
       </c>
       <c r="Q162">
-        <f>(P149*P154+H149)/(P151-P149*P153)</f>
-        <v>7.5850470653158197</v>
+        <f>(P149*P162+H149)/(P151-P149*P153)</f>
+        <v>10.224274527203955</v>
       </c>
       <c r="R162">
-        <f>(Q149*Q154+I149)/(Q151-Q149*Q153)</f>
-        <v>17.961203794922081</v>
+        <f t="shared" ref="R162:T162" si="18">(Q149*Q162+I149)/(Q151-Q149*Q153)</f>
+        <v>24.340644951716161</v>
       </c>
       <c r="S162">
-        <f>(R149*R154+J149)/(R151-R149*R153)</f>
-        <v>36.534904415401741</v>
+        <f t="shared" si="18"/>
+        <v>46.359537708566833</v>
       </c>
       <c r="T162">
-        <f>(S149*S154+K149)/(S151-S149*S153)</f>
-        <v>65.096081843856339</v>
+        <f t="shared" si="18"/>
+        <v>76.906011051333508</v>
       </c>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.25">
@@ -6965,47 +6965,47 @@
       </c>
       <c r="P163">
         <f>Q161*Q163+Q162</f>
-        <v>10.439686775674813</v>
+        <v>19.053157150612662</v>
       </c>
       <c r="Q163">
         <f>R161*R163+R162</f>
-        <v>23.56387213688491</v>
+        <v>40.467070746740276</v>
       </c>
       <c r="R163">
         <f>S161*S163+S162</f>
-        <v>46.435309178434466</v>
+        <v>71.352178181941255</v>
       </c>
       <c r="S163">
         <f>T161*T163+T162</f>
-        <v>83.660984012201453</v>
+        <v>112.03986593323339</v>
       </c>
       <c r="T163">
         <v>160</v>
       </c>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A165" s="22" t="s">
+      <c r="A165" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B165" s="22"/>
-      <c r="C165" s="22"/>
-      <c r="D165" s="22"/>
-      <c r="E165" s="22"/>
-      <c r="F165" s="22"/>
-      <c r="G165" s="22"/>
-      <c r="H165" s="22"/>
-      <c r="I165" s="22"/>
-      <c r="J165" s="22"/>
-      <c r="K165" s="22"/>
-      <c r="L165" s="22"/>
-      <c r="M165" s="22"/>
-      <c r="N165" s="22"/>
-      <c r="O165" s="22"/>
-      <c r="P165" s="22"/>
-      <c r="Q165" s="22"/>
-      <c r="R165" s="22"/>
-      <c r="S165" s="22"/>
-      <c r="T165" s="22"/>
+      <c r="B165" s="24"/>
+      <c r="C165" s="24"/>
+      <c r="D165" s="24"/>
+      <c r="E165" s="24"/>
+      <c r="F165" s="24"/>
+      <c r="G165" s="24"/>
+      <c r="H165" s="24"/>
+      <c r="I165" s="24"/>
+      <c r="J165" s="24"/>
+      <c r="K165" s="24"/>
+      <c r="L165" s="24"/>
+      <c r="M165" s="24"/>
+      <c r="N165" s="24"/>
+      <c r="O165" s="24"/>
+      <c r="P165" s="24"/>
+      <c r="Q165" s="24"/>
+      <c r="R165" s="24"/>
+      <c r="S165" s="24"/>
+      <c r="T165" s="24"/>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F166" t="s">
@@ -7016,35 +7016,35 @@
         <v>0.2955202066613396</v>
       </c>
       <c r="H166">
-        <f t="shared" ref="H166:O166" si="17">SIN(H167+0.2)</f>
+        <f t="shared" ref="H166:O166" si="19">SIN(H167+0.2)</f>
         <v>0.38941834230865052</v>
       </c>
       <c r="I166">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.47942553860420301</v>
       </c>
       <c r="J166">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.56464247339503548</v>
       </c>
       <c r="K166">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.64421768723769102</v>
       </c>
       <c r="L166">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.71735609089952279</v>
       </c>
       <c r="M166">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.7833269096274833</v>
       </c>
       <c r="N166">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.8414709848078965</v>
       </c>
       <c r="O166">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.89120736006143542</v>
       </c>
     </row>
@@ -7088,47 +7088,47 @@
       <c r="E168" s="18">
         <v>0</v>
       </c>
-      <c r="F168" s="24">
+      <c r="F168" s="22">
         <f>E168-0.5</f>
         <v>-0.5</v>
       </c>
-      <c r="G168" s="24">
+      <c r="G168" s="22">
         <f>(G167+0.5)*(G167-1)</f>
         <v>-0.54</v>
       </c>
-      <c r="H168" s="24">
-        <f t="shared" ref="H168:O168" si="18">(H167+0.5)*(H167-1)</f>
+      <c r="H168" s="22">
+        <f t="shared" ref="H168:O168" si="20">(H167+0.5)*(H167-1)</f>
         <v>-0.55999999999999994</v>
       </c>
-      <c r="I168" s="24">
-        <f t="shared" si="18"/>
+      <c r="I168" s="22">
+        <f t="shared" si="20"/>
         <v>-0.55999999999999994</v>
       </c>
-      <c r="J168" s="24">
-        <f t="shared" si="18"/>
+      <c r="J168" s="22">
+        <f t="shared" si="20"/>
         <v>-0.54</v>
       </c>
-      <c r="K168" s="24">
-        <f t="shared" si="18"/>
+      <c r="K168" s="22">
+        <f t="shared" si="20"/>
         <v>-0.5</v>
       </c>
-      <c r="L168" s="24">
-        <f t="shared" si="18"/>
+      <c r="L168" s="22">
+        <f t="shared" si="20"/>
         <v>-0.44000000000000006</v>
       </c>
-      <c r="M168" s="24">
-        <f t="shared" si="18"/>
+      <c r="M168" s="22">
+        <f t="shared" si="20"/>
         <v>-0.36000000000000004</v>
       </c>
-      <c r="N168" s="24">
-        <f t="shared" si="18"/>
+      <c r="N168" s="22">
+        <f t="shared" si="20"/>
         <v>-0.25999999999999995</v>
       </c>
-      <c r="O168" s="24">
-        <f t="shared" si="18"/>
+      <c r="O168" s="22">
+        <f t="shared" si="20"/>
         <v>-0.13999999999999996</v>
       </c>
-      <c r="P168" s="24">
+      <c r="P168" s="22">
         <f>3*E168</f>
         <v>0</v>
       </c>
@@ -7137,47 +7137,47 @@
       <c r="E169" s="18">
         <v>0.05</v>
       </c>
-      <c r="F169" s="24">
-        <f t="shared" ref="F169:F178" si="19">E169-0.5</f>
+      <c r="F169" s="22">
+        <f t="shared" ref="F169:F178" si="21">E169-0.5</f>
         <v>-0.45</v>
       </c>
-      <c r="G169" s="24">
+      <c r="G169" s="22">
         <f>G168+$B$177*G166+($B$177^2/2)*(H168-2*G168+F168)/$B$176^2</f>
         <v>-0.52272398966693301</v>
       </c>
-      <c r="H169" s="24">
-        <f t="shared" ref="H169:O169" si="20">H168+$B$177*H166+($B$177^2/2)*(I168-2*H168+G168)/$B$176^2</f>
+      <c r="H169" s="22">
+        <f t="shared" ref="H169:N169" si="22">H168+$B$177*H166+($B$177^2/2)*(I168-2*H168+G168)/$B$176^2</f>
         <v>-0.53802908288456752</v>
       </c>
-      <c r="I169" s="24">
-        <f t="shared" si="20"/>
+      <c r="I169" s="22">
+        <f t="shared" si="22"/>
         <v>-0.53352872306978982</v>
       </c>
-      <c r="J169" s="24">
-        <f t="shared" si="20"/>
+      <c r="J169" s="22">
+        <f t="shared" si="22"/>
         <v>-0.50926787633024817</v>
       </c>
-      <c r="K169" s="24">
-        <f t="shared" si="20"/>
+      <c r="K169" s="22">
+        <f t="shared" si="22"/>
         <v>-0.46528911563811542</v>
       </c>
-      <c r="L169" s="24">
-        <f t="shared" si="20"/>
+      <c r="L169" s="22">
+        <f t="shared" si="22"/>
         <v>-0.40163219545502393</v>
       </c>
-      <c r="M169" s="24">
-        <f t="shared" si="20"/>
+      <c r="M169" s="22">
+        <f t="shared" si="22"/>
         <v>-0.31833365451862589</v>
       </c>
-      <c r="N169" s="24">
-        <f t="shared" si="20"/>
+      <c r="N169" s="22">
+        <f t="shared" si="22"/>
         <v>-0.21542645075960515</v>
       </c>
-      <c r="O169" s="24">
+      <c r="O169" s="22">
         <f>O168+$B$177*O166+($B$177^2/2)*(P168-2*O168+N168)/$B$176^2</f>
         <v>-9.2939631996928174E-2</v>
       </c>
-      <c r="P169" s="24">
+      <c r="P169" s="22">
         <f>3*E169</f>
         <v>0.15000000000000002</v>
       </c>
@@ -7186,48 +7186,48 @@
       <c r="E170" s="18">
         <v>0.1</v>
       </c>
-      <c r="F170" s="24">
-        <f t="shared" si="19"/>
+      <c r="F170" s="22">
+        <f t="shared" si="21"/>
         <v>-0.4</v>
       </c>
-      <c r="G170" s="24">
+      <c r="G170" s="22">
         <f>2*G169-G168+$B$178*(H169-2*G169+F169)</f>
         <v>-0.49109325522154135</v>
       </c>
-      <c r="H170" s="24">
+      <c r="H170" s="22">
         <f>2*H169-H168+$B$178*(I169-2*H169+G169)</f>
         <v>-0.51110680251103202</v>
       </c>
-      <c r="I170" s="24">
-        <f t="shared" ref="H170:O170" si="21">2*I169-I168+$B$178*(J169-2*I169+H169)</f>
+      <c r="I170" s="22">
+        <f t="shared" ref="I170:O170" si="23">2*I169-I168+$B$178*(J169-2*I169+H169)</f>
         <v>-0.50211732440838874</v>
       </c>
-      <c r="J170" s="24">
-        <f t="shared" si="21"/>
+      <c r="J170" s="22">
+        <f t="shared" si="23"/>
         <v>-0.47360627417234852</v>
       </c>
-      <c r="K170" s="24">
-        <f t="shared" si="21"/>
+      <c r="K170" s="22">
+        <f t="shared" si="23"/>
         <v>-0.42565869140349116</v>
       </c>
-      <c r="L170" s="24">
-        <f t="shared" si="21"/>
+      <c r="L170" s="22">
+        <f t="shared" si="23"/>
         <v>-0.35835398572172117</v>
       </c>
-      <c r="M170" s="24">
-        <f t="shared" si="21"/>
+      <c r="M170" s="22">
+        <f t="shared" si="23"/>
         <v>-0.27176514333159607</v>
       </c>
-      <c r="N170" s="24">
-        <f t="shared" si="21"/>
+      <c r="N170" s="22">
+        <f t="shared" si="23"/>
         <v>-0.16595799776829628</v>
       </c>
-      <c r="O170" s="24">
-        <f t="shared" si="21"/>
+      <c r="O170" s="22">
+        <f t="shared" si="23"/>
         <v>-1.5766060685293584E-2</v>
       </c>
-      <c r="P170" s="24">
-        <f t="shared" ref="P169:P178" si="22">3*E170</f>
+      <c r="P170" s="22">
+        <f t="shared" ref="P170:P178" si="24">3*E170</f>
         <v>0.30000000000000004</v>
       </c>
     </row>
@@ -7235,48 +7235,48 @@
       <c r="E171" s="18">
         <v>0.15</v>
       </c>
-      <c r="F171" s="24">
-        <f t="shared" si="19"/>
+      <c r="F171" s="22">
+        <f t="shared" si="21"/>
         <v>-0.35</v>
       </c>
-      <c r="G171" s="24">
+      <c r="G171" s="22">
         <f>2*G170-G169+$B$178*(H170-2*G170+F170)</f>
         <v>-0.44169259379313702</v>
       </c>
-      <c r="H171" s="24">
-        <f t="shared" ref="H171:H178" si="23">2*H170-H169+$B$178*(I170-2*H170+G170)</f>
+      <c r="H171" s="22">
+        <f t="shared" ref="H171:H178" si="25">2*H170-H169+$B$178*(I170-2*H170+G170)</f>
         <v>-0.476933765789463</v>
       </c>
-      <c r="I171" s="24">
-        <f t="shared" ref="I171:I178" si="24">2*I170-I169+$B$178*(J170-2*I170+H170)</f>
+      <c r="I171" s="22">
+        <f t="shared" ref="I171:I178" si="26">2*I170-I169+$B$178*(J170-2*I170+H170)</f>
         <v>-0.46582553271363847</v>
       </c>
-      <c r="J171" s="24">
-        <f t="shared" ref="J171:J178" si="25">2*J170-J169+$B$178*(K170-2*J170+I170)</f>
+      <c r="J171" s="22">
+        <f t="shared" ref="J171:J178" si="27">2*J170-J169+$B$178*(K170-2*J170+I170)</f>
         <v>-0.43308553888124457</v>
       </c>
-      <c r="K171" s="24">
-        <f t="shared" ref="K171:K178" si="26">2*K170-K169+$B$178*(L170-2*K170+J170)</f>
+      <c r="K171" s="22">
+        <f t="shared" ref="K171:K178" si="28">2*K170-K169+$B$178*(L170-2*K170+J170)</f>
         <v>-0.38118898644063876</v>
       </c>
-      <c r="L171" s="24">
-        <f t="shared" ref="L171:L178" si="27">2*L170-L169+$B$178*(M170-2*L170+K170)</f>
+      <c r="L171" s="22">
+        <f t="shared" ref="L171:L178" si="29">2*L170-L169+$B$178*(M170-2*L170+K170)</f>
         <v>-0.31025474181132962</v>
       </c>
-      <c r="M171" s="24">
-        <f t="shared" ref="M171:M178" si="28">2*M170-M169+$B$178*(N170-2*M170+L170)</f>
+      <c r="M171" s="22">
+        <f t="shared" ref="M171:M178" si="30">2*M170-M169+$B$178*(N170-2*M170+L170)</f>
         <v>-0.22039205635127257</v>
       </c>
-      <c r="N171" s="24">
-        <f t="shared" ref="N171:N178" si="29">2*N170-N169+$B$178*(O170-2*N170+M170)</f>
+      <c r="N171" s="22">
+        <f t="shared" ref="N171:N178" si="31">2*N170-N169+$B$178*(O170-2*N170+M170)</f>
         <v>-0.10539334689706169</v>
       </c>
-      <c r="O171" s="24">
-        <f t="shared" ref="O171:O178" si="30">2*O170-O169+$B$178*(P170-2*O170+N170)</f>
+      <c r="O171" s="22">
+        <f t="shared" ref="O171:O178" si="32">2*O170-O169+$B$178*(P170-2*O170+N170)</f>
         <v>0.10280104152691373</v>
       </c>
-      <c r="P171" s="24">
-        <f t="shared" si="22"/>
+      <c r="P171" s="22">
+        <f t="shared" si="24"/>
         <v>0.44999999999999996</v>
       </c>
     </row>
@@ -7284,48 +7284,48 @@
       <c r="E172" s="18">
         <v>0.2</v>
       </c>
-      <c r="F172" s="24">
-        <f t="shared" si="19"/>
+      <c r="F172" s="22">
+        <f t="shared" si="21"/>
         <v>-0.3</v>
       </c>
-      <c r="G172" s="24">
-        <f t="shared" ref="G171:G178" si="31">2*G171-G170+$B$178*(H171-2*G171+F171)</f>
+      <c r="G172" s="22">
+        <f t="shared" ref="G172:G178" si="33">2*G171-G170+$B$178*(H171-2*G171+F171)</f>
         <v>-0.37817907691552993</v>
       </c>
-      <c r="H172" s="24">
-        <f t="shared" si="23"/>
+      <c r="H172" s="22">
+        <f t="shared" si="25"/>
         <v>-0.43117337779985637</v>
       </c>
-      <c r="I172" s="24">
+      <c r="I172" s="22">
+        <f t="shared" si="26"/>
+        <v>-0.42412580082974582</v>
+      </c>
+      <c r="J172" s="22">
+        <f t="shared" si="27"/>
+        <v>-0.38777566393808766</v>
+      </c>
+      <c r="K172" s="22">
+        <f t="shared" si="28"/>
+        <v>-0.33195985843061049</v>
+      </c>
+      <c r="L172" s="22">
+        <f t="shared" si="29"/>
+        <v>-0.25742338769325107</v>
+      </c>
+      <c r="M172" s="22">
+        <f t="shared" si="30"/>
+        <v>-0.16273496337241061</v>
+      </c>
+      <c r="N172" s="22">
+        <f t="shared" si="31"/>
+        <v>-2.1529776283385954E-2</v>
+      </c>
+      <c r="O172" s="22">
+        <f t="shared" si="32"/>
+        <v>0.25611928625139879</v>
+      </c>
+      <c r="P172" s="22">
         <f t="shared" si="24"/>
-        <v>-0.42412580082974582</v>
-      </c>
-      <c r="J172" s="24">
-        <f t="shared" si="25"/>
-        <v>-0.38777566393808766</v>
-      </c>
-      <c r="K172" s="24">
-        <f t="shared" si="26"/>
-        <v>-0.33195985843061049</v>
-      </c>
-      <c r="L172" s="24">
-        <f t="shared" si="27"/>
-        <v>-0.25742338769325107</v>
-      </c>
-      <c r="M172" s="24">
-        <f t="shared" si="28"/>
-        <v>-0.16273496337241061</v>
-      </c>
-      <c r="N172" s="24">
-        <f t="shared" si="29"/>
-        <v>-2.1529776283385954E-2</v>
-      </c>
-      <c r="O172" s="24">
-        <f t="shared" si="30"/>
-        <v>0.25611928625139879</v>
-      </c>
-      <c r="P172" s="24">
-        <f t="shared" si="22"/>
         <v>0.60000000000000009</v>
       </c>
     </row>
@@ -7333,48 +7333,48 @@
       <c r="E173" s="18">
         <v>0.25</v>
       </c>
-      <c r="F173" s="24">
-        <f t="shared" si="19"/>
+      <c r="F173" s="22">
+        <f t="shared" si="21"/>
         <v>-0.25</v>
       </c>
-      <c r="G173" s="24">
-        <f t="shared" si="31"/>
+      <c r="G173" s="22">
+        <f t="shared" si="33"/>
         <v>-0.30836936603012199</v>
       </c>
-      <c r="H173" s="24">
-        <f t="shared" si="23"/>
+      <c r="H173" s="22">
+        <f t="shared" si="25"/>
         <v>-0.37040252034664051</v>
       </c>
-      <c r="I173" s="24">
+      <c r="I173" s="22">
         <f>2*I172-I171+$B$178*(J172-2*I172+H172)</f>
         <v>-0.37510042896546625</v>
       </c>
-      <c r="J173" s="24">
-        <f t="shared" si="25"/>
+      <c r="J173" s="22">
+        <f t="shared" si="27"/>
         <v>-0.33759937184097599</v>
       </c>
-      <c r="K173" s="24">
-        <f t="shared" si="26"/>
+      <c r="K173" s="22">
+        <f t="shared" si="28"/>
         <v>-0.27805056411311169</v>
       </c>
-      <c r="L173" s="24">
-        <f t="shared" si="27"/>
+      <c r="L173" s="22">
+        <f t="shared" si="29"/>
         <v>-0.19955404517930225</v>
       </c>
-      <c r="M173" s="24">
-        <f t="shared" si="28"/>
+      <c r="M173" s="22">
+        <f t="shared" si="30"/>
         <v>-9.3448679701502599E-2</v>
       </c>
-      <c r="N173" s="24">
-        <f t="shared" si="29"/>
+      <c r="N173" s="22">
+        <f t="shared" si="31"/>
         <v>9.6444763191729801E-2</v>
       </c>
-      <c r="O173" s="24">
-        <f t="shared" si="30"/>
+      <c r="O173" s="22">
+        <f t="shared" si="32"/>
         <v>0.42599544377933801</v>
       </c>
-      <c r="P173" s="24">
-        <f t="shared" si="22"/>
+      <c r="P173" s="22">
+        <f t="shared" si="24"/>
         <v>0.75</v>
       </c>
     </row>
@@ -7382,48 +7382,48 @@
       <c r="E174" s="18">
         <v>0.3</v>
       </c>
-      <c r="F174" s="24">
-        <f t="shared" si="19"/>
+      <c r="F174" s="22">
+        <f t="shared" si="21"/>
         <v>-0.2</v>
       </c>
-      <c r="G174" s="24">
+      <c r="G174" s="22">
+        <f t="shared" si="33"/>
+        <v>-0.2394756022163132</v>
+      </c>
+      <c r="H174" s="22">
+        <f t="shared" si="25"/>
+        <v>-0.29529785146900145</v>
+      </c>
+      <c r="I174" s="22">
+        <f t="shared" si="26"/>
+        <v>-0.31552531566535769</v>
+      </c>
+      <c r="J174" s="22">
+        <f t="shared" si="27"/>
+        <v>-0.28191114209302082</v>
+      </c>
+      <c r="K174" s="22">
+        <f t="shared" si="28"/>
+        <v>-0.21940434199412662</v>
+      </c>
+      <c r="L174" s="22">
+        <f t="shared" si="29"/>
+        <v>-0.13478249102935588</v>
+      </c>
+      <c r="M174" s="22">
+        <f t="shared" si="30"/>
+        <v>-3.215376676736395E-3</v>
+      </c>
+      <c r="N174" s="22">
         <f t="shared" si="31"/>
-        <v>-0.2394756022163132</v>
-      </c>
-      <c r="H174" s="24">
-        <f t="shared" si="23"/>
-        <v>-0.29529785146900145</v>
-      </c>
-      <c r="I174" s="24">
+        <v>0.24933361209043953</v>
+      </c>
+      <c r="O174" s="22">
+        <f t="shared" si="32"/>
+        <v>0.59448507021554065</v>
+      </c>
+      <c r="P174" s="22">
         <f t="shared" si="24"/>
-        <v>-0.31552531566535769</v>
-      </c>
-      <c r="J174" s="24">
-        <f t="shared" si="25"/>
-        <v>-0.28191114209302082</v>
-      </c>
-      <c r="K174" s="24">
-        <f t="shared" si="26"/>
-        <v>-0.21940434199412662</v>
-      </c>
-      <c r="L174" s="24">
-        <f t="shared" si="27"/>
-        <v>-0.13478249102935588</v>
-      </c>
-      <c r="M174" s="24">
-        <f t="shared" si="28"/>
-        <v>-3.215376676736395E-3</v>
-      </c>
-      <c r="N174" s="24">
-        <f t="shared" si="29"/>
-        <v>0.24933361209043953</v>
-      </c>
-      <c r="O174" s="24">
-        <f t="shared" si="30"/>
-        <v>0.59448507021554065</v>
-      </c>
-      <c r="P174" s="24">
-        <f t="shared" si="22"/>
         <v>0.89999999999999991</v>
       </c>
     </row>
@@ -7431,48 +7431,48 @@
       <c r="E175" s="18">
         <v>0.35</v>
       </c>
-      <c r="F175" s="24">
-        <f t="shared" si="19"/>
+      <c r="F175" s="22">
+        <f t="shared" si="21"/>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="G175" s="24">
+      <c r="G175" s="22">
+        <f t="shared" si="33"/>
+        <v>-0.17466850016159818</v>
+      </c>
+      <c r="H175" s="22">
+        <f t="shared" si="25"/>
+        <v>-0.21129448632727937</v>
+      </c>
+      <c r="I175" s="22">
+        <f t="shared" si="26"/>
+        <v>-0.24248979292307585</v>
+      </c>
+      <c r="J175" s="22">
+        <f t="shared" si="27"/>
+        <v>-0.21899975571342631</v>
+      </c>
+      <c r="K175" s="22">
+        <f t="shared" si="28"/>
+        <v>-0.15522935715867242</v>
+      </c>
+      <c r="L175" s="22">
+        <f t="shared" si="29"/>
+        <v>-5.8274621032447321E-2</v>
+      </c>
+      <c r="M175" s="22">
+        <f t="shared" si="30"/>
+        <v>0.11726339495166893</v>
+      </c>
+      <c r="N175" s="22">
         <f t="shared" si="31"/>
-        <v>-0.17466850016159818</v>
-      </c>
-      <c r="H175" s="24">
-        <f t="shared" si="23"/>
-        <v>-0.21129448632727937</v>
-      </c>
-      <c r="I175" s="24">
+        <v>0.42537307832863058</v>
+      </c>
+      <c r="O175" s="22">
+        <f t="shared" si="32"/>
+        <v>0.7530655645665828</v>
+      </c>
+      <c r="P175" s="22">
         <f t="shared" si="24"/>
-        <v>-0.24248979292307585</v>
-      </c>
-      <c r="J175" s="24">
-        <f t="shared" si="25"/>
-        <v>-0.21899975571342631</v>
-      </c>
-      <c r="K175" s="24">
-        <f t="shared" si="26"/>
-        <v>-0.15522935715867242</v>
-      </c>
-      <c r="L175" s="24">
-        <f t="shared" si="27"/>
-        <v>-5.8274621032447321E-2</v>
-      </c>
-      <c r="M175" s="24">
-        <f t="shared" si="28"/>
-        <v>0.11726339495166893</v>
-      </c>
-      <c r="N175" s="24">
-        <f t="shared" si="29"/>
-        <v>0.42537307832863058</v>
-      </c>
-      <c r="O175" s="24">
-        <f t="shared" si="30"/>
-        <v>0.7530655645665828</v>
-      </c>
-      <c r="P175" s="24">
-        <f t="shared" si="22"/>
         <v>1.0499999999999998</v>
       </c>
     </row>
@@ -7486,48 +7486,48 @@
       <c r="E176" s="18">
         <v>0.4</v>
       </c>
-      <c r="F176" s="24">
-        <f t="shared" si="19"/>
+      <c r="F176" s="22">
+        <f t="shared" si="21"/>
         <v>-9.9999999999999978E-2</v>
       </c>
-      <c r="G176" s="24">
+      <c r="G176" s="22">
+        <f t="shared" si="33"/>
+        <v>-0.11285076960790393</v>
+      </c>
+      <c r="H176" s="22">
+        <f t="shared" si="25"/>
+        <v>-0.12593345129308611</v>
+      </c>
+      <c r="I176" s="22">
+        <f t="shared" si="26"/>
+        <v>-0.15578293422943251</v>
+      </c>
+      <c r="J176" s="22">
+        <f t="shared" si="27"/>
+        <v>-0.14601827899755571</v>
+      </c>
+      <c r="K176" s="22">
+        <f t="shared" si="28"/>
+        <v>-8.2758287930350422E-2</v>
+      </c>
+      <c r="L176" s="22">
+        <f t="shared" si="29"/>
+        <v>3.7879068928934029E-2</v>
+      </c>
+      <c r="M176" s="22">
+        <f t="shared" si="30"/>
+        <v>0.2708850834282856</v>
+      </c>
+      <c r="N176" s="22">
         <f t="shared" si="31"/>
-        <v>-0.11285076960790393</v>
-      </c>
-      <c r="H176" s="24">
-        <f t="shared" si="23"/>
-        <v>-0.12593345129308611</v>
-      </c>
-      <c r="I176" s="24">
+        <v>0.60630824528206939</v>
+      </c>
+      <c r="O176" s="22">
+        <f t="shared" si="32"/>
+        <v>0.90395654621649113</v>
+      </c>
+      <c r="P176" s="22">
         <f t="shared" si="24"/>
-        <v>-0.15578293422943251</v>
-      </c>
-      <c r="J176" s="24">
-        <f t="shared" si="25"/>
-        <v>-0.14601827899755571</v>
-      </c>
-      <c r="K176" s="24">
-        <f t="shared" si="26"/>
-        <v>-8.2758287930350422E-2</v>
-      </c>
-      <c r="L176" s="24">
-        <f t="shared" si="27"/>
-        <v>3.7879068928934029E-2</v>
-      </c>
-      <c r="M176" s="24">
-        <f t="shared" si="28"/>
-        <v>0.2708850834282856</v>
-      </c>
-      <c r="N176" s="24">
-        <f t="shared" si="29"/>
-        <v>0.60630824528206939</v>
-      </c>
-      <c r="O176" s="24">
-        <f t="shared" si="30"/>
-        <v>0.90395654621649113</v>
-      </c>
-      <c r="P176" s="24">
-        <f t="shared" si="22"/>
         <v>1.2000000000000002</v>
       </c>
     </row>
@@ -7541,48 +7541,48 @@
       <c r="E177" s="18">
         <v>0.45</v>
       </c>
-      <c r="F177" s="24">
-        <f t="shared" si="19"/>
+      <c r="F177" s="22">
+        <f t="shared" si="21"/>
         <v>-4.9999999999999989E-2</v>
       </c>
-      <c r="G177" s="24">
+      <c r="G177" s="22">
+        <f t="shared" si="33"/>
+        <v>-5.1091017073529227E-2</v>
+      </c>
+      <c r="H177" s="22">
+        <f t="shared" si="25"/>
+        <v>-4.4764116571683901E-2</v>
+      </c>
+      <c r="I177" s="22">
+        <f t="shared" si="26"/>
+        <v>-5.9172540993733376E-2</v>
+      </c>
+      <c r="J177" s="22">
+        <f t="shared" si="27"/>
+        <v>-5.9662968322852984E-2</v>
+      </c>
+      <c r="K177" s="22">
+        <f t="shared" si="28"/>
+        <v>4.0571227459913692E-3</v>
+      </c>
+      <c r="L177" s="22">
+        <f t="shared" si="29"/>
+        <v>0.16212492330033215</v>
+      </c>
+      <c r="M177" s="22">
+        <f t="shared" si="30"/>
+        <v>0.45011105874351032</v>
+      </c>
+      <c r="N177" s="22">
         <f t="shared" si="31"/>
-        <v>-5.1091017073529227E-2</v>
-      </c>
-      <c r="H177" s="24">
-        <f t="shared" si="23"/>
-        <v>-4.4764116571683901E-2</v>
-      </c>
-      <c r="I177" s="24">
+        <v>0.77779969700566765</v>
+      </c>
+      <c r="O177" s="22">
+        <f t="shared" si="32"/>
+        <v>1.0544463160786715</v>
+      </c>
+      <c r="P177" s="22">
         <f t="shared" si="24"/>
-        <v>-5.9172540993733376E-2</v>
-      </c>
-      <c r="J177" s="24">
-        <f t="shared" si="25"/>
-        <v>-5.9662968322852984E-2</v>
-      </c>
-      <c r="K177" s="24">
-        <f t="shared" si="26"/>
-        <v>4.0571227459913692E-3</v>
-      </c>
-      <c r="L177" s="24">
-        <f t="shared" si="27"/>
-        <v>0.16212492330033215</v>
-      </c>
-      <c r="M177" s="24">
-        <f t="shared" si="28"/>
-        <v>0.45011105874351032</v>
-      </c>
-      <c r="N177" s="24">
-        <f t="shared" si="29"/>
-        <v>0.77779969700566765</v>
-      </c>
-      <c r="O177" s="24">
-        <f t="shared" si="30"/>
-        <v>1.0544463160786715</v>
-      </c>
-      <c r="P177" s="24">
-        <f t="shared" si="22"/>
         <v>1.35</v>
       </c>
     </row>
@@ -7597,48 +7597,48 @@
       <c r="E178" s="18">
         <v>0.5</v>
       </c>
-      <c r="F178" s="24">
-        <f t="shared" si="19"/>
+      <c r="F178" s="22">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="G178" s="24">
+      <c r="G178" s="22">
+        <f t="shared" si="33"/>
+        <v>1.2523214854689112E-2</v>
+      </c>
+      <c r="H178" s="22">
+        <f t="shared" si="25"/>
+        <v>3.1221386918744612E-2</v>
+      </c>
+      <c r="I178" s="22">
+        <f t="shared" si="26"/>
+        <v>4.0917351515198229E-2</v>
+      </c>
+      <c r="J178" s="22">
+        <f t="shared" si="27"/>
+        <v>4.2744971951340728E-2</v>
+      </c>
+      <c r="K178" s="22">
+        <f t="shared" si="28"/>
+        <v>0.11445946079370728</v>
+      </c>
+      <c r="L178" s="22">
+        <f t="shared" si="29"/>
+        <v>0.31885036139393957</v>
+      </c>
+      <c r="M178" s="22">
+        <f t="shared" si="30"/>
+        <v>0.63926265976347973</v>
+      </c>
+      <c r="N178" s="22">
         <f t="shared" si="31"/>
-        <v>1.2523214854689112E-2</v>
-      </c>
-      <c r="H178" s="24">
-        <f t="shared" si="23"/>
-        <v>3.1221386918744612E-2</v>
-      </c>
-      <c r="I178" s="24">
+        <v>0.93653064393197749</v>
+      </c>
+      <c r="O178" s="22">
+        <f t="shared" si="32"/>
+        <v>1.2096628521529329</v>
+      </c>
+      <c r="P178" s="22">
         <f t="shared" si="24"/>
-        <v>4.0917351515198229E-2</v>
-      </c>
-      <c r="J178" s="24">
-        <f t="shared" si="25"/>
-        <v>4.2744971951340728E-2</v>
-      </c>
-      <c r="K178" s="24">
-        <f t="shared" si="26"/>
-        <v>0.11445946079370728</v>
-      </c>
-      <c r="L178" s="24">
-        <f t="shared" si="27"/>
-        <v>0.31885036139393957</v>
-      </c>
-      <c r="M178" s="24">
-        <f t="shared" si="28"/>
-        <v>0.63926265976347973</v>
-      </c>
-      <c r="N178" s="24">
-        <f t="shared" si="29"/>
-        <v>0.93653064393197749</v>
-      </c>
-      <c r="O178" s="24">
-        <f t="shared" si="30"/>
-        <v>1.2096628521529329</v>
-      </c>
-      <c r="P178" s="24">
-        <f t="shared" si="22"/>
         <v>1.5</v>
       </c>
     </row>
@@ -7654,16 +7654,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A24:T24"/>
+    <mergeCell ref="A56:T56"/>
+    <mergeCell ref="A89:T89"/>
+    <mergeCell ref="B118:U118"/>
+    <mergeCell ref="A142:T142"/>
     <mergeCell ref="Q144:R144"/>
     <mergeCell ref="S144:T144"/>
     <mergeCell ref="P147:Q147"/>
     <mergeCell ref="R147:S147"/>
     <mergeCell ref="A165:T165"/>
-    <mergeCell ref="A24:T24"/>
-    <mergeCell ref="A56:T56"/>
-    <mergeCell ref="A89:T89"/>
-    <mergeCell ref="B118:U118"/>
-    <mergeCell ref="A142:T142"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/mathematical physics/Book 1.xlsx
+++ b/mathematical physics/Book 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\university-labs\mathematical physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC11E3B1-0038-426C-90E2-CE9BDD907768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C4F3E3-52FE-4895-B6CD-B15B04814A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="98">
   <si>
     <t>a=</t>
   </si>
@@ -297,6 +297,39 @@
   </si>
   <si>
     <t>gamma</t>
+  </si>
+  <si>
+    <t>k=</t>
+  </si>
+  <si>
+    <t>w=</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>y0</t>
+  </si>
+  <si>
+    <t>x0</t>
+  </si>
+  <si>
+    <t>t=0</t>
+  </si>
+  <si>
+    <t>t=</t>
+  </si>
+  <si>
+    <t>k=0</t>
+  </si>
+  <si>
+    <t>k=1</t>
+  </si>
+  <si>
+    <t>gamma1=</t>
+  </si>
+  <si>
+    <t>gamma2=</t>
   </si>
 </sst>
 </file>
@@ -471,10 +504,10 @@
     <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3430,6 +3463,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>490781</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>51289</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58AE9AE8-CC1C-0C18-8825-EB0D0DFCF4FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="38290501"/>
+          <a:ext cx="1736358" cy="1765788"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3609,10 +3686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI189"/>
+  <dimension ref="A1:AI237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W156" sqref="W156"/>
+    <sheetView tabSelected="1" topLeftCell="C217" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="O234" sqref="O234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4152,28 +4229,28 @@
       <c r="F22" s="5"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -4547,28 +4624,28 @@
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="24"/>
-      <c r="N56" s="24"/>
-      <c r="O56" s="24"/>
-      <c r="P56" s="24"/>
-      <c r="Q56" s="24"/>
-      <c r="R56" s="24"/>
-      <c r="S56" s="24"/>
-      <c r="T56" s="24"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="23"/>
+      <c r="M56" s="23"/>
+      <c r="N56" s="23"/>
+      <c r="O56" s="23"/>
+      <c r="P56" s="23"/>
+      <c r="Q56" s="23"/>
+      <c r="R56" s="23"/>
+      <c r="S56" s="23"/>
+      <c r="T56" s="23"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
@@ -4925,28 +5002,28 @@
       </c>
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A89" s="24" t="s">
+      <c r="A89" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B89" s="24"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="24"/>
-      <c r="I89" s="24"/>
-      <c r="J89" s="24"/>
-      <c r="K89" s="24"/>
-      <c r="L89" s="24"/>
-      <c r="M89" s="24"/>
-      <c r="N89" s="24"/>
-      <c r="O89" s="24"/>
-      <c r="P89" s="24"/>
-      <c r="Q89" s="24"/>
-      <c r="R89" s="24"/>
-      <c r="S89" s="24"/>
-      <c r="T89" s="24"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="23"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="23"/>
+      <c r="L89" s="23"/>
+      <c r="M89" s="23"/>
+      <c r="N89" s="23"/>
+      <c r="O89" s="23"/>
+      <c r="P89" s="23"/>
+      <c r="Q89" s="23"/>
+      <c r="R89" s="23"/>
+      <c r="S89" s="23"/>
+      <c r="T89" s="23"/>
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.25">
       <c r="F90" t="s">
@@ -5803,28 +5880,28 @@
       <c r="S112" s="13"/>
     </row>
     <row r="118" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B118" s="24" t="s">
+      <c r="B118" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="24"/>
-      <c r="F118" s="24"/>
-      <c r="G118" s="24"/>
-      <c r="H118" s="24"/>
-      <c r="I118" s="24"/>
-      <c r="J118" s="24"/>
-      <c r="K118" s="24"/>
-      <c r="L118" s="24"/>
-      <c r="M118" s="24"/>
-      <c r="N118" s="24"/>
-      <c r="O118" s="24"/>
-      <c r="P118" s="24"/>
-      <c r="Q118" s="24"/>
-      <c r="R118" s="24"/>
-      <c r="S118" s="24"/>
-      <c r="T118" s="24"/>
-      <c r="U118" s="24"/>
+      <c r="C118" s="23"/>
+      <c r="D118" s="23"/>
+      <c r="E118" s="23"/>
+      <c r="F118" s="23"/>
+      <c r="G118" s="23"/>
+      <c r="H118" s="23"/>
+      <c r="I118" s="23"/>
+      <c r="J118" s="23"/>
+      <c r="K118" s="23"/>
+      <c r="L118" s="23"/>
+      <c r="M118" s="23"/>
+      <c r="N118" s="23"/>
+      <c r="O118" s="23"/>
+      <c r="P118" s="23"/>
+      <c r="Q118" s="23"/>
+      <c r="R118" s="23"/>
+      <c r="S118" s="23"/>
+      <c r="T118" s="23"/>
+      <c r="U118" s="23"/>
     </row>
     <row r="120" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
@@ -6411,28 +6488,28 @@
       </c>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A142" s="24" t="s">
+      <c r="A142" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B142" s="24"/>
-      <c r="C142" s="24"/>
-      <c r="D142" s="24"/>
-      <c r="E142" s="24"/>
-      <c r="F142" s="24"/>
-      <c r="G142" s="24"/>
-      <c r="H142" s="24"/>
-      <c r="I142" s="24"/>
-      <c r="J142" s="24"/>
-      <c r="K142" s="24"/>
-      <c r="L142" s="24"/>
-      <c r="M142" s="24"/>
-      <c r="N142" s="24"/>
-      <c r="O142" s="24"/>
-      <c r="P142" s="24"/>
-      <c r="Q142" s="24"/>
-      <c r="R142" s="24"/>
-      <c r="S142" s="24"/>
-      <c r="T142" s="24"/>
+      <c r="B142" s="23"/>
+      <c r="C142" s="23"/>
+      <c r="D142" s="23"/>
+      <c r="E142" s="23"/>
+      <c r="F142" s="23"/>
+      <c r="G142" s="23"/>
+      <c r="H142" s="23"/>
+      <c r="I142" s="23"/>
+      <c r="J142" s="23"/>
+      <c r="K142" s="23"/>
+      <c r="L142" s="23"/>
+      <c r="M142" s="23"/>
+      <c r="N142" s="23"/>
+      <c r="O142" s="23"/>
+      <c r="P142" s="23"/>
+      <c r="Q142" s="23"/>
+      <c r="R142" s="23"/>
+      <c r="S142" s="23"/>
+      <c r="T142" s="23"/>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
@@ -6444,14 +6521,14 @@
         <v>77</v>
       </c>
       <c r="P144" s="1"/>
-      <c r="Q144" s="23">
+      <c r="Q144" s="24">
         <v>2</v>
       </c>
-      <c r="R144" s="23"/>
-      <c r="S144" s="23">
+      <c r="R144" s="24"/>
+      <c r="S144" s="24">
         <v>4</v>
       </c>
-      <c r="T144" s="23"/>
+      <c r="T144" s="24"/>
     </row>
     <row r="145" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
@@ -6570,14 +6647,14 @@
         <v>160</v>
       </c>
       <c r="O147" s="9"/>
-      <c r="P147" s="23">
+      <c r="P147" s="24">
         <v>1</v>
       </c>
-      <c r="Q147" s="23"/>
-      <c r="R147" s="23">
+      <c r="Q147" s="24"/>
+      <c r="R147" s="24">
         <v>3</v>
       </c>
-      <c r="S147" s="23"/>
+      <c r="S147" s="24"/>
       <c r="T147" s="1"/>
     </row>
     <row r="148" spans="2:20" x14ac:dyDescent="0.25">
@@ -6984,28 +7061,28 @@
       </c>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A165" s="24" t="s">
+      <c r="A165" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B165" s="24"/>
-      <c r="C165" s="24"/>
-      <c r="D165" s="24"/>
-      <c r="E165" s="24"/>
-      <c r="F165" s="24"/>
-      <c r="G165" s="24"/>
-      <c r="H165" s="24"/>
-      <c r="I165" s="24"/>
-      <c r="J165" s="24"/>
-      <c r="K165" s="24"/>
-      <c r="L165" s="24"/>
-      <c r="M165" s="24"/>
-      <c r="N165" s="24"/>
-      <c r="O165" s="24"/>
-      <c r="P165" s="24"/>
-      <c r="Q165" s="24"/>
-      <c r="R165" s="24"/>
-      <c r="S165" s="24"/>
-      <c r="T165" s="24"/>
+      <c r="B165" s="23"/>
+      <c r="C165" s="23"/>
+      <c r="D165" s="23"/>
+      <c r="E165" s="23"/>
+      <c r="F165" s="23"/>
+      <c r="G165" s="23"/>
+      <c r="H165" s="23"/>
+      <c r="I165" s="23"/>
+      <c r="J165" s="23"/>
+      <c r="K165" s="23"/>
+      <c r="L165" s="23"/>
+      <c r="M165" s="23"/>
+      <c r="N165" s="23"/>
+      <c r="O165" s="23"/>
+      <c r="P165" s="23"/>
+      <c r="Q165" s="23"/>
+      <c r="R165" s="23"/>
+      <c r="S165" s="23"/>
+      <c r="T165" s="23"/>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F166" t="s">
@@ -7652,18 +7729,731 @@
         <v>12</v>
       </c>
     </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A195" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B195" s="23"/>
+      <c r="C195" s="23"/>
+      <c r="D195" s="23"/>
+      <c r="E195" s="23"/>
+      <c r="F195" s="23"/>
+      <c r="G195" s="23"/>
+      <c r="H195" s="23"/>
+      <c r="I195" s="23"/>
+      <c r="J195" s="23"/>
+      <c r="K195" s="23"/>
+      <c r="L195" s="23"/>
+      <c r="M195" s="23"/>
+      <c r="N195" s="23"/>
+      <c r="O195" s="23"/>
+      <c r="P195" s="23"/>
+      <c r="Q195" s="23"/>
+      <c r="R195" s="23"/>
+      <c r="S195" s="23"/>
+      <c r="T195" s="23"/>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C197" t="s">
+        <v>41</v>
+      </c>
+      <c r="D197">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C198" t="s">
+        <v>87</v>
+      </c>
+      <c r="D198">
+        <v>1</v>
+      </c>
+      <c r="H198" t="s">
+        <v>89</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>1</v>
+      </c>
+      <c r="K198">
+        <v>2</v>
+      </c>
+      <c r="L198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C199" t="s">
+        <v>88</v>
+      </c>
+      <c r="D199">
+        <f>D197*D198</f>
+        <v>4</v>
+      </c>
+      <c r="H199" s="18"/>
+      <c r="I199" s="18"/>
+      <c r="M199" s="18"/>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D200" t="s">
+        <v>84</v>
+      </c>
+      <c r="H200" s="18">
+        <v>4</v>
+      </c>
+      <c r="I200" s="18">
+        <v>0</v>
+      </c>
+      <c r="J200" s="18">
+        <f>3*J198</f>
+        <v>3</v>
+      </c>
+      <c r="K200" s="18">
+        <f>3*K198</f>
+        <v>6</v>
+      </c>
+      <c r="L200" s="18">
+        <f>3*L198</f>
+        <v>9</v>
+      </c>
+      <c r="M200" s="18">
+        <f>4*H200</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D201">
+        <v>0.1</v>
+      </c>
+      <c r="F201" t="s">
+        <v>91</v>
+      </c>
+      <c r="G201" t="s">
+        <v>92</v>
+      </c>
+      <c r="H201" s="18">
+        <v>3</v>
+      </c>
+      <c r="I201" s="18">
+        <v>0</v>
+      </c>
+      <c r="J201" s="18">
+        <f t="shared" ref="J200:J203" si="34">$D$197*SIN((PI()*$J$198)/4)*COS((PI()*H201)/3)</f>
+        <v>-2.8284271247461898</v>
+      </c>
+      <c r="K201" s="18">
+        <f t="shared" ref="K201:K203" si="35">$D$197*SIN((PI()*$K$198)/4)*COS((PI()*H201)/3)</f>
+        <v>-4</v>
+      </c>
+      <c r="L201" s="18">
+        <f t="shared" ref="L201:L203" si="36">$D$197*SIN((PI()*$L$198)/4)*COS((PI()*H201)/3)</f>
+        <v>-2.8284271247461903</v>
+      </c>
+      <c r="M201" s="18">
+        <f>4*H201</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D202">
+        <v>0.2</v>
+      </c>
+      <c r="G202" t="s">
+        <v>94</v>
+      </c>
+      <c r="H202" s="18">
+        <v>2</v>
+      </c>
+      <c r="I202" s="18">
+        <v>0</v>
+      </c>
+      <c r="J202" s="18">
+        <f t="shared" si="34"/>
+        <v>-1.4142135623730943</v>
+      </c>
+      <c r="K202" s="18">
+        <f t="shared" si="35"/>
+        <v>-1.9999999999999991</v>
+      </c>
+      <c r="L202" s="18">
+        <f t="shared" si="36"/>
+        <v>-1.4142135623730945</v>
+      </c>
+      <c r="M202" s="18">
+        <f>4*H202</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D203">
+        <v>0.3</v>
+      </c>
+      <c r="H203" s="18">
+        <v>1</v>
+      </c>
+      <c r="I203" s="18">
+        <v>0</v>
+      </c>
+      <c r="J203" s="18">
+        <f t="shared" si="34"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="K203" s="18">
+        <f t="shared" si="35"/>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="L203" s="18">
+        <f t="shared" si="36"/>
+        <v>1.4142135623730954</v>
+      </c>
+      <c r="M203" s="18">
+        <f>4*H203</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H204" s="18">
+        <v>0</v>
+      </c>
+      <c r="I204" s="18">
+        <v>0</v>
+      </c>
+      <c r="J204" s="18">
+        <v>0</v>
+      </c>
+      <c r="K204" s="18">
+        <v>0</v>
+      </c>
+      <c r="L204" s="18">
+        <v>0</v>
+      </c>
+      <c r="M204" s="18">
+        <f>4*H204</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H205" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I205" s="18"/>
+      <c r="M205" s="18"/>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H208" t="s">
+        <v>89</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>1</v>
+      </c>
+      <c r="K208">
+        <v>2</v>
+      </c>
+      <c r="L208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F209" t="s">
+        <v>93</v>
+      </c>
+      <c r="G209">
+        <v>0.1</v>
+      </c>
+      <c r="H209" s="18"/>
+      <c r="I209" s="18"/>
+      <c r="M209" s="18"/>
+    </row>
+    <row r="210" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F210" t="s">
+        <v>95</v>
+      </c>
+      <c r="H210" s="18">
+        <v>4</v>
+      </c>
+      <c r="I210" s="18">
+        <f t="shared" ref="I210:I213" si="37">0+$D$197*SIN($D$199*$G$209)</f>
+        <v>1.5576733692346021</v>
+      </c>
+      <c r="J210" s="18">
+        <f>3*J208</f>
+        <v>3</v>
+      </c>
+      <c r="K210" s="18">
+        <f>3*K208</f>
+        <v>6</v>
+      </c>
+      <c r="L210" s="18">
+        <f>3*L208</f>
+        <v>9</v>
+      </c>
+      <c r="M210" s="18">
+        <f t="shared" ref="M210:M213" si="38">4*H210+1*COS($D$199*$G$209)</f>
+        <v>16.921060994002886</v>
+      </c>
+    </row>
+    <row r="211" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D211" t="s">
+        <v>96</v>
+      </c>
+      <c r="E211">
+        <f>$G$209/1</f>
+        <v>0.1</v>
+      </c>
+      <c r="H211" s="18">
+        <v>3</v>
+      </c>
+      <c r="I211" s="18">
+        <f t="shared" si="37"/>
+        <v>1.5576733692346021</v>
+      </c>
+      <c r="J211" s="18">
+        <f t="shared" ref="J211:L211" si="39">J201+$E$211*(I201-2*J201+K201)+$E$212*(J202-2*J201+J200)</f>
+        <v>-1.9384776310850234</v>
+      </c>
+      <c r="K211" s="18">
+        <f t="shared" si="39"/>
+        <v>-2.5656854249492378</v>
+      </c>
+      <c r="L211" s="18">
+        <f t="shared" si="39"/>
+        <v>-0.13847763108502353</v>
+      </c>
+      <c r="M211" s="18">
+        <f t="shared" si="38"/>
+        <v>12.921060994002886</v>
+      </c>
+    </row>
+    <row r="212" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D212" t="s">
+        <v>97</v>
+      </c>
+      <c r="E212">
+        <f>$E$211</f>
+        <v>0.1</v>
+      </c>
+      <c r="H212" s="18">
+        <v>2</v>
+      </c>
+      <c r="I212" s="18">
+        <f t="shared" si="37"/>
+        <v>1.5576733692346021</v>
+      </c>
+      <c r="J212" s="18">
+        <f t="shared" ref="J212:L212" si="40">J202+$E$211*(I202-2*J202+K202)+$E$212*(J203-2*J202+J201)</f>
+        <v>-1.1899494936611659</v>
+      </c>
+      <c r="K212" s="18">
+        <f t="shared" si="40"/>
+        <v>-1.6828427124746184</v>
+      </c>
+      <c r="L212" s="18">
+        <f t="shared" si="40"/>
+        <v>-0.38994949366116616</v>
+      </c>
+      <c r="M212" s="18">
+        <f t="shared" si="38"/>
+        <v>8.921060994002886</v>
+      </c>
+    </row>
+    <row r="213" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="H213" s="18">
+        <v>1</v>
+      </c>
+      <c r="I213" s="18">
+        <f t="shared" si="37"/>
+        <v>1.5576733692346021</v>
+      </c>
+      <c r="J213" s="18">
+        <f>J203+$E$211*(I203-2*J203+K203)+$E$212*(J204-2*J203+J202)</f>
+        <v>0.90710678118654764</v>
+      </c>
+      <c r="K213" s="18">
+        <f t="shared" ref="K213:L213" si="41">K203+$E$211*(J203-2*K203+L203)+$E$212*(K204-2*K203+K202)</f>
+        <v>1.2828427124746193</v>
+      </c>
+      <c r="L213" s="18">
+        <f t="shared" si="41"/>
+        <v>1.3071067811865478</v>
+      </c>
+      <c r="M213" s="18">
+        <f t="shared" si="38"/>
+        <v>4.9210609940028851</v>
+      </c>
+    </row>
+    <row r="214" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="H214" s="18">
+        <v>0</v>
+      </c>
+      <c r="I214" s="18">
+        <f>0+$D$197*SIN($D$199*$G$209)</f>
+        <v>1.5576733692346021</v>
+      </c>
+      <c r="J214" s="18">
+        <v>0</v>
+      </c>
+      <c r="K214" s="18">
+        <v>0</v>
+      </c>
+      <c r="L214" s="18">
+        <v>0</v>
+      </c>
+      <c r="M214" s="18">
+        <f>4*H214+1*COS($D$199*$G$209)</f>
+        <v>0.9210609940028851</v>
+      </c>
+    </row>
+    <row r="215" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="H215" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I215" s="18"/>
+      <c r="M215" s="18"/>
+    </row>
+    <row r="219" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="H219" t="s">
+        <v>89</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>1</v>
+      </c>
+      <c r="K219">
+        <v>2</v>
+      </c>
+      <c r="L219">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="H220" s="18"/>
+      <c r="I220" s="18"/>
+      <c r="M220" s="18"/>
+    </row>
+    <row r="221" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F221" t="s">
+        <v>93</v>
+      </c>
+      <c r="G221">
+        <v>0.2</v>
+      </c>
+      <c r="H221" s="18">
+        <v>4</v>
+      </c>
+      <c r="I221" s="18">
+        <f t="shared" ref="I221:I224" si="42">0+$D$197*SIN($D$199*$G$221)</f>
+        <v>2.8694243635980912</v>
+      </c>
+      <c r="J221" s="18">
+        <f>3*J219</f>
+        <v>3</v>
+      </c>
+      <c r="K221" s="18">
+        <f>3*K219</f>
+        <v>6</v>
+      </c>
+      <c r="L221" s="18">
+        <f>3*L219</f>
+        <v>9</v>
+      </c>
+      <c r="M221" s="18">
+        <f>4*H221+1*COS($D$199*$G$221)</f>
+        <v>16.696706709347165</v>
+      </c>
+    </row>
+    <row r="222" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F222" t="s">
+        <v>87</v>
+      </c>
+      <c r="G222">
+        <v>2</v>
+      </c>
+      <c r="H222" s="18">
+        <v>3</v>
+      </c>
+      <c r="I222" s="18">
+        <f t="shared" si="42"/>
+        <v>2.8694243635980912</v>
+      </c>
+      <c r="J222" s="18">
+        <f t="shared" ref="J222:L222" si="43">J212+$E$211*(I211-2*J211+K211)+$E$212*(J212-2*J211+J210)</f>
+        <v>-0.33435459616473673</v>
+      </c>
+      <c r="K222" s="18">
+        <f t="shared" si="43"/>
+        <v>-0.43254833995938968</v>
+      </c>
+      <c r="L222" s="18">
+        <f t="shared" si="43"/>
+        <v>1.5619841663120915</v>
+      </c>
+      <c r="M222" s="18">
+        <f t="shared" ref="M221:M224" si="44">4*H222+1*COS($D$199*$G$221)</f>
+        <v>12.696706709347165</v>
+      </c>
+    </row>
+    <row r="223" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="H223" s="18">
+        <v>2</v>
+      </c>
+      <c r="I223" s="18">
+        <f t="shared" si="42"/>
+        <v>2.8694243635980912</v>
+      </c>
+      <c r="J223" s="18">
+        <f t="shared" ref="J223:L223" si="45">J213+$E$211*(I212-2*J212+K212)+$E$212*(J213-2*J212+J211)</f>
+        <v>1.2674325593371649</v>
+      </c>
+      <c r="K223" s="18">
+        <f t="shared" si="45"/>
+        <v>1.6697056274847717</v>
+      </c>
+      <c r="L223" s="18">
+        <f t="shared" si="45"/>
+        <v>2.3037713218139935</v>
+      </c>
+      <c r="M223" s="18">
+        <f t="shared" si="44"/>
+        <v>8.6967067093471648</v>
+      </c>
+    </row>
+    <row r="224" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="H224" s="18">
+        <v>1</v>
+      </c>
+      <c r="I224" s="18">
+        <f t="shared" si="42"/>
+        <v>2.8694243635980912</v>
+      </c>
+      <c r="J224" s="18">
+        <f>J214+$E$211*(I213-2*J213+K213)+$E$212*(J214-2*J213+J212)</f>
+        <v>-0.1977860536698135</v>
+      </c>
+      <c r="K224" s="18">
+        <f t="shared" ref="K224:L224" si="46">K214+$E$211*(J213-2*K213+L213)+$E$212*(K214-2*K213+K212)</f>
+        <v>-0.46000000000000008</v>
+      </c>
+      <c r="L224" s="18">
+        <f t="shared" si="46"/>
+        <v>5.8552708807014742E-2</v>
+      </c>
+      <c r="M224" s="18">
+        <f t="shared" si="44"/>
+        <v>4.6967067093471657</v>
+      </c>
+    </row>
+    <row r="225" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="H225" s="18">
+        <v>0</v>
+      </c>
+      <c r="I225" s="18">
+        <f>0+$D$197*SIN($D$199*$G$221)</f>
+        <v>2.8694243635980912</v>
+      </c>
+      <c r="J225" s="18">
+        <v>0</v>
+      </c>
+      <c r="K225" s="18">
+        <v>0</v>
+      </c>
+      <c r="L225" s="18">
+        <v>0</v>
+      </c>
+      <c r="M225" s="18">
+        <f>4*H225+1*COS($D$199*$G$221)</f>
+        <v>0.69670670934716539</v>
+      </c>
+    </row>
+    <row r="226" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="H226" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I226" s="18"/>
+      <c r="M226" s="18"/>
+    </row>
+    <row r="230" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="H230" t="s">
+        <v>89</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>1</v>
+      </c>
+      <c r="K230">
+        <v>2</v>
+      </c>
+      <c r="L230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="H231" s="18"/>
+      <c r="I231" s="18"/>
+      <c r="M231" s="18"/>
+    </row>
+    <row r="232" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F232" t="s">
+        <v>93</v>
+      </c>
+      <c r="G232">
+        <v>0.3</v>
+      </c>
+      <c r="H232" s="18">
+        <v>4</v>
+      </c>
+      <c r="I232" s="18">
+        <f t="shared" ref="I232:I235" si="47">0+$D$197*SIN($D$199*$G$232)</f>
+        <v>3.7281563438689052</v>
+      </c>
+      <c r="J232" s="18">
+        <f>3*J230</f>
+        <v>3</v>
+      </c>
+      <c r="K232" s="18">
+        <f>3*K230</f>
+        <v>6</v>
+      </c>
+      <c r="L232" s="18">
+        <f>3*L230</f>
+        <v>9</v>
+      </c>
+      <c r="M232" s="18">
+        <f t="shared" ref="M232:M235" si="48">4*H232+1*COS($D$199*$G$232)</f>
+        <v>16.362357754476673</v>
+      </c>
+    </row>
+    <row r="233" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F233" t="s">
+        <v>87</v>
+      </c>
+      <c r="G233">
+        <v>2</v>
+      </c>
+      <c r="H233" s="18">
+        <v>3</v>
+      </c>
+      <c r="I233" s="18">
+        <f t="shared" si="47"/>
+        <v>3.7281563438689052</v>
+      </c>
+      <c r="J233" s="18">
+        <f t="shared" ref="J233:L233" si="49">J223+$E$211*(I222-2*J222+K222)+$E$212*(J223-2*J222+J221)</f>
+        <v>2.0716052561006464</v>
+      </c>
+      <c r="K233" s="18">
+        <f t="shared" si="49"/>
+        <v>2.7324584832317402</v>
+      </c>
+      <c r="L233" s="18">
+        <f t="shared" si="49"/>
+        <v>4.0357706244093343</v>
+      </c>
+      <c r="M233" s="18">
+        <f t="shared" si="48"/>
+        <v>12.362357754476674</v>
+      </c>
+    </row>
+    <row r="234" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="H234" s="18">
+        <v>2</v>
+      </c>
+      <c r="I234" s="18">
+        <f t="shared" si="47"/>
+        <v>3.7281563438689052</v>
+      </c>
+      <c r="J234" s="18">
+        <f t="shared" ref="J234:L234" si="50">J224+$E$211*(I223-2*J223+K223)+$E$212*(J224-2*J223+J222)</f>
+        <v>-0.30406014327984815</v>
+      </c>
+      <c r="K234" s="18">
+        <f t="shared" si="50"/>
+        <v>-0.86001669687473181</v>
+      </c>
+      <c r="L234" s="18">
+        <f t="shared" si="50"/>
+        <v>0.33573910127652168</v>
+      </c>
+      <c r="M234" s="18">
+        <f t="shared" si="48"/>
+        <v>8.3623577544766743</v>
+      </c>
+    </row>
+    <row r="235" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="H235" s="18">
+        <v>1</v>
+      </c>
+      <c r="I235" s="18">
+        <f t="shared" si="47"/>
+        <v>3.7281563438689052</v>
+      </c>
+      <c r="J235" s="18">
+        <f>J225+$E$211*(I224-2*J224+K224)+$E$212*(J225-2*J224+J223)</f>
+        <v>0.44680011376145101</v>
+      </c>
+      <c r="K235" s="18">
+        <f t="shared" ref="K235:L235" si="51">K225+$E$211*(J224-2*K224+L224)+$E$212*(K225-2*K224+K223)</f>
+        <v>0.33704722826219741</v>
+      </c>
+      <c r="L235" s="18">
+        <f t="shared" si="51"/>
+        <v>0.63062671959331007</v>
+      </c>
+      <c r="M235" s="18">
+        <f t="shared" si="48"/>
+        <v>4.3623577544766734</v>
+      </c>
+    </row>
+    <row r="236" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="H236" s="18">
+        <v>0</v>
+      </c>
+      <c r="I236" s="18">
+        <f>0+$D$197*SIN($D$199*$G$232)</f>
+        <v>3.7281563438689052</v>
+      </c>
+      <c r="J236" s="18">
+        <v>0</v>
+      </c>
+      <c r="K236" s="18">
+        <v>0</v>
+      </c>
+      <c r="L236" s="18">
+        <v>0</v>
+      </c>
+      <c r="M236" s="18">
+        <f>4*H236+1*COS($D$199*$G$232)</f>
+        <v>0.36235775447667362</v>
+      </c>
+    </row>
+    <row r="237" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="H237" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I237" s="18"/>
+      <c r="M237" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A195:T195"/>
+    <mergeCell ref="Q144:R144"/>
+    <mergeCell ref="S144:T144"/>
+    <mergeCell ref="P147:Q147"/>
+    <mergeCell ref="R147:S147"/>
+    <mergeCell ref="A165:T165"/>
     <mergeCell ref="A24:T24"/>
     <mergeCell ref="A56:T56"/>
     <mergeCell ref="A89:T89"/>
     <mergeCell ref="B118:U118"/>
     <mergeCell ref="A142:T142"/>
-    <mergeCell ref="Q144:R144"/>
-    <mergeCell ref="S144:T144"/>
-    <mergeCell ref="P147:Q147"/>
-    <mergeCell ref="R147:S147"/>
-    <mergeCell ref="A165:T165"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
